--- a/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
+++ b/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CPU11496-local\Documents\Projects\ReadAndWriteFileExcel\TrungTrang\bin\Debug\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\exceltrungtrang\ReadAndWriteFileExcel\TrungTrang\bin\Debug\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D063D68-5EA7-46B0-9330-68474FF76E0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="31" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$1:$AK$70</definedName>
     <definedName name="Tên_tiếng_Việt94">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -165,11 +166,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1312,15 +1313,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,12 +1385,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="14" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,42 +1422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1420,52 +1442,31 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 2 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="6"/>
-    <cellStyle name="Normal_So theo doi DV" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal_So theo doi DV" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1498,7 +1499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1551,18 +1558,11 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
+            <a:rPr lang="vi-VN" sz="2000" b="1">
               <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Cửa hàng do Honda ủy nhiệm HEAD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> 49010</a:t>
+            <a:t>Công Ty TNHH Thương Mại Trung Trang</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000" b="1">
             <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
@@ -1594,7 +1594,7 @@
               <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>: 612/31B</a:t>
+            <a:t>: 613A/31</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
@@ -1750,7 +1750,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1929,7 +1935,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59395" name="Picture 44"/>
+        <xdr:cNvPr id="59395" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003E80000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1997,7 +2009,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59396" name="Picture 11"/>
+        <xdr:cNvPr id="59396" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004E80000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2065,7 +2083,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59397" name="Picture 13"/>
+        <xdr:cNvPr id="59397" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005E80000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2197,6 +2221,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2232,6 +2273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2407,14 +2465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14:AI16"/>
+      <selection activeCell="AJ45" sqref="AJ45:AK45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
@@ -2473,38 +2531,38 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-      <c r="J2" s="168" t="s">
+      <c r="J2" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="179"/>
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
-      <c r="AH2" s="169" t="s">
+      <c r="AH2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="177"/>
-      <c r="AK2" s="178"/>
+      <c r="AI2" s="183"/>
+      <c r="AJ2" s="183"/>
+      <c r="AK2" s="184"/>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -2516,34 +2574,34 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="179"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
       <c r="AF3" s="34"/>
       <c r="AG3" s="34"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="179"/>
-      <c r="AJ3" s="179"/>
-      <c r="AK3" s="180"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="185"/>
+      <c r="AJ3" s="185"/>
+      <c r="AK3" s="186"/>
     </row>
     <row r="4" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3"/>
@@ -2555,34 +2613,34 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="179"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="179"/>
+      <c r="Z4" s="179"/>
+      <c r="AA4" s="179"/>
+      <c r="AB4" s="179"/>
+      <c r="AC4" s="179"/>
+      <c r="AD4" s="179"/>
+      <c r="AE4" s="179"/>
       <c r="AF4" s="34"/>
       <c r="AG4" s="34"/>
-      <c r="AH4" s="171"/>
-      <c r="AI4" s="181"/>
-      <c r="AJ4" s="181"/>
-      <c r="AK4" s="182"/>
+      <c r="AH4" s="182"/>
+      <c r="AI4" s="187"/>
+      <c r="AJ4" s="187"/>
+      <c r="AK4" s="188"/>
     </row>
     <row r="5" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="4"/>
@@ -2594,28 +2652,28 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="168"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="179"/>
+      <c r="AB5" s="179"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="179"/>
       <c r="AF5" s="34"/>
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
@@ -2637,14 +2695,14 @@
       <c r="K6" s="4"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
@@ -2707,40 +2765,40 @@
       <c r="AD7" s="94"/>
       <c r="AE7" s="94"/>
       <c r="AF7" s="94"/>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
-      <c r="AK7" s="160"/>
+      <c r="AG7" s="190"/>
+      <c r="AH7" s="191"/>
+      <c r="AI7" s="191"/>
+      <c r="AJ7" s="191"/>
+      <c r="AK7" s="192"/>
     </row>
     <row r="8" spans="1:37" s="20" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="174"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="190"/>
-      <c r="R8" s="190"/>
-      <c r="S8" s="190"/>
-      <c r="T8" s="190"/>
-      <c r="U8" s="190"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="190"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="191"/>
+      <c r="A8" s="193"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="197"/>
+      <c r="AA8" s="198"/>
       <c r="AB8" s="93" t="s">
         <v>33</v>
       </c>
@@ -2749,10 +2807,10 @@
       <c r="AE8" s="96"/>
       <c r="AF8" s="96"/>
       <c r="AG8" s="96"/>
-      <c r="AH8" s="183"/>
-      <c r="AI8" s="183"/>
-      <c r="AJ8" s="183"/>
-      <c r="AK8" s="184"/>
+      <c r="AH8" s="202"/>
+      <c r="AI8" s="202"/>
+      <c r="AJ8" s="202"/>
+      <c r="AK8" s="203"/>
     </row>
     <row r="9" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="97" t="s">
@@ -2760,30 +2818,30 @@
       </c>
       <c r="B9" s="95"/>
       <c r="C9" s="106"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="193"/>
-      <c r="V9" s="193"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="194"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="200"/>
+      <c r="Q9" s="200"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="200"/>
+      <c r="U9" s="200"/>
+      <c r="V9" s="200"/>
+      <c r="W9" s="200"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="200"/>
+      <c r="Z9" s="200"/>
+      <c r="AA9" s="201"/>
       <c r="AB9" s="93" t="s">
         <v>25</v>
       </c>
@@ -2792,102 +2850,102 @@
       <c r="AE9" s="96"/>
       <c r="AF9" s="96"/>
       <c r="AG9" s="96"/>
-      <c r="AH9" s="185"/>
-      <c r="AI9" s="185"/>
-      <c r="AJ9" s="185"/>
-      <c r="AK9" s="186"/>
+      <c r="AH9" s="205"/>
+      <c r="AI9" s="205"/>
+      <c r="AJ9" s="205"/>
+      <c r="AK9" s="206"/>
     </row>
     <row r="10" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A10" s="93" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="94"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="161" t="s">
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="161"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
+      <c r="U10" s="170"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="170"/>
+      <c r="Y10" s="170"/>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="170"/>
       <c r="AB10" s="93" t="s">
         <v>9</v>
       </c>
       <c r="AC10" s="94"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="187"/>
-      <c r="AF10" s="187"/>
-      <c r="AG10" s="187"/>
-      <c r="AH10" s="187"/>
-      <c r="AI10" s="187"/>
-      <c r="AJ10" s="187"/>
-      <c r="AK10" s="188"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="171"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="171"/>
+      <c r="AJ10" s="171"/>
+      <c r="AK10" s="172"/>
     </row>
     <row r="11" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="95"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="161" t="s">
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="161" t="s">
+      <c r="L11" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="161"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="170"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="170"/>
+      <c r="Y11" s="170"/>
+      <c r="Z11" s="170"/>
+      <c r="AA11" s="170"/>
       <c r="AB11" s="98" t="s">
         <v>5</v>
       </c>
       <c r="AC11" s="94"/>
       <c r="AD11" s="94"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="162"/>
-      <c r="AH11" s="162"/>
-      <c r="AI11" s="162"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="163"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="174"/>
     </row>
     <row r="12" spans="1:37" s="20" customFormat="1" ht="9.75" customHeight="1">
       <c r="A12" s="64"/>
@@ -2929,86 +2987,86 @@
       <c r="AK12" s="13"/>
     </row>
     <row r="13" spans="1:37" s="20" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="165" t="s">
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="165"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="165"/>
-      <c r="W13" s="165"/>
-      <c r="X13" s="165"/>
-      <c r="Y13" s="165"/>
-      <c r="Z13" s="165"/>
-      <c r="AA13" s="165"/>
-      <c r="AB13" s="165"/>
-      <c r="AC13" s="165"/>
-      <c r="AD13" s="165"/>
-      <c r="AE13" s="165"/>
-      <c r="AF13" s="165"/>
-      <c r="AG13" s="165"/>
-      <c r="AH13" s="165"/>
-      <c r="AI13" s="166"/>
-      <c r="AJ13" s="167" t="s">
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="176"/>
+      <c r="Z13" s="176"/>
+      <c r="AA13" s="176"/>
+      <c r="AB13" s="176"/>
+      <c r="AC13" s="176"/>
+      <c r="AD13" s="176"/>
+      <c r="AE13" s="176"/>
+      <c r="AF13" s="176"/>
+      <c r="AG13" s="176"/>
+      <c r="AH13" s="176"/>
+      <c r="AI13" s="177"/>
+      <c r="AJ13" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="AK13" s="167"/>
+      <c r="AK13" s="178"/>
     </row>
     <row r="14" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="198"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="199"/>
-      <c r="O14" s="199"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="199"/>
-      <c r="R14" s="200"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="199"/>
-      <c r="U14" s="199"/>
-      <c r="V14" s="199"/>
-      <c r="W14" s="199"/>
-      <c r="X14" s="199"/>
-      <c r="Y14" s="199"/>
-      <c r="Z14" s="199"/>
-      <c r="AA14" s="199"/>
-      <c r="AB14" s="199"/>
-      <c r="AC14" s="199"/>
-      <c r="AD14" s="199"/>
-      <c r="AE14" s="199"/>
-      <c r="AF14" s="199"/>
-      <c r="AG14" s="199"/>
-      <c r="AH14" s="199"/>
-      <c r="AI14" s="200"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="160"/>
+      <c r="AC14" s="160"/>
+      <c r="AD14" s="160"/>
+      <c r="AE14" s="160"/>
+      <c r="AF14" s="160"/>
+      <c r="AG14" s="160"/>
+      <c r="AH14" s="160"/>
+      <c r="AI14" s="161"/>
       <c r="AJ14" s="56" t="s">
         <v>10</v>
       </c>
@@ -3017,41 +3075,41 @@
       </c>
     </row>
     <row r="15" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="201"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="202"/>
-      <c r="Q15" s="202"/>
-      <c r="R15" s="203"/>
-      <c r="S15" s="201"/>
-      <c r="T15" s="202"/>
-      <c r="U15" s="202"/>
-      <c r="V15" s="202"/>
-      <c r="W15" s="202"/>
-      <c r="X15" s="202"/>
-      <c r="Y15" s="202"/>
-      <c r="Z15" s="202"/>
-      <c r="AA15" s="202"/>
-      <c r="AB15" s="202"/>
-      <c r="AC15" s="202"/>
-      <c r="AD15" s="202"/>
-      <c r="AE15" s="202"/>
-      <c r="AF15" s="202"/>
-      <c r="AG15" s="202"/>
-      <c r="AH15" s="202"/>
-      <c r="AI15" s="203"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="163"/>
+      <c r="U15" s="163"/>
+      <c r="V15" s="163"/>
+      <c r="W15" s="163"/>
+      <c r="X15" s="163"/>
+      <c r="Y15" s="163"/>
+      <c r="Z15" s="163"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="163"/>
+      <c r="AD15" s="163"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="163"/>
+      <c r="AH15" s="163"/>
+      <c r="AI15" s="164"/>
       <c r="AJ15" s="57" t="s">
         <v>10</v>
       </c>
@@ -3060,41 +3118,41 @@
       </c>
     </row>
     <row r="16" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="204"/>
-      <c r="B16" s="205"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
-      <c r="P16" s="205"/>
-      <c r="Q16" s="205"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="204"/>
-      <c r="T16" s="205"/>
-      <c r="U16" s="205"/>
-      <c r="V16" s="205"/>
-      <c r="W16" s="205"/>
-      <c r="X16" s="205"/>
-      <c r="Y16" s="205"/>
-      <c r="Z16" s="205"/>
-      <c r="AA16" s="205"/>
-      <c r="AB16" s="205"/>
-      <c r="AC16" s="205"/>
-      <c r="AD16" s="205"/>
-      <c r="AE16" s="205"/>
-      <c r="AF16" s="205"/>
-      <c r="AG16" s="205"/>
-      <c r="AH16" s="205"/>
-      <c r="AI16" s="206"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="165"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166"/>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="166"/>
+      <c r="AA16" s="166"/>
+      <c r="AB16" s="166"/>
+      <c r="AC16" s="166"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="166"/>
+      <c r="AF16" s="166"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="166"/>
+      <c r="AI16" s="167"/>
       <c r="AJ16" s="58" t="s">
         <v>10</v>
       </c>
@@ -3469,7 +3527,7 @@
       <c r="Y25" s="135"/>
       <c r="Z25" s="136"/>
       <c r="AA25" s="108">
-        <f t="shared" ref="AA25:AA31" si="0">(O25*T25)-((O25*T25)*V25)</f>
+        <f xml:space="preserve"> (O25*T25)</f>
         <v>0</v>
       </c>
       <c r="AB25" s="109"/>
@@ -3483,7 +3541,7 @@
       <c r="AH25" s="109"/>
       <c r="AI25" s="110"/>
       <c r="AJ25" s="108">
-        <f t="shared" ref="AJ25:AJ29" si="1">AA25+AF25</f>
+        <f xml:space="preserve"> (1-V25)* (AA25+AF25)</f>
         <v>0</v>
       </c>
       <c r="AK25" s="130"/>
@@ -3525,7 +3583,7 @@
       <c r="Y26" s="135"/>
       <c r="Z26" s="136"/>
       <c r="AA26" s="108">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA26:AA44" si="0" xml:space="preserve"> (O26*T26)</f>
         <v>0</v>
       </c>
       <c r="AB26" s="109"/>
@@ -3539,7 +3597,7 @@
       <c r="AH26" s="109"/>
       <c r="AI26" s="110"/>
       <c r="AJ26" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AJ26:AJ44" si="1" xml:space="preserve"> (1-V26)* (AA26+AF26)</f>
         <v>0</v>
       </c>
       <c r="AK26" s="130"/>
@@ -3739,7 +3797,7 @@
       <c r="AH30" s="109"/>
       <c r="AI30" s="110"/>
       <c r="AJ30" s="108">
-        <f t="shared" ref="AJ30:AJ44" si="2">AA30+AF30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK30" s="130"/>
@@ -3792,7 +3850,7 @@
       <c r="AH31" s="109"/>
       <c r="AI31" s="110"/>
       <c r="AJ31" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK31" s="130"/>
@@ -3831,7 +3889,7 @@
       <c r="Y32" s="135"/>
       <c r="Z32" s="136"/>
       <c r="AA32" s="108">
-        <f t="shared" ref="AA32:AA43" si="3">(O32*T32)-((O32*T32)*V32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB32" s="109"/>
@@ -3845,7 +3903,7 @@
       <c r="AH32" s="109"/>
       <c r="AI32" s="110"/>
       <c r="AJ32" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK32" s="130"/>
@@ -3884,7 +3942,7 @@
       <c r="Y33" s="135"/>
       <c r="Z33" s="136"/>
       <c r="AA33" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB33" s="109"/>
@@ -3898,7 +3956,7 @@
       <c r="AH33" s="109"/>
       <c r="AI33" s="110"/>
       <c r="AJ33" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK33" s="130"/>
@@ -3937,7 +3995,7 @@
       <c r="Y34" s="135"/>
       <c r="Z34" s="136"/>
       <c r="AA34" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB34" s="109"/>
@@ -3951,7 +4009,7 @@
       <c r="AH34" s="109"/>
       <c r="AI34" s="110"/>
       <c r="AJ34" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK34" s="130"/>
@@ -3989,7 +4047,7 @@
       <c r="Y35" s="135"/>
       <c r="Z35" s="136"/>
       <c r="AA35" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB35" s="109"/>
@@ -4003,7 +4061,7 @@
       <c r="AH35" s="109"/>
       <c r="AI35" s="110"/>
       <c r="AJ35" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK35" s="130"/>
@@ -4041,7 +4099,7 @@
       <c r="Y36" s="135"/>
       <c r="Z36" s="136"/>
       <c r="AA36" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB36" s="109"/>
@@ -4055,7 +4113,7 @@
       <c r="AH36" s="109"/>
       <c r="AI36" s="110"/>
       <c r="AJ36" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK36" s="130"/>
@@ -4093,7 +4151,7 @@
       <c r="Y37" s="135"/>
       <c r="Z37" s="136"/>
       <c r="AA37" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB37" s="109"/>
@@ -4107,7 +4165,7 @@
       <c r="AH37" s="109"/>
       <c r="AI37" s="110"/>
       <c r="AJ37" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK37" s="130"/>
@@ -4145,7 +4203,7 @@
       <c r="Y38" s="135"/>
       <c r="Z38" s="136"/>
       <c r="AA38" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB38" s="109"/>
@@ -4159,7 +4217,7 @@
       <c r="AH38" s="109"/>
       <c r="AI38" s="110"/>
       <c r="AJ38" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK38" s="130"/>
@@ -4197,7 +4255,7 @@
       <c r="Y39" s="135"/>
       <c r="Z39" s="136"/>
       <c r="AA39" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB39" s="109"/>
@@ -4211,7 +4269,7 @@
       <c r="AH39" s="109"/>
       <c r="AI39" s="110"/>
       <c r="AJ39" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK39" s="130"/>
@@ -4249,7 +4307,7 @@
       <c r="Y40" s="135"/>
       <c r="Z40" s="136"/>
       <c r="AA40" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB40" s="109"/>
@@ -4263,7 +4321,7 @@
       <c r="AH40" s="109"/>
       <c r="AI40" s="110"/>
       <c r="AJ40" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK40" s="130"/>
@@ -4301,7 +4359,7 @@
       <c r="Y41" s="135"/>
       <c r="Z41" s="136"/>
       <c r="AA41" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB41" s="109"/>
@@ -4315,7 +4373,7 @@
       <c r="AH41" s="109"/>
       <c r="AI41" s="110"/>
       <c r="AJ41" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK41" s="130"/>
@@ -4353,7 +4411,7 @@
       <c r="Y42" s="135"/>
       <c r="Z42" s="136"/>
       <c r="AA42" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB42" s="109"/>
@@ -4367,7 +4425,7 @@
       <c r="AH42" s="109"/>
       <c r="AI42" s="110"/>
       <c r="AJ42" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK42" s="130"/>
@@ -4405,7 +4463,7 @@
       <c r="Y43" s="135"/>
       <c r="Z43" s="136"/>
       <c r="AA43" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB43" s="109"/>
@@ -4419,7 +4477,7 @@
       <c r="AH43" s="109"/>
       <c r="AI43" s="110"/>
       <c r="AJ43" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK43" s="130"/>
@@ -4676,7 +4734,7 @@
       <c r="Y44" s="135"/>
       <c r="Z44" s="136"/>
       <c r="AA44" s="108">
-        <f t="shared" ref="AA44" si="4">(O44*T44)-((O44*T44)*V44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB44" s="109"/>
@@ -4690,7 +4748,7 @@
       <c r="AH44" s="109"/>
       <c r="AI44" s="110"/>
       <c r="AJ44" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK44" s="130"/>
@@ -4944,7 +5002,7 @@
       <c r="Y45" s="125"/>
       <c r="Z45" s="125"/>
       <c r="AA45" s="125">
-        <f>SUM(AA25:AE44)</f>
+        <f>SUMPRODUCT((AA25:AE44) *(1- ( V25:V44)))</f>
         <v>0</v>
       </c>
       <c r="AB45" s="125"/>
@@ -4952,7 +5010,7 @@
       <c r="AD45" s="125"/>
       <c r="AE45" s="125"/>
       <c r="AF45" s="125">
-        <f>SUM(AF25:AI44)</f>
+        <f>SUMPRODUCT((AF25:AI44) *(1- ( V25:V44)))</f>
         <v>0</v>
       </c>
       <c r="AG45" s="125"/>
@@ -5832,7 +5890,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
+++ b/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\exceltrungtrang\ReadAndWriteFileExcel\TrungTrang\bin\Debug\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D063D68-5EA7-46B0-9330-68474FF76E0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A30CC97-F9ED-4A87-B7FB-F5157E6F36D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1160,70 +1160,205 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1235,227 +1370,92 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2471,8 +2471,8 @@
   </sheetPr>
   <dimension ref="A1:IV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ45" sqref="AJ45:AK45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25:Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
@@ -2531,38 +2531,38 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-      <c r="J2" s="179" t="s">
+      <c r="J2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
-      <c r="AH2" s="180" t="s">
+      <c r="AH2" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="183"/>
-      <c r="AJ2" s="183"/>
-      <c r="AK2" s="184"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="113"/>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -2574,34 +2574,34 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
       <c r="AF3" s="34"/>
       <c r="AG3" s="34"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="185"/>
-      <c r="AJ3" s="185"/>
-      <c r="AK3" s="186"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="115"/>
     </row>
     <row r="4" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3"/>
@@ -2613,34 +2613,34 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179"/>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
-      <c r="AC4" s="179"/>
-      <c r="AD4" s="179"/>
-      <c r="AE4" s="179"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
       <c r="AF4" s="34"/>
       <c r="AG4" s="34"/>
-      <c r="AH4" s="182"/>
-      <c r="AI4" s="187"/>
-      <c r="AJ4" s="187"/>
-      <c r="AK4" s="188"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="117"/>
     </row>
     <row r="5" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="4"/>
@@ -2652,28 +2652,28 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="179"/>
-      <c r="Y5" s="179"/>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="179"/>
-      <c r="AB5" s="179"/>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="179"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
       <c r="AF5" s="34"/>
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
@@ -2695,14 +2695,14 @@
       <c r="K6" s="4"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="189"/>
-      <c r="R6" s="189"/>
-      <c r="S6" s="189"/>
-      <c r="T6" s="189"/>
-      <c r="U6" s="189"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
@@ -2765,40 +2765,40 @@
       <c r="AD7" s="94"/>
       <c r="AE7" s="94"/>
       <c r="AF7" s="94"/>
-      <c r="AG7" s="190"/>
-      <c r="AH7" s="191"/>
-      <c r="AI7" s="191"/>
-      <c r="AJ7" s="191"/>
-      <c r="AK7" s="192"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="121"/>
     </row>
     <row r="8" spans="1:37" s="20" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="197"/>
-      <c r="O8" s="197"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="197"/>
-      <c r="R8" s="197"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="197"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="197"/>
-      <c r="Z8" s="197"/>
-      <c r="AA8" s="198"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="127"/>
       <c r="AB8" s="93" t="s">
         <v>33</v>
       </c>
@@ -2807,10 +2807,10 @@
       <c r="AE8" s="96"/>
       <c r="AF8" s="96"/>
       <c r="AG8" s="96"/>
-      <c r="AH8" s="202"/>
-      <c r="AI8" s="202"/>
-      <c r="AJ8" s="202"/>
-      <c r="AK8" s="203"/>
+      <c r="AH8" s="131"/>
+      <c r="AI8" s="131"/>
+      <c r="AJ8" s="131"/>
+      <c r="AK8" s="132"/>
     </row>
     <row r="9" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="97" t="s">
@@ -2818,30 +2818,30 @@
       </c>
       <c r="B9" s="95"/>
       <c r="C9" s="106"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="200"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="201"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="130"/>
       <c r="AB9" s="93" t="s">
         <v>25</v>
       </c>
@@ -2850,102 +2850,102 @@
       <c r="AE9" s="96"/>
       <c r="AF9" s="96"/>
       <c r="AG9" s="96"/>
-      <c r="AH9" s="205"/>
-      <c r="AI9" s="205"/>
-      <c r="AJ9" s="205"/>
-      <c r="AK9" s="206"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="136"/>
+      <c r="AJ9" s="136"/>
+      <c r="AK9" s="137"/>
     </row>
     <row r="10" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A10" s="93" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="94"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="170" t="s">
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="170"/>
-      <c r="AA10" s="170"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
       <c r="AB10" s="93" t="s">
         <v>9</v>
       </c>
       <c r="AC10" s="94"/>
-      <c r="AD10" s="171"/>
-      <c r="AE10" s="171"/>
-      <c r="AF10" s="171"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="171"/>
-      <c r="AJ10" s="171"/>
-      <c r="AK10" s="172"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="139"/>
+      <c r="AG10" s="139"/>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="139"/>
+      <c r="AJ10" s="139"/>
+      <c r="AK10" s="140"/>
     </row>
     <row r="11" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="95"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="170" t="s">
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="170" t="s">
+      <c r="L11" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="170"/>
-      <c r="Z11" s="170"/>
-      <c r="AA11" s="170"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
       <c r="AB11" s="98" t="s">
         <v>5</v>
       </c>
       <c r="AC11" s="94"/>
       <c r="AD11" s="94"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="173"/>
-      <c r="AK11" s="174"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="141"/>
+      <c r="AG11" s="141"/>
+      <c r="AH11" s="141"/>
+      <c r="AI11" s="141"/>
+      <c r="AJ11" s="141"/>
+      <c r="AK11" s="142"/>
     </row>
     <row r="12" spans="1:37" s="20" customFormat="1" ht="9.75" customHeight="1">
       <c r="A12" s="64"/>
@@ -2987,86 +2987,86 @@
       <c r="AK12" s="13"/>
     </row>
     <row r="13" spans="1:37" s="20" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="176" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="176"/>
-      <c r="Y13" s="176"/>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="176"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="176"/>
-      <c r="AF13" s="176"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="176"/>
-      <c r="AI13" s="177"/>
-      <c r="AJ13" s="178" t="s">
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="144"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="144"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="144"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="AK13" s="178"/>
+      <c r="AK13" s="146"/>
     </row>
     <row r="14" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="159"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="160"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="160"/>
-      <c r="AI14" s="161"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="151"/>
+      <c r="AE14" s="151"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="152"/>
       <c r="AJ14" s="56" t="s">
         <v>10</v>
       </c>
@@ -3075,41 +3075,41 @@
       </c>
     </row>
     <row r="15" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="162"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="163"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="163"/>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="163"/>
-      <c r="Z15" s="163"/>
-      <c r="AA15" s="163"/>
-      <c r="AB15" s="163"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="163"/>
-      <c r="AF15" s="163"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="163"/>
-      <c r="AI15" s="164"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="154"/>
+      <c r="AB15" s="154"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
+      <c r="AE15" s="154"/>
+      <c r="AF15" s="154"/>
+      <c r="AG15" s="154"/>
+      <c r="AH15" s="154"/>
+      <c r="AI15" s="155"/>
       <c r="AJ15" s="57" t="s">
         <v>10</v>
       </c>
@@ -3118,41 +3118,41 @@
       </c>
     </row>
     <row r="16" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="167"/>
-      <c r="S16" s="165"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="166"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="166"/>
-      <c r="AF16" s="166"/>
-      <c r="AG16" s="166"/>
-      <c r="AH16" s="166"/>
-      <c r="AI16" s="167"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="157"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="157"/>
+      <c r="X16" s="157"/>
+      <c r="Y16" s="157"/>
+      <c r="Z16" s="157"/>
+      <c r="AA16" s="157"/>
+      <c r="AB16" s="157"/>
+      <c r="AC16" s="157"/>
+      <c r="AD16" s="157"/>
+      <c r="AE16" s="157"/>
+      <c r="AF16" s="157"/>
+      <c r="AG16" s="157"/>
+      <c r="AH16" s="157"/>
+      <c r="AI16" s="158"/>
       <c r="AJ16" s="58" t="s">
         <v>10</v>
       </c>
@@ -3200,295 +3200,295 @@
       <c r="AK17" s="62"/>
     </row>
     <row r="18" spans="1:45" ht="22.5" customHeight="1">
-      <c r="A18" s="156"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="157"/>
-      <c r="S18" s="157"/>
-      <c r="T18" s="157"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="157"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="157"/>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="157"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="157"/>
-      <c r="AI18" s="157"/>
-      <c r="AJ18" s="157"/>
-      <c r="AK18" s="158"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="148"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="148"/>
+      <c r="AB18" s="148"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="148"/>
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="148"/>
+      <c r="AG18" s="148"/>
+      <c r="AH18" s="148"/>
+      <c r="AI18" s="148"/>
+      <c r="AJ18" s="148"/>
+      <c r="AK18" s="149"/>
     </row>
     <row r="19" spans="1:45" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="63"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
       <c r="I19" s="59"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="152"/>
-      <c r="Y19" s="152"/>
-      <c r="Z19" s="152"/>
-      <c r="AA19" s="152"/>
-      <c r="AB19" s="152"/>
-      <c r="AC19" s="152"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="159"/>
+      <c r="T19" s="159"/>
+      <c r="U19" s="159"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
       <c r="AD19" s="59"/>
-      <c r="AE19" s="151"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="152"/>
-      <c r="AJ19" s="152"/>
-      <c r="AK19" s="154"/>
+      <c r="AE19" s="159"/>
+      <c r="AF19" s="159"/>
+      <c r="AG19" s="159"/>
+      <c r="AH19" s="159"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="160"/>
+      <c r="AK19" s="162"/>
     </row>
     <row r="20" spans="1:45" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="63"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
       <c r="I20" s="59"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="152"/>
-      <c r="X20" s="152"/>
-      <c r="Y20" s="152"/>
-      <c r="Z20" s="152"/>
-      <c r="AA20" s="152"/>
-      <c r="AB20" s="152"/>
-      <c r="AC20" s="152"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="159"/>
+      <c r="S20" s="159"/>
+      <c r="T20" s="159"/>
+      <c r="U20" s="159"/>
+      <c r="V20" s="159"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="160"/>
+      <c r="AC20" s="160"/>
       <c r="AD20" s="59"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="152"/>
-      <c r="AJ20" s="152"/>
-      <c r="AK20" s="154"/>
+      <c r="AE20" s="159"/>
+      <c r="AF20" s="159"/>
+      <c r="AG20" s="159"/>
+      <c r="AH20" s="159"/>
+      <c r="AI20" s="160"/>
+      <c r="AJ20" s="160"/>
+      <c r="AK20" s="162"/>
     </row>
     <row r="21" spans="1:45" ht="21" customHeight="1">
       <c r="A21" s="63"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
       <c r="I21" s="59"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
-      <c r="W21" s="152"/>
-      <c r="X21" s="152"/>
-      <c r="Y21" s="152"/>
-      <c r="Z21" s="152"/>
-      <c r="AA21" s="152"/>
-      <c r="AB21" s="152"/>
-      <c r="AC21" s="152"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="160"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="159"/>
+      <c r="T21" s="159"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="160"/>
+      <c r="Z21" s="160"/>
+      <c r="AA21" s="160"/>
+      <c r="AB21" s="160"/>
+      <c r="AC21" s="160"/>
       <c r="AD21" s="59"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="152"/>
-      <c r="AJ21" s="152"/>
-      <c r="AK21" s="154"/>
+      <c r="AE21" s="159"/>
+      <c r="AF21" s="159"/>
+      <c r="AG21" s="159"/>
+      <c r="AH21" s="159"/>
+      <c r="AI21" s="160"/>
+      <c r="AJ21" s="160"/>
+      <c r="AK21" s="162"/>
     </row>
     <row r="22" spans="1:45" ht="79.5" customHeight="1">
       <c r="A22" s="63"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="152"/>
-      <c r="X22" s="152"/>
-      <c r="Y22" s="152"/>
-      <c r="Z22" s="152"/>
-      <c r="AA22" s="152"/>
-      <c r="AB22" s="152"/>
-      <c r="AC22" s="152"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="159"/>
+      <c r="S22" s="159"/>
+      <c r="T22" s="159"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="160"/>
+      <c r="AB22" s="160"/>
+      <c r="AC22" s="160"/>
       <c r="AD22" s="59"/>
-      <c r="AE22" s="151"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="152"/>
-      <c r="AJ22" s="152"/>
-      <c r="AK22" s="154"/>
+      <c r="AE22" s="159"/>
+      <c r="AF22" s="159"/>
+      <c r="AG22" s="159"/>
+      <c r="AH22" s="159"/>
+      <c r="AI22" s="160"/>
+      <c r="AJ22" s="160"/>
+      <c r="AK22" s="162"/>
     </row>
     <row r="23" spans="1:45" ht="21.75" customHeight="1">
-      <c r="A23" s="140"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
-      <c r="W23" s="141"/>
-      <c r="X23" s="141"/>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="141"/>
-      <c r="AA23" s="141"/>
-      <c r="AB23" s="141"/>
-      <c r="AC23" s="141"/>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="141"/>
-      <c r="AF23" s="141"/>
-      <c r="AG23" s="141"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="141"/>
-      <c r="AJ23" s="141"/>
-      <c r="AK23" s="142"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="165"/>
+      <c r="Z23" s="165"/>
+      <c r="AA23" s="165"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="165"/>
+      <c r="AD23" s="165"/>
+      <c r="AE23" s="165"/>
+      <c r="AF23" s="165"/>
+      <c r="AG23" s="165"/>
+      <c r="AH23" s="165"/>
+      <c r="AI23" s="165"/>
+      <c r="AJ23" s="165"/>
+      <c r="AK23" s="166"/>
     </row>
     <row r="24" spans="1:45" ht="40.5" customHeight="1">
       <c r="A24" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="144" t="s">
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="147" t="s">
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="147" t="s">
+      <c r="P24" s="172"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="149"/>
-      <c r="V24" s="145" t="s">
+      <c r="U24" s="173"/>
+      <c r="V24" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="W24" s="150"/>
-      <c r="X24" s="150"/>
-      <c r="Y24" s="150"/>
-      <c r="Z24" s="150"/>
-      <c r="AA24" s="145" t="s">
+      <c r="W24" s="179"/>
+      <c r="X24" s="179"/>
+      <c r="Y24" s="179"/>
+      <c r="Z24" s="179"/>
+      <c r="AA24" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="AB24" s="150"/>
-      <c r="AC24" s="150"/>
-      <c r="AD24" s="150"/>
-      <c r="AE24" s="146"/>
-      <c r="AF24" s="145" t="s">
+      <c r="AB24" s="179"/>
+      <c r="AC24" s="179"/>
+      <c r="AD24" s="179"/>
+      <c r="AE24" s="170"/>
+      <c r="AF24" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="AG24" s="150"/>
-      <c r="AH24" s="150"/>
-      <c r="AI24" s="146"/>
-      <c r="AJ24" s="145" t="s">
+      <c r="AG24" s="179"/>
+      <c r="AH24" s="179"/>
+      <c r="AI24" s="170"/>
+      <c r="AJ24" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="AK24" s="146"/>
+      <c r="AK24" s="170"/>
       <c r="AM24" s="103"/>
       <c r="AN24" s="103"/>
       <c r="AO24" s="103"/>
@@ -3501,50 +3501,50 @@
       <c r="A25" s="54">
         <v>1</v>
       </c>
-      <c r="B25" s="131"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="134"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="136"/>
-      <c r="AA25" s="108">
+      <c r="B25" s="176"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="202"/>
+      <c r="U25" s="203"/>
+      <c r="V25" s="204"/>
+      <c r="W25" s="205"/>
+      <c r="X25" s="205"/>
+      <c r="Y25" s="205"/>
+      <c r="Z25" s="206"/>
+      <c r="AA25" s="174">
         <f xml:space="preserve"> (O25*T25)</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="109"/>
-      <c r="AH25" s="109"/>
-      <c r="AI25" s="110"/>
-      <c r="AJ25" s="108">
-        <f xml:space="preserve"> (1-V25)* (AA25+AF25)</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="130"/>
+      <c r="AB25" s="178"/>
+      <c r="AC25" s="178"/>
+      <c r="AD25" s="178"/>
+      <c r="AE25" s="180"/>
+      <c r="AF25" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="178"/>
+      <c r="AH25" s="178"/>
+      <c r="AI25" s="180"/>
+      <c r="AJ25" s="174">
+        <f xml:space="preserve"> ROUNDDOWN((1-V25)* (AA25+AF25),-2)</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="175"/>
       <c r="AM25" s="103"/>
       <c r="AN25" s="103"/>
       <c r="AO25" s="103"/>
@@ -3557,930 +3557,930 @@
       <c r="A26" s="54">
         <v>2</v>
       </c>
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="134"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="136"/>
-      <c r="AA26" s="108">
+      <c r="B26" s="176"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="178"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="180"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="205"/>
+      <c r="X26" s="205"/>
+      <c r="Y26" s="205"/>
+      <c r="Z26" s="206"/>
+      <c r="AA26" s="174">
         <f t="shared" ref="AA26:AA44" si="0" xml:space="preserve"> (O26*T26)</f>
         <v>0</v>
       </c>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="109"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="108">
-        <f t="shared" ref="AJ26:AJ44" si="1" xml:space="preserve"> (1-V26)* (AA26+AF26)</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="130"/>
+      <c r="AB26" s="178"/>
+      <c r="AC26" s="178"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="180"/>
+      <c r="AF26" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="178"/>
+      <c r="AH26" s="178"/>
+      <c r="AI26" s="180"/>
+      <c r="AJ26" s="174">
+        <f t="shared" ref="AJ26:AJ44" si="1" xml:space="preserve"> ROUNDDOWN((1-V26)* (AA26+AF26),-2)</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="175"/>
     </row>
     <row r="27" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A27" s="54">
         <v>3</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="136"/>
-      <c r="AA27" s="108">
+      <c r="B27" s="176"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="174"/>
+      <c r="U27" s="180"/>
+      <c r="V27" s="204"/>
+      <c r="W27" s="205"/>
+      <c r="X27" s="205"/>
+      <c r="Y27" s="205"/>
+      <c r="Z27" s="206"/>
+      <c r="AA27" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="109"/>
-      <c r="AI27" s="110"/>
-      <c r="AJ27" s="108">
+      <c r="AB27" s="178"/>
+      <c r="AC27" s="178"/>
+      <c r="AD27" s="178"/>
+      <c r="AE27" s="180"/>
+      <c r="AF27" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="178"/>
+      <c r="AH27" s="178"/>
+      <c r="AI27" s="180"/>
+      <c r="AJ27" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="130"/>
+      <c r="AK27" s="175"/>
     </row>
     <row r="28" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A28" s="54">
         <v>4</v>
       </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="108"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="136"/>
-      <c r="AA28" s="108">
+      <c r="B28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="178"/>
+      <c r="Q28" s="178"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="180"/>
+      <c r="V28" s="204"/>
+      <c r="W28" s="205"/>
+      <c r="X28" s="205"/>
+      <c r="Y28" s="205"/>
+      <c r="Z28" s="206"/>
+      <c r="AA28" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="109"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="108">
+      <c r="AB28" s="178"/>
+      <c r="AC28" s="178"/>
+      <c r="AD28" s="178"/>
+      <c r="AE28" s="180"/>
+      <c r="AF28" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="178"/>
+      <c r="AH28" s="178"/>
+      <c r="AI28" s="180"/>
+      <c r="AJ28" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="130"/>
+      <c r="AK28" s="175"/>
     </row>
     <row r="29" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A29" s="54">
         <v>5</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="110"/>
-      <c r="V29" s="134"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="136"/>
-      <c r="AA29" s="108">
+      <c r="B29" s="176"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="178"/>
+      <c r="Q29" s="178"/>
+      <c r="R29" s="178"/>
+      <c r="S29" s="178"/>
+      <c r="T29" s="174"/>
+      <c r="U29" s="180"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="205"/>
+      <c r="X29" s="205"/>
+      <c r="Y29" s="205"/>
+      <c r="Z29" s="206"/>
+      <c r="AA29" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="109"/>
-      <c r="AH29" s="109"/>
-      <c r="AI29" s="110"/>
-      <c r="AJ29" s="108">
+      <c r="AB29" s="178"/>
+      <c r="AC29" s="178"/>
+      <c r="AD29" s="178"/>
+      <c r="AE29" s="180"/>
+      <c r="AF29" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="178"/>
+      <c r="AH29" s="178"/>
+      <c r="AI29" s="180"/>
+      <c r="AJ29" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="130"/>
+      <c r="AK29" s="175"/>
       <c r="AL29" s="107"/>
     </row>
     <row r="30" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A30" s="54">
         <v>6</v>
       </c>
-      <c r="B30" s="131" t="str">
+      <c r="B30" s="176" t="str">
         <f>IF(I30="","",VLOOKUP(I30,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="136"/>
-      <c r="AA30" s="108">
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="178"/>
+      <c r="Q30" s="178"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="174"/>
+      <c r="U30" s="180"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="205"/>
+      <c r="X30" s="205"/>
+      <c r="Y30" s="205"/>
+      <c r="Z30" s="206"/>
+      <c r="AA30" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="109"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="109"/>
-      <c r="AH30" s="109"/>
-      <c r="AI30" s="110"/>
-      <c r="AJ30" s="108">
+      <c r="AB30" s="178"/>
+      <c r="AC30" s="178"/>
+      <c r="AD30" s="178"/>
+      <c r="AE30" s="180"/>
+      <c r="AF30" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="178"/>
+      <c r="AH30" s="178"/>
+      <c r="AI30" s="180"/>
+      <c r="AJ30" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="130"/>
+      <c r="AK30" s="175"/>
       <c r="AL30" s="107"/>
     </row>
     <row r="31" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A31" s="54">
         <v>7</v>
       </c>
-      <c r="B31" s="131" t="str">
+      <c r="B31" s="176" t="str">
         <f>IF(I31="","",VLOOKUP(I31,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="108"/>
-      <c r="U31" s="110"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="136"/>
-      <c r="AA31" s="108">
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="178"/>
+      <c r="Q31" s="178"/>
+      <c r="R31" s="178"/>
+      <c r="S31" s="178"/>
+      <c r="T31" s="174"/>
+      <c r="U31" s="180"/>
+      <c r="V31" s="204"/>
+      <c r="W31" s="205"/>
+      <c r="X31" s="205"/>
+      <c r="Y31" s="205"/>
+      <c r="Z31" s="206"/>
+      <c r="AA31" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="109"/>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="109"/>
-      <c r="AH31" s="109"/>
-      <c r="AI31" s="110"/>
-      <c r="AJ31" s="108">
+      <c r="AB31" s="178"/>
+      <c r="AC31" s="178"/>
+      <c r="AD31" s="178"/>
+      <c r="AE31" s="180"/>
+      <c r="AF31" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="178"/>
+      <c r="AH31" s="178"/>
+      <c r="AI31" s="180"/>
+      <c r="AJ31" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="130"/>
+      <c r="AK31" s="175"/>
       <c r="AL31" s="107"/>
     </row>
     <row r="32" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A32" s="54">
         <v>8</v>
       </c>
-      <c r="B32" s="131" t="str">
+      <c r="B32" s="176" t="str">
         <f>IF(I32="","",VLOOKUP(I32,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="110"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="136"/>
-      <c r="AA32" s="108">
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="178"/>
+      <c r="Q32" s="178"/>
+      <c r="R32" s="178"/>
+      <c r="S32" s="178"/>
+      <c r="T32" s="174"/>
+      <c r="U32" s="180"/>
+      <c r="V32" s="204"/>
+      <c r="W32" s="205"/>
+      <c r="X32" s="205"/>
+      <c r="Y32" s="205"/>
+      <c r="Z32" s="206"/>
+      <c r="AA32" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="109"/>
-      <c r="AH32" s="109"/>
-      <c r="AI32" s="110"/>
-      <c r="AJ32" s="108">
+      <c r="AB32" s="178"/>
+      <c r="AC32" s="178"/>
+      <c r="AD32" s="178"/>
+      <c r="AE32" s="180"/>
+      <c r="AF32" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="178"/>
+      <c r="AH32" s="178"/>
+      <c r="AI32" s="180"/>
+      <c r="AJ32" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="130"/>
+      <c r="AK32" s="175"/>
       <c r="AL32" s="107"/>
     </row>
     <row r="33" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A33" s="54">
         <v>9</v>
       </c>
-      <c r="B33" s="131" t="str">
+      <c r="B33" s="176" t="str">
         <f>IF(I33="","",VLOOKUP(I33,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="108"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="136"/>
-      <c r="AA33" s="108">
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="178"/>
+      <c r="Q33" s="178"/>
+      <c r="R33" s="178"/>
+      <c r="S33" s="178"/>
+      <c r="T33" s="174"/>
+      <c r="U33" s="180"/>
+      <c r="V33" s="204"/>
+      <c r="W33" s="205"/>
+      <c r="X33" s="205"/>
+      <c r="Y33" s="205"/>
+      <c r="Z33" s="206"/>
+      <c r="AA33" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="110"/>
-      <c r="AJ33" s="108">
+      <c r="AB33" s="178"/>
+      <c r="AC33" s="178"/>
+      <c r="AD33" s="178"/>
+      <c r="AE33" s="180"/>
+      <c r="AF33" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="178"/>
+      <c r="AH33" s="178"/>
+      <c r="AI33" s="180"/>
+      <c r="AJ33" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="130"/>
+      <c r="AK33" s="175"/>
       <c r="AL33" s="107"/>
     </row>
     <row r="34" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A34" s="54">
         <v>10</v>
       </c>
-      <c r="B34" s="131" t="str">
+      <c r="B34" s="176" t="str">
         <f>IF(I34="","",VLOOKUP(I34,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="108"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="134"/>
-      <c r="W34" s="135"/>
-      <c r="X34" s="135"/>
-      <c r="Y34" s="135"/>
-      <c r="Z34" s="136"/>
-      <c r="AA34" s="108">
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="178"/>
+      <c r="Q34" s="178"/>
+      <c r="R34" s="178"/>
+      <c r="S34" s="178"/>
+      <c r="T34" s="174"/>
+      <c r="U34" s="180"/>
+      <c r="V34" s="204"/>
+      <c r="W34" s="205"/>
+      <c r="X34" s="205"/>
+      <c r="Y34" s="205"/>
+      <c r="Z34" s="206"/>
+      <c r="AA34" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="109"/>
-      <c r="AD34" s="109"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="109"/>
-      <c r="AH34" s="109"/>
-      <c r="AI34" s="110"/>
-      <c r="AJ34" s="108">
+      <c r="AB34" s="178"/>
+      <c r="AC34" s="178"/>
+      <c r="AD34" s="178"/>
+      <c r="AE34" s="180"/>
+      <c r="AF34" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="178"/>
+      <c r="AH34" s="178"/>
+      <c r="AI34" s="180"/>
+      <c r="AJ34" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="130"/>
+      <c r="AK34" s="175"/>
     </row>
     <row r="35" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A35" s="54">
         <v>11</v>
       </c>
-      <c r="B35" s="131" t="str">
+      <c r="B35" s="176" t="str">
         <f>IF(I35="","",VLOOKUP(I35,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="134"/>
-      <c r="W35" s="135"/>
-      <c r="X35" s="135"/>
-      <c r="Y35" s="135"/>
-      <c r="Z35" s="136"/>
-      <c r="AA35" s="108">
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="174"/>
+      <c r="P35" s="178"/>
+      <c r="Q35" s="178"/>
+      <c r="R35" s="178"/>
+      <c r="S35" s="178"/>
+      <c r="T35" s="174"/>
+      <c r="U35" s="180"/>
+      <c r="V35" s="204"/>
+      <c r="W35" s="205"/>
+      <c r="X35" s="205"/>
+      <c r="Y35" s="205"/>
+      <c r="Z35" s="206"/>
+      <c r="AA35" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="109"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="110"/>
-      <c r="AF35" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="109"/>
-      <c r="AH35" s="109"/>
-      <c r="AI35" s="110"/>
-      <c r="AJ35" s="108">
+      <c r="AB35" s="178"/>
+      <c r="AC35" s="178"/>
+      <c r="AD35" s="178"/>
+      <c r="AE35" s="180"/>
+      <c r="AF35" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="178"/>
+      <c r="AH35" s="178"/>
+      <c r="AI35" s="180"/>
+      <c r="AJ35" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="130"/>
+      <c r="AK35" s="175"/>
     </row>
     <row r="36" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A36" s="54">
         <v>12</v>
       </c>
-      <c r="B36" s="131" t="str">
+      <c r="B36" s="176" t="str">
         <f>IF(I36="","",VLOOKUP(I36,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="108"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="134"/>
-      <c r="W36" s="135"/>
-      <c r="X36" s="135"/>
-      <c r="Y36" s="135"/>
-      <c r="Z36" s="136"/>
-      <c r="AA36" s="108">
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="178"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="178"/>
+      <c r="S36" s="178"/>
+      <c r="T36" s="174"/>
+      <c r="U36" s="180"/>
+      <c r="V36" s="204"/>
+      <c r="W36" s="205"/>
+      <c r="X36" s="205"/>
+      <c r="Y36" s="205"/>
+      <c r="Z36" s="206"/>
+      <c r="AA36" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="109"/>
-      <c r="AD36" s="109"/>
-      <c r="AE36" s="110"/>
-      <c r="AF36" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="109"/>
-      <c r="AH36" s="109"/>
-      <c r="AI36" s="110"/>
-      <c r="AJ36" s="108">
+      <c r="AB36" s="178"/>
+      <c r="AC36" s="178"/>
+      <c r="AD36" s="178"/>
+      <c r="AE36" s="180"/>
+      <c r="AF36" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="178"/>
+      <c r="AH36" s="178"/>
+      <c r="AI36" s="180"/>
+      <c r="AJ36" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="130"/>
+      <c r="AK36" s="175"/>
     </row>
     <row r="37" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A37" s="54">
         <v>13</v>
       </c>
-      <c r="B37" s="131" t="str">
+      <c r="B37" s="176" t="str">
         <f>IF(I37="","",VLOOKUP(I37,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="108"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="134"/>
-      <c r="W37" s="135"/>
-      <c r="X37" s="135"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="136"/>
-      <c r="AA37" s="108">
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="178"/>
+      <c r="Q37" s="178"/>
+      <c r="R37" s="178"/>
+      <c r="S37" s="178"/>
+      <c r="T37" s="174"/>
+      <c r="U37" s="180"/>
+      <c r="V37" s="204"/>
+      <c r="W37" s="205"/>
+      <c r="X37" s="205"/>
+      <c r="Y37" s="205"/>
+      <c r="Z37" s="206"/>
+      <c r="AA37" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="109"/>
-      <c r="AD37" s="109"/>
-      <c r="AE37" s="110"/>
-      <c r="AF37" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="109"/>
-      <c r="AH37" s="109"/>
-      <c r="AI37" s="110"/>
-      <c r="AJ37" s="108">
+      <c r="AB37" s="178"/>
+      <c r="AC37" s="178"/>
+      <c r="AD37" s="178"/>
+      <c r="AE37" s="180"/>
+      <c r="AF37" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="178"/>
+      <c r="AH37" s="178"/>
+      <c r="AI37" s="180"/>
+      <c r="AJ37" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="130"/>
+      <c r="AK37" s="175"/>
     </row>
     <row r="38" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A38" s="54">
         <v>14</v>
       </c>
-      <c r="B38" s="131" t="str">
+      <c r="B38" s="176" t="str">
         <f>IF(I38="","",VLOOKUP(I38,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="108"/>
-      <c r="U38" s="110"/>
-      <c r="V38" s="134"/>
-      <c r="W38" s="135"/>
-      <c r="X38" s="135"/>
-      <c r="Y38" s="135"/>
-      <c r="Z38" s="136"/>
-      <c r="AA38" s="108">
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="174"/>
+      <c r="P38" s="178"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="178"/>
+      <c r="S38" s="178"/>
+      <c r="T38" s="174"/>
+      <c r="U38" s="180"/>
+      <c r="V38" s="204"/>
+      <c r="W38" s="205"/>
+      <c r="X38" s="205"/>
+      <c r="Y38" s="205"/>
+      <c r="Z38" s="206"/>
+      <c r="AA38" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="109"/>
-      <c r="AD38" s="109"/>
-      <c r="AE38" s="110"/>
-      <c r="AF38" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="109"/>
-      <c r="AH38" s="109"/>
-      <c r="AI38" s="110"/>
-      <c r="AJ38" s="108">
+      <c r="AB38" s="178"/>
+      <c r="AC38" s="178"/>
+      <c r="AD38" s="178"/>
+      <c r="AE38" s="180"/>
+      <c r="AF38" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="178"/>
+      <c r="AH38" s="178"/>
+      <c r="AI38" s="180"/>
+      <c r="AJ38" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="130"/>
+      <c r="AK38" s="175"/>
     </row>
     <row r="39" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A39" s="54">
         <v>15</v>
       </c>
-      <c r="B39" s="131" t="str">
+      <c r="B39" s="176" t="str">
         <f>IF(I39="","",VLOOKUP(I39,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="110"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="135"/>
-      <c r="X39" s="135"/>
-      <c r="Y39" s="135"/>
-      <c r="Z39" s="136"/>
-      <c r="AA39" s="108">
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
+      <c r="S39" s="178"/>
+      <c r="T39" s="174"/>
+      <c r="U39" s="180"/>
+      <c r="V39" s="204"/>
+      <c r="W39" s="205"/>
+      <c r="X39" s="205"/>
+      <c r="Y39" s="205"/>
+      <c r="Z39" s="206"/>
+      <c r="AA39" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="109"/>
-      <c r="AD39" s="109"/>
-      <c r="AE39" s="110"/>
-      <c r="AF39" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="109"/>
-      <c r="AH39" s="109"/>
-      <c r="AI39" s="110"/>
-      <c r="AJ39" s="108">
+      <c r="AB39" s="178"/>
+      <c r="AC39" s="178"/>
+      <c r="AD39" s="178"/>
+      <c r="AE39" s="180"/>
+      <c r="AF39" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="178"/>
+      <c r="AH39" s="178"/>
+      <c r="AI39" s="180"/>
+      <c r="AJ39" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="130"/>
+      <c r="AK39" s="175"/>
     </row>
     <row r="40" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A40" s="54">
         <v>16</v>
       </c>
-      <c r="B40" s="131" t="str">
+      <c r="B40" s="176" t="str">
         <f>IF(I40="","",VLOOKUP(I40,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="134"/>
-      <c r="W40" s="135"/>
-      <c r="X40" s="135"/>
-      <c r="Y40" s="135"/>
-      <c r="Z40" s="136"/>
-      <c r="AA40" s="108">
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="174"/>
+      <c r="P40" s="178"/>
+      <c r="Q40" s="178"/>
+      <c r="R40" s="178"/>
+      <c r="S40" s="178"/>
+      <c r="T40" s="174"/>
+      <c r="U40" s="180"/>
+      <c r="V40" s="204"/>
+      <c r="W40" s="205"/>
+      <c r="X40" s="205"/>
+      <c r="Y40" s="205"/>
+      <c r="Z40" s="206"/>
+      <c r="AA40" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="109"/>
-      <c r="AC40" s="109"/>
-      <c r="AD40" s="109"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="109"/>
-      <c r="AH40" s="109"/>
-      <c r="AI40" s="110"/>
-      <c r="AJ40" s="108">
+      <c r="AB40" s="178"/>
+      <c r="AC40" s="178"/>
+      <c r="AD40" s="178"/>
+      <c r="AE40" s="180"/>
+      <c r="AF40" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="178"/>
+      <c r="AH40" s="178"/>
+      <c r="AI40" s="180"/>
+      <c r="AJ40" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="130"/>
+      <c r="AK40" s="175"/>
     </row>
     <row r="41" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A41" s="54">
         <v>17</v>
       </c>
-      <c r="B41" s="131" t="str">
+      <c r="B41" s="176" t="str">
         <f>IF(I41="","",VLOOKUP(I41,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="110"/>
-      <c r="V41" s="134"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="135"/>
-      <c r="Z41" s="136"/>
-      <c r="AA41" s="108">
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="178"/>
+      <c r="Q41" s="178"/>
+      <c r="R41" s="178"/>
+      <c r="S41" s="178"/>
+      <c r="T41" s="174"/>
+      <c r="U41" s="180"/>
+      <c r="V41" s="204"/>
+      <c r="W41" s="205"/>
+      <c r="X41" s="205"/>
+      <c r="Y41" s="205"/>
+      <c r="Z41" s="206"/>
+      <c r="AA41" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="109"/>
-      <c r="AD41" s="109"/>
-      <c r="AE41" s="110"/>
-      <c r="AF41" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="109"/>
-      <c r="AH41" s="109"/>
-      <c r="AI41" s="110"/>
-      <c r="AJ41" s="108">
+      <c r="AB41" s="178"/>
+      <c r="AC41" s="178"/>
+      <c r="AD41" s="178"/>
+      <c r="AE41" s="180"/>
+      <c r="AF41" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="178"/>
+      <c r="AH41" s="178"/>
+      <c r="AI41" s="180"/>
+      <c r="AJ41" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="130"/>
+      <c r="AK41" s="175"/>
     </row>
     <row r="42" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A42" s="54">
         <v>18</v>
       </c>
-      <c r="B42" s="131" t="str">
+      <c r="B42" s="176" t="str">
         <f>IF(I42="","",VLOOKUP(I42,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="109"/>
-      <c r="R42" s="109"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="108"/>
-      <c r="U42" s="110"/>
-      <c r="V42" s="134"/>
-      <c r="W42" s="135"/>
-      <c r="X42" s="135"/>
-      <c r="Y42" s="135"/>
-      <c r="Z42" s="136"/>
-      <c r="AA42" s="108">
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="177"/>
+      <c r="M42" s="177"/>
+      <c r="N42" s="177"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="178"/>
+      <c r="Q42" s="178"/>
+      <c r="R42" s="178"/>
+      <c r="S42" s="178"/>
+      <c r="T42" s="174"/>
+      <c r="U42" s="180"/>
+      <c r="V42" s="204"/>
+      <c r="W42" s="205"/>
+      <c r="X42" s="205"/>
+      <c r="Y42" s="205"/>
+      <c r="Z42" s="206"/>
+      <c r="AA42" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="109"/>
-      <c r="AC42" s="109"/>
-      <c r="AD42" s="109"/>
-      <c r="AE42" s="110"/>
-      <c r="AF42" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="109"/>
-      <c r="AH42" s="109"/>
-      <c r="AI42" s="110"/>
-      <c r="AJ42" s="108">
+      <c r="AB42" s="178"/>
+      <c r="AC42" s="178"/>
+      <c r="AD42" s="178"/>
+      <c r="AE42" s="180"/>
+      <c r="AF42" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="178"/>
+      <c r="AH42" s="178"/>
+      <c r="AI42" s="180"/>
+      <c r="AJ42" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="130"/>
+      <c r="AK42" s="175"/>
     </row>
     <row r="43" spans="1:256" s="40" customFormat="1" ht="27.75" customHeight="1">
       <c r="A43" s="54">
         <v>19</v>
       </c>
-      <c r="B43" s="131" t="str">
+      <c r="B43" s="176" t="str">
         <f>IF(I43="","",VLOOKUP(I43,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="109"/>
-      <c r="S43" s="109"/>
-      <c r="T43" s="108"/>
-      <c r="U43" s="110"/>
-      <c r="V43" s="134"/>
-      <c r="W43" s="135"/>
-      <c r="X43" s="135"/>
-      <c r="Y43" s="135"/>
-      <c r="Z43" s="136"/>
-      <c r="AA43" s="108">
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="177"/>
+      <c r="M43" s="177"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="174"/>
+      <c r="P43" s="178"/>
+      <c r="Q43" s="178"/>
+      <c r="R43" s="178"/>
+      <c r="S43" s="178"/>
+      <c r="T43" s="174"/>
+      <c r="U43" s="180"/>
+      <c r="V43" s="204"/>
+      <c r="W43" s="205"/>
+      <c r="X43" s="205"/>
+      <c r="Y43" s="205"/>
+      <c r="Z43" s="206"/>
+      <c r="AA43" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="109"/>
-      <c r="AC43" s="109"/>
-      <c r="AD43" s="109"/>
-      <c r="AE43" s="110"/>
-      <c r="AF43" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="109"/>
-      <c r="AH43" s="109"/>
-      <c r="AI43" s="110"/>
-      <c r="AJ43" s="108">
+      <c r="AB43" s="178"/>
+      <c r="AC43" s="178"/>
+      <c r="AD43" s="178"/>
+      <c r="AE43" s="180"/>
+      <c r="AF43" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="178"/>
+      <c r="AH43" s="178"/>
+      <c r="AI43" s="180"/>
+      <c r="AJ43" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK43" s="130"/>
+      <c r="AK43" s="175"/>
       <c r="AL43" s="9"/>
       <c r="AM43" s="9"/>
       <c r="AN43" s="9"/>
@@ -4705,53 +4705,53 @@
       <c r="A44" s="55">
         <v>20</v>
       </c>
-      <c r="B44" s="131" t="str">
+      <c r="B44" s="176" t="str">
         <f>IF(I44="","",VLOOKUP(I44,#REF!,2,0))</f>
         <v/>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="110"/>
-      <c r="V44" s="134"/>
-      <c r="W44" s="135"/>
-      <c r="X44" s="135"/>
-      <c r="Y44" s="135"/>
-      <c r="Z44" s="136"/>
-      <c r="AA44" s="108">
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="186"/>
+      <c r="J44" s="186"/>
+      <c r="K44" s="186"/>
+      <c r="L44" s="186"/>
+      <c r="M44" s="186"/>
+      <c r="N44" s="186"/>
+      <c r="O44" s="174"/>
+      <c r="P44" s="178"/>
+      <c r="Q44" s="178"/>
+      <c r="R44" s="178"/>
+      <c r="S44" s="178"/>
+      <c r="T44" s="174"/>
+      <c r="U44" s="180"/>
+      <c r="V44" s="204"/>
+      <c r="W44" s="205"/>
+      <c r="X44" s="205"/>
+      <c r="Y44" s="205"/>
+      <c r="Z44" s="206"/>
+      <c r="AA44" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="109"/>
-      <c r="AC44" s="109"/>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="110"/>
-      <c r="AF44" s="108">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="109"/>
-      <c r="AH44" s="109"/>
-      <c r="AI44" s="110"/>
-      <c r="AJ44" s="108">
+      <c r="AB44" s="178"/>
+      <c r="AC44" s="178"/>
+      <c r="AD44" s="178"/>
+      <c r="AE44" s="180"/>
+      <c r="AF44" s="174">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="178"/>
+      <c r="AH44" s="178"/>
+      <c r="AI44" s="180"/>
+      <c r="AJ44" s="174">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK44" s="130"/>
+      <c r="AK44" s="175"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9"/>
       <c r="AN44" s="9"/>
@@ -4973,54 +4973,54 @@
       <c r="IV44" s="9"/>
     </row>
     <row r="45" spans="1:256" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A45" s="137" t="s">
+      <c r="A45" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="138"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="138"/>
-      <c r="P45" s="138"/>
-      <c r="Q45" s="138"/>
-      <c r="R45" s="138"/>
-      <c r="S45" s="138"/>
-      <c r="T45" s="138"/>
-      <c r="U45" s="139"/>
-      <c r="V45" s="125"/>
-      <c r="W45" s="125"/>
-      <c r="X45" s="125"/>
-      <c r="Y45" s="125"/>
-      <c r="Z45" s="125"/>
-      <c r="AA45" s="125">
-        <f>SUMPRODUCT((AA25:AE44) *(1- ( V25:V44)))</f>
-        <v>0</v>
-      </c>
-      <c r="AB45" s="125"/>
-      <c r="AC45" s="125"/>
-      <c r="AD45" s="125"/>
-      <c r="AE45" s="125"/>
-      <c r="AF45" s="125">
-        <f>SUMPRODUCT((AF25:AI44) *(1- ( V25:V44)))</f>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="125"/>
-      <c r="AH45" s="125"/>
-      <c r="AI45" s="125"/>
-      <c r="AJ45" s="125">
+      <c r="B45" s="188"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="188"/>
+      <c r="H45" s="188"/>
+      <c r="I45" s="188"/>
+      <c r="J45" s="188"/>
+      <c r="K45" s="188"/>
+      <c r="L45" s="188"/>
+      <c r="M45" s="188"/>
+      <c r="N45" s="188"/>
+      <c r="O45" s="188"/>
+      <c r="P45" s="188"/>
+      <c r="Q45" s="188"/>
+      <c r="R45" s="188"/>
+      <c r="S45" s="188"/>
+      <c r="T45" s="188"/>
+      <c r="U45" s="189"/>
+      <c r="V45" s="181"/>
+      <c r="W45" s="181"/>
+      <c r="X45" s="181"/>
+      <c r="Y45" s="181"/>
+      <c r="Z45" s="181"/>
+      <c r="AA45" s="181">
+        <f>SUMPRODUCT(ROUNDDOWN( (AA25:AE44) *(1- ( V25:V44)),-2))</f>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="181"/>
+      <c r="AC45" s="181"/>
+      <c r="AD45" s="181"/>
+      <c r="AE45" s="181"/>
+      <c r="AF45" s="181">
+        <f>SUMPRODUCT(  ROUNDDOWN( (AF25:AI44) *(1- ( V25:V44)),-2))</f>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="181"/>
+      <c r="AH45" s="181"/>
+      <c r="AI45" s="181"/>
+      <c r="AJ45" s="181">
         <f>SUM(AJ25:AK44)</f>
         <v>0</v>
       </c>
-      <c r="AK45" s="125"/>
+      <c r="AK45" s="181"/>
       <c r="AL45" s="31"/>
       <c r="AM45" s="31"/>
       <c r="AN45" s="31"/>
@@ -5309,46 +5309,46 @@
       <c r="AK47" s="30"/>
     </row>
     <row r="48" spans="1:256" ht="19.5" customHeight="1">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="126"/>
-      <c r="M48" s="126"/>
-      <c r="N48" s="126"/>
-      <c r="O48" s="126"/>
-      <c r="P48" s="126"/>
-      <c r="R48" s="127" t="s">
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="182"/>
+      <c r="K48" s="182"/>
+      <c r="L48" s="182"/>
+      <c r="M48" s="182"/>
+      <c r="N48" s="182"/>
+      <c r="O48" s="182"/>
+      <c r="P48" s="182"/>
+      <c r="R48" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="S48" s="128"/>
-      <c r="T48" s="128"/>
-      <c r="U48" s="128"/>
-      <c r="V48" s="128"/>
-      <c r="W48" s="128"/>
-      <c r="X48" s="128"/>
-      <c r="Y48" s="128"/>
-      <c r="Z48" s="128"/>
-      <c r="AA48" s="128"/>
-      <c r="AB48" s="128"/>
-      <c r="AC48" s="128"/>
-      <c r="AD48" s="128"/>
-      <c r="AE48" s="128"/>
-      <c r="AF48" s="128"/>
-      <c r="AG48" s="128"/>
-      <c r="AH48" s="128"/>
-      <c r="AI48" s="128"/>
-      <c r="AJ48" s="128"/>
-      <c r="AK48" s="129"/>
+      <c r="S48" s="184"/>
+      <c r="T48" s="184"/>
+      <c r="U48" s="184"/>
+      <c r="V48" s="184"/>
+      <c r="W48" s="184"/>
+      <c r="X48" s="184"/>
+      <c r="Y48" s="184"/>
+      <c r="Z48" s="184"/>
+      <c r="AA48" s="184"/>
+      <c r="AB48" s="184"/>
+      <c r="AC48" s="184"/>
+      <c r="AD48" s="184"/>
+      <c r="AE48" s="184"/>
+      <c r="AF48" s="184"/>
+      <c r="AG48" s="184"/>
+      <c r="AH48" s="184"/>
+      <c r="AI48" s="184"/>
+      <c r="AJ48" s="184"/>
+      <c r="AK48" s="185"/>
     </row>
     <row r="49" spans="1:37" ht="11.25" customHeight="1">
       <c r="A49" s="79"/>
@@ -5367,32 +5367,32 @@
       <c r="N49" s="80"/>
       <c r="O49" s="80"/>
       <c r="P49" s="81"/>
-      <c r="R49" s="111" t="s">
+      <c r="R49" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="112"/>
-      <c r="T49" s="112"/>
-      <c r="U49" s="112"/>
-      <c r="V49" s="112"/>
-      <c r="W49" s="112"/>
-      <c r="X49" s="112"/>
-      <c r="Y49" s="112"/>
-      <c r="Z49" s="112"/>
-      <c r="AA49" s="112"/>
-      <c r="AB49" s="112"/>
-      <c r="AC49" s="112"/>
-      <c r="AD49" s="113"/>
-      <c r="AE49" s="111" t="s">
+      <c r="S49" s="191"/>
+      <c r="T49" s="191"/>
+      <c r="U49" s="191"/>
+      <c r="V49" s="191"/>
+      <c r="W49" s="191"/>
+      <c r="X49" s="191"/>
+      <c r="Y49" s="191"/>
+      <c r="Z49" s="191"/>
+      <c r="AA49" s="191"/>
+      <c r="AB49" s="191"/>
+      <c r="AC49" s="191"/>
+      <c r="AD49" s="192"/>
+      <c r="AE49" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="AF49" s="112"/>
-      <c r="AG49" s="112"/>
-      <c r="AH49" s="112"/>
-      <c r="AI49" s="113"/>
-      <c r="AJ49" s="111" t="s">
+      <c r="AF49" s="191"/>
+      <c r="AG49" s="191"/>
+      <c r="AH49" s="191"/>
+      <c r="AI49" s="192"/>
+      <c r="AJ49" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="AK49" s="113"/>
+      <c r="AK49" s="192"/>
     </row>
     <row r="50" spans="1:37" s="21" customFormat="1" ht="19.5" customHeight="1">
       <c r="A50" s="70"/>
@@ -5413,26 +5413,26 @@
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
       <c r="P50" s="71"/>
-      <c r="R50" s="114"/>
-      <c r="S50" s="115"/>
-      <c r="T50" s="115"/>
-      <c r="U50" s="115"/>
-      <c r="V50" s="115"/>
-      <c r="W50" s="115"/>
-      <c r="X50" s="115"/>
-      <c r="Y50" s="115"/>
-      <c r="Z50" s="115"/>
-      <c r="AA50" s="115"/>
-      <c r="AB50" s="115"/>
-      <c r="AC50" s="115"/>
-      <c r="AD50" s="116"/>
-      <c r="AE50" s="114"/>
-      <c r="AF50" s="115"/>
-      <c r="AG50" s="115"/>
-      <c r="AH50" s="115"/>
-      <c r="AI50" s="116"/>
-      <c r="AJ50" s="114"/>
-      <c r="AK50" s="116"/>
+      <c r="R50" s="193"/>
+      <c r="S50" s="194"/>
+      <c r="T50" s="194"/>
+      <c r="U50" s="194"/>
+      <c r="V50" s="194"/>
+      <c r="W50" s="194"/>
+      <c r="X50" s="194"/>
+      <c r="Y50" s="194"/>
+      <c r="Z50" s="194"/>
+      <c r="AA50" s="194"/>
+      <c r="AB50" s="194"/>
+      <c r="AC50" s="194"/>
+      <c r="AD50" s="195"/>
+      <c r="AE50" s="193"/>
+      <c r="AF50" s="194"/>
+      <c r="AG50" s="194"/>
+      <c r="AH50" s="194"/>
+      <c r="AI50" s="195"/>
+      <c r="AJ50" s="193"/>
+      <c r="AK50" s="195"/>
     </row>
     <row r="51" spans="1:37" s="21" customFormat="1" ht="9" customHeight="1">
       <c r="A51" s="70"/>
@@ -5451,26 +5451,26 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
       <c r="P51" s="71"/>
-      <c r="R51" s="117"/>
-      <c r="S51" s="118"/>
-      <c r="T51" s="118"/>
-      <c r="U51" s="118"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="118"/>
-      <c r="X51" s="118"/>
-      <c r="Y51" s="118"/>
-      <c r="Z51" s="118"/>
-      <c r="AA51" s="118"/>
-      <c r="AB51" s="118"/>
-      <c r="AC51" s="118"/>
-      <c r="AD51" s="119"/>
-      <c r="AE51" s="117"/>
-      <c r="AF51" s="118"/>
-      <c r="AG51" s="118"/>
-      <c r="AH51" s="118"/>
-      <c r="AI51" s="119"/>
-      <c r="AJ51" s="117"/>
-      <c r="AK51" s="119"/>
+      <c r="R51" s="196"/>
+      <c r="S51" s="197"/>
+      <c r="T51" s="197"/>
+      <c r="U51" s="197"/>
+      <c r="V51" s="197"/>
+      <c r="W51" s="197"/>
+      <c r="X51" s="197"/>
+      <c r="Y51" s="197"/>
+      <c r="Z51" s="197"/>
+      <c r="AA51" s="197"/>
+      <c r="AB51" s="197"/>
+      <c r="AC51" s="197"/>
+      <c r="AD51" s="198"/>
+      <c r="AE51" s="196"/>
+      <c r="AF51" s="197"/>
+      <c r="AG51" s="197"/>
+      <c r="AH51" s="197"/>
+      <c r="AI51" s="198"/>
+      <c r="AJ51" s="196"/>
+      <c r="AK51" s="198"/>
     </row>
     <row r="52" spans="1:37" ht="19.5" customHeight="1">
       <c r="A52" s="72"/>
@@ -5492,26 +5492,26 @@
       <c r="O52" s="23"/>
       <c r="P52" s="73"/>
       <c r="Q52" s="45"/>
-      <c r="R52" s="120"/>
-      <c r="S52" s="121"/>
-      <c r="T52" s="121"/>
-      <c r="U52" s="121"/>
-      <c r="V52" s="121"/>
-      <c r="W52" s="121"/>
-      <c r="X52" s="121"/>
-      <c r="Y52" s="121"/>
-      <c r="Z52" s="121"/>
-      <c r="AA52" s="121"/>
-      <c r="AB52" s="121"/>
-      <c r="AC52" s="121"/>
-      <c r="AD52" s="122"/>
-      <c r="AE52" s="120"/>
-      <c r="AF52" s="121"/>
-      <c r="AG52" s="121"/>
-      <c r="AH52" s="121"/>
-      <c r="AI52" s="122"/>
-      <c r="AJ52" s="120"/>
-      <c r="AK52" s="122"/>
+      <c r="R52" s="199"/>
+      <c r="S52" s="200"/>
+      <c r="T52" s="200"/>
+      <c r="U52" s="200"/>
+      <c r="V52" s="200"/>
+      <c r="W52" s="200"/>
+      <c r="X52" s="200"/>
+      <c r="Y52" s="200"/>
+      <c r="Z52" s="200"/>
+      <c r="AA52" s="200"/>
+      <c r="AB52" s="200"/>
+      <c r="AC52" s="200"/>
+      <c r="AD52" s="201"/>
+      <c r="AE52" s="199"/>
+      <c r="AF52" s="200"/>
+      <c r="AG52" s="200"/>
+      <c r="AH52" s="200"/>
+      <c r="AI52" s="201"/>
+      <c r="AJ52" s="199"/>
+      <c r="AK52" s="201"/>
     </row>
     <row r="53" spans="1:37" ht="6.75" customHeight="1">
       <c r="A53" s="74"/>
@@ -5640,141 +5640,94 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="J2:AE5"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AI2:AK4"/>
-    <mergeCell ref="N6:U6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:AA9"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:AA10"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:AA11"/>
-    <mergeCell ref="AE11:AK11"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="S13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:V18"/>
-    <mergeCell ref="W18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="A14:R16"/>
-    <mergeCell ref="S14:AI16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="W19:AC19"/>
-    <mergeCell ref="AE19:AH19"/>
-    <mergeCell ref="AI19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="W20:AC20"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AI20:AK20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="AE22:AH22"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="A23:AK23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="AJ24:AK24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="V28:Z28"/>
-    <mergeCell ref="AA27:AE27"/>
-    <mergeCell ref="AA28:AE28"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="V31:Z31"/>
-    <mergeCell ref="V32:Z32"/>
-    <mergeCell ref="V29:Z29"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AA31:AE31"/>
-    <mergeCell ref="AA32:AE32"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="O33:S33"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="AJ35:AK35"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="AA34:AE34"/>
+    <mergeCell ref="AA38:AE38"/>
+    <mergeCell ref="AA39:AE39"/>
+    <mergeCell ref="AA40:AE40"/>
+    <mergeCell ref="AA41:AE41"/>
+    <mergeCell ref="AA42:AE42"/>
+    <mergeCell ref="AA43:AE43"/>
+    <mergeCell ref="AA44:AE44"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="R49:AD50"/>
+    <mergeCell ref="AE49:AI50"/>
+    <mergeCell ref="AJ49:AK50"/>
+    <mergeCell ref="R51:AD52"/>
+    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="AJ51:AK52"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="AJ45:AK45"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="R48:AK48"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="AJ44:AK44"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V44:Z44"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="AA45:AE45"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="V45:Z45"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="V39:Z39"/>
+    <mergeCell ref="V40:Z40"/>
+    <mergeCell ref="V41:Z41"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="AF42:AI42"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="I36:N36"/>
     <mergeCell ref="AJ36:AK36"/>
@@ -5799,94 +5752,141 @@
     <mergeCell ref="AA35:AE35"/>
     <mergeCell ref="AA36:AE36"/>
     <mergeCell ref="AA37:AE37"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="AF42:AI42"/>
-    <mergeCell ref="AJ45:AK45"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="R48:AK48"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="AJ44:AK44"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="O44:S44"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V44:Z44"/>
-    <mergeCell ref="AF45:AI45"/>
-    <mergeCell ref="AA45:AE45"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="V45:Z45"/>
-    <mergeCell ref="R49:AD50"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="AJ49:AK50"/>
-    <mergeCell ref="R51:AD52"/>
-    <mergeCell ref="AE51:AI52"/>
-    <mergeCell ref="AJ51:AK52"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="AA38:AE38"/>
-    <mergeCell ref="AA39:AE39"/>
-    <mergeCell ref="AA40:AE40"/>
-    <mergeCell ref="AA41:AE41"/>
-    <mergeCell ref="AA42:AE42"/>
-    <mergeCell ref="AA43:AE43"/>
-    <mergeCell ref="AA44:AE44"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="AA33:AE33"/>
+    <mergeCell ref="AA34:AE34"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="V30:Z30"/>
+    <mergeCell ref="V31:Z31"/>
+    <mergeCell ref="V32:Z32"/>
+    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="AA31:AE31"/>
+    <mergeCell ref="AA32:AE32"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="V28:Z28"/>
+    <mergeCell ref="AA27:AE27"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="A23:AK23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:AC20"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="W19:AC19"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="AI19:AK19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:V18"/>
+    <mergeCell ref="W18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="A14:R16"/>
+    <mergeCell ref="S14:AI16"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:AA10"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:AA11"/>
+    <mergeCell ref="AE11:AK11"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="S13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="J2:AE5"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AK4"/>
+    <mergeCell ref="N6:U6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:AA9"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="AH9:AK9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
+++ b/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\exceltrungtrang\ReadAndWriteFileExcel\TrungTrang\bin\Debug\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A30CC97-F9ED-4A87-B7FB-F5157E6F36D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7667F29-DFE9-4C56-9669-BCE6130D0041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11655" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="31" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="Giá_bán_lẻ__có_VAT94" localSheetId="0">#REF!</definedName>
     <definedName name="Giá_bán_lẻ__có_VAT94">#REF!</definedName>
+    <definedName name="Mã_phụ_tùng94" localSheetId="0">#REF!</definedName>
     <definedName name="Mã_phụ_tùng94">#REF!</definedName>
     <definedName name="Mã_thay_thế94" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$1:$AK$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AK$70</definedName>
+    <definedName name="Tên_tiếng_Việt94" localSheetId="0">#REF!</definedName>
     <definedName name="Tên_tiếng_Việt94">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Mức nhiên liệu</t>
   </si>
@@ -153,14 +156,18 @@
     <t>Thời gian kiểm tra xe lần tới</t>
   </si>
   <si>
-    <t>Chiết khấu
+    <t xml:space="preserve">Số khung: </t>
+  </si>
+  <si>
+    <t>CK
 (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Số máy: </t>
+    <t>Số tiền 
+chiết khấu</t>
   </si>
   <si>
-    <t xml:space="preserve">Số khung: </t>
+    <t xml:space="preserve">Số máy: </t>
   </si>
 </sst>
 </file>
@@ -445,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -553,22 +560,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -583,7 +581,7 @@
       <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -593,36 +591,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="hair">
@@ -705,57 +673,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -770,35 +697,7 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -861,21 +760,138 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -885,8 +901,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="217">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -923,7 +941,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,14 +987,18 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -984,7 +1008,9 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -994,7 +1020,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1007,183 +1035,450 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1202,7 +1497,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1211,16 +1506,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,231 +1533,18 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="39" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="39" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1761,8 +1843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5409639" y="18792264"/>
-          <a:ext cx="7515226" cy="1340224"/>
+          <a:off x="5409639" y="18849414"/>
+          <a:ext cx="7543801" cy="1340224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1935,7 +2017,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59395" name="Picture 44">
+        <xdr:cNvPr id="4" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003E80000}"/>
@@ -1996,23 +2078,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59396" name="Picture 11">
+        <xdr:cNvPr id="6" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004E80000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005E80000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,8 +2117,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5457825" y="17097375"/>
-          <a:ext cx="7486650" cy="1600200"/>
+          <a:off x="0" y="17125950"/>
+          <a:ext cx="5276850" cy="3000375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2070,23 +2152,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59397" name="Picture 13">
+        <xdr:cNvPr id="7" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005E80000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EA7116-D6FD-4C73-8FEC-BDC08AD50FCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,8 +2191,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="17125950"/>
-          <a:ext cx="5276850" cy="3000375"/>
+          <a:off x="5457825" y="17106900"/>
+          <a:ext cx="7486650" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2469,10 +2551,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV57"/>
+  <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25:Z25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE59" sqref="AE59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
@@ -2531,38 +2613,38 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
-      <c r="AH2" s="109" t="s">
+      <c r="AH2" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="113"/>
+      <c r="AI2" s="193"/>
+      <c r="AJ2" s="193"/>
+      <c r="AK2" s="194"/>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -2574,34 +2656,34 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="189"/>
+      <c r="T3" s="189"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="189"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="189"/>
+      <c r="Y3" s="189"/>
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="189"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="189"/>
+      <c r="AD3" s="189"/>
+      <c r="AE3" s="189"/>
       <c r="AF3" s="34"/>
       <c r="AG3" s="34"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="115"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="195"/>
+      <c r="AJ3" s="195"/>
+      <c r="AK3" s="196"/>
     </row>
     <row r="4" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3"/>
@@ -2613,34 +2695,34 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="108"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="189"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="189"/>
+      <c r="V4" s="189"/>
+      <c r="W4" s="189"/>
+      <c r="X4" s="189"/>
+      <c r="Y4" s="189"/>
+      <c r="Z4" s="189"/>
+      <c r="AA4" s="189"/>
+      <c r="AB4" s="189"/>
+      <c r="AC4" s="189"/>
+      <c r="AD4" s="189"/>
+      <c r="AE4" s="189"/>
       <c r="AF4" s="34"/>
       <c r="AG4" s="34"/>
-      <c r="AH4" s="111"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="117"/>
+      <c r="AH4" s="192"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="198"/>
     </row>
     <row r="5" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="4"/>
@@ -2652,28 +2734,28 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="189"/>
+      <c r="R5" s="189"/>
+      <c r="S5" s="189"/>
+      <c r="T5" s="189"/>
+      <c r="U5" s="189"/>
+      <c r="V5" s="189"/>
+      <c r="W5" s="189"/>
+      <c r="X5" s="189"/>
+      <c r="Y5" s="189"/>
+      <c r="Z5" s="189"/>
+      <c r="AA5" s="189"/>
+      <c r="AB5" s="189"/>
+      <c r="AC5" s="189"/>
+      <c r="AD5" s="189"/>
+      <c r="AE5" s="189"/>
       <c r="AF5" s="34"/>
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
@@ -2695,14 +2777,14 @@
       <c r="K6" s="4"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="199"/>
+      <c r="Q6" s="199"/>
+      <c r="R6" s="199"/>
+      <c r="S6" s="199"/>
+      <c r="T6" s="199"/>
+      <c r="U6" s="199"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
@@ -2713,7 +2795,7 @@
       <c r="AC6" s="22"/>
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
-      <c r="AF6" s="99" t="s">
+      <c r="AF6" s="95" t="s">
         <v>0</v>
       </c>
       <c r="AG6" s="22"/>
@@ -2722,233 +2804,233 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="48"/>
-      <c r="AK6" s="65" t="s">
+      <c r="AK6" s="62" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="20" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="93" t="s">
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="121"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="201"/>
+      <c r="AI7" s="201"/>
+      <c r="AJ7" s="201"/>
+      <c r="AK7" s="202"/>
     </row>
     <row r="8" spans="1:37" s="20" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="93" t="s">
+      <c r="A8" s="203"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="206"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="207"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="207"/>
+      <c r="U8" s="207"/>
+      <c r="V8" s="207"/>
+      <c r="W8" s="207"/>
+      <c r="X8" s="207"/>
+      <c r="Y8" s="207"/>
+      <c r="Z8" s="207"/>
+      <c r="AA8" s="208"/>
+      <c r="AB8" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="96"/>
-      <c r="AF8" s="96"/>
-      <c r="AG8" s="96"/>
-      <c r="AH8" s="131"/>
-      <c r="AI8" s="131"/>
-      <c r="AJ8" s="131"/>
-      <c r="AK8" s="132"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="212"/>
+      <c r="AI8" s="212"/>
+      <c r="AJ8" s="212"/>
+      <c r="AK8" s="213"/>
     </row>
     <row r="9" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="93" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="210"/>
+      <c r="Q9" s="210"/>
+      <c r="R9" s="210"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="210"/>
+      <c r="U9" s="210"/>
+      <c r="V9" s="210"/>
+      <c r="W9" s="210"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="210"/>
+      <c r="AA9" s="211"/>
+      <c r="AB9" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="96"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="136"/>
-      <c r="AJ9" s="136"/>
-      <c r="AK9" s="137"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="215"/>
+      <c r="AI9" s="215"/>
+      <c r="AJ9" s="215"/>
+      <c r="AK9" s="216"/>
     </row>
     <row r="10" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="138" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="93" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="184"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="184"/>
+      <c r="AB10" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="139"/>
-      <c r="AG10" s="139"/>
-      <c r="AH10" s="139"/>
-      <c r="AI10" s="139"/>
-      <c r="AJ10" s="139"/>
-      <c r="AK10" s="140"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="185"/>
+      <c r="AE10" s="185"/>
+      <c r="AF10" s="185"/>
+      <c r="AG10" s="185"/>
+      <c r="AH10" s="185"/>
+      <c r="AI10" s="185"/>
+      <c r="AJ10" s="185"/>
+      <c r="AK10" s="186"/>
     </row>
     <row r="11" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="138" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="138" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="98" t="s">
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="184"/>
+      <c r="AB11" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="141"/>
-      <c r="AF11" s="141"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="141"/>
-      <c r="AJ11" s="141"/>
-      <c r="AK11" s="142"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="187"/>
+      <c r="AF11" s="187"/>
+      <c r="AG11" s="187"/>
+      <c r="AH11" s="187"/>
+      <c r="AI11" s="187"/>
+      <c r="AJ11" s="187"/>
+      <c r="AK11" s="188"/>
     </row>
     <row r="12" spans="1:37" s="20" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A12" s="64"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="15"/>
@@ -2987,181 +3069,181 @@
       <c r="AK12" s="13"/>
     </row>
     <row r="13" spans="1:37" s="20" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="144" t="s">
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="144"/>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="144"/>
-      <c r="AH13" s="144"/>
-      <c r="AI13" s="145"/>
-      <c r="AJ13" s="146" t="s">
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="166"/>
+      <c r="X13" s="166"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="166"/>
+      <c r="AC13" s="166"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="166"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="166"/>
+      <c r="AI13" s="167"/>
+      <c r="AJ13" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="AK13" s="146"/>
+      <c r="AK13" s="168"/>
     </row>
     <row r="14" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="56" t="s">
+      <c r="A14" s="169"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="170"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="170"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="171"/>
+      <c r="AJ14" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AK14" s="84" t="s">
+      <c r="AK14" s="81" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="153"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="154"/>
-      <c r="Z15" s="154"/>
-      <c r="AA15" s="154"/>
-      <c r="AB15" s="154"/>
-      <c r="AC15" s="154"/>
-      <c r="AD15" s="154"/>
-      <c r="AE15" s="154"/>
-      <c r="AF15" s="154"/>
-      <c r="AG15" s="154"/>
-      <c r="AH15" s="154"/>
-      <c r="AI15" s="155"/>
-      <c r="AJ15" s="57" t="s">
+      <c r="A15" s="172"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="172"/>
+      <c r="T15" s="173"/>
+      <c r="U15" s="173"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="174"/>
+      <c r="AJ15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AK15" s="85" t="s">
+      <c r="AK15" s="82" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="156"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="158"/>
-      <c r="AJ16" s="58" t="s">
+      <c r="A16" s="175"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="176"/>
+      <c r="Y16" s="176"/>
+      <c r="Z16" s="176"/>
+      <c r="AA16" s="176"/>
+      <c r="AB16" s="176"/>
+      <c r="AC16" s="176"/>
+      <c r="AD16" s="176"/>
+      <c r="AE16" s="176"/>
+      <c r="AF16" s="176"/>
+      <c r="AG16" s="176"/>
+      <c r="AH16" s="176"/>
+      <c r="AI16" s="177"/>
+      <c r="AJ16" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AK16" s="86" t="s">
+      <c r="AK16" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:45" s="20" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A17" s="61"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -3197,1290 +3279,1307 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="47"/>
       <c r="AJ17" s="47"/>
-      <c r="AK17" s="62"/>
+      <c r="AK17" s="59"/>
     </row>
     <row r="18" spans="1:45" ht="22.5" customHeight="1">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="148"/>
-      <c r="AH18" s="148"/>
-      <c r="AI18" s="148"/>
-      <c r="AJ18" s="148"/>
-      <c r="AK18" s="149"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="180"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="180"/>
+      <c r="S18" s="180"/>
+      <c r="T18" s="180"/>
+      <c r="U18" s="180"/>
+      <c r="V18" s="180"/>
+      <c r="W18" s="180"/>
+      <c r="X18" s="180"/>
+      <c r="Y18" s="180"/>
+      <c r="Z18" s="180"/>
+      <c r="AA18" s="180"/>
+      <c r="AB18" s="180"/>
+      <c r="AC18" s="180"/>
+      <c r="AD18" s="180"/>
+      <c r="AE18" s="180"/>
+      <c r="AF18" s="180"/>
+      <c r="AG18" s="180"/>
+      <c r="AH18" s="180"/>
+      <c r="AI18" s="180"/>
+      <c r="AJ18" s="180"/>
+      <c r="AK18" s="181"/>
     </row>
     <row r="19" spans="1:45" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="159"/>
-      <c r="S19" s="159"/>
-      <c r="T19" s="159"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="159"/>
-      <c r="AF19" s="159"/>
-      <c r="AG19" s="159"/>
-      <c r="AH19" s="159"/>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="162"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" s="150"/>
+      <c r="AC19" s="150"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="151"/>
+      <c r="AH19" s="151"/>
+      <c r="AI19" s="150"/>
+      <c r="AJ19" s="150"/>
+      <c r="AK19" s="152"/>
     </row>
     <row r="20" spans="1:45" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="159"/>
-      <c r="S20" s="159"/>
-      <c r="T20" s="159"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="159"/>
-      <c r="AF20" s="159"/>
-      <c r="AG20" s="159"/>
-      <c r="AH20" s="159"/>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
-      <c r="AK20" s="162"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="151"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="150"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="150"/>
+      <c r="AA20" s="150"/>
+      <c r="AB20" s="150"/>
+      <c r="AC20" s="150"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="150"/>
+      <c r="AJ20" s="150"/>
+      <c r="AK20" s="152"/>
     </row>
     <row r="21" spans="1:45" ht="21" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="159"/>
-      <c r="AF21" s="159"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="159"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="162"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="150"/>
+      <c r="AB21" s="150"/>
+      <c r="AC21" s="150"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="150"/>
+      <c r="AJ21" s="150"/>
+      <c r="AK21" s="152"/>
     </row>
     <row r="22" spans="1:45" ht="79.5" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="159"/>
-      <c r="S22" s="159"/>
-      <c r="T22" s="159"/>
-      <c r="U22" s="159"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="159"/>
-      <c r="AF22" s="159"/>
-      <c r="AG22" s="159"/>
-      <c r="AH22" s="159"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
-      <c r="AK22" s="162"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="151"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="150"/>
+      <c r="X22" s="150"/>
+      <c r="Y22" s="150"/>
+      <c r="Z22" s="150"/>
+      <c r="AA22" s="150"/>
+      <c r="AB22" s="150"/>
+      <c r="AC22" s="150"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="151"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="150"/>
+      <c r="AJ22" s="150"/>
+      <c r="AK22" s="152"/>
     </row>
     <row r="23" spans="1:45" ht="21.75" customHeight="1">
-      <c r="A23" s="164"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="165"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="165"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="166"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="154"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="154"/>
+      <c r="Z23" s="154"/>
+      <c r="AA23" s="154"/>
+      <c r="AB23" s="154"/>
+      <c r="AC23" s="154"/>
+      <c r="AD23" s="154"/>
+      <c r="AE23" s="154"/>
+      <c r="AF23" s="154"/>
+      <c r="AG23" s="154"/>
+      <c r="AH23" s="154"/>
+      <c r="AI23" s="154"/>
+      <c r="AJ23" s="154"/>
+      <c r="AK23" s="155"/>
     </row>
     <row r="24" spans="1:45" ht="40.5" customHeight="1">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="168" t="s">
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="168"/>
-      <c r="O24" s="171" t="s">
+      <c r="J24" s="158"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="172"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="171" t="s">
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="173"/>
-      <c r="V24" s="169" t="s">
-        <v>41</v>
-      </c>
-      <c r="W24" s="179"/>
-      <c r="X24" s="179"/>
-      <c r="Y24" s="179"/>
-      <c r="Z24" s="179"/>
-      <c r="AA24" s="169" t="s">
+      <c r="U24" s="107"/>
+      <c r="V24" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
+      <c r="AB24" s="148"/>
+      <c r="AC24" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="AB24" s="179"/>
-      <c r="AC24" s="179"/>
-      <c r="AD24" s="179"/>
-      <c r="AE24" s="170"/>
-      <c r="AF24" s="169" t="s">
+      <c r="AD24" s="129"/>
+      <c r="AE24" s="129"/>
+      <c r="AF24" s="148"/>
+      <c r="AG24" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="AG24" s="179"/>
-      <c r="AH24" s="179"/>
-      <c r="AI24" s="170"/>
-      <c r="AJ24" s="169" t="s">
+      <c r="AH24" s="129"/>
+      <c r="AI24" s="148"/>
+      <c r="AJ24" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="AK24" s="170"/>
-      <c r="AM24" s="103"/>
-      <c r="AN24" s="103"/>
-      <c r="AO24" s="103"/>
-      <c r="AP24" s="103"/>
-      <c r="AQ24" s="103"/>
-      <c r="AR24" s="103"/>
-      <c r="AS24" s="104"/>
+      <c r="AK24" s="148"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="98"/>
+      <c r="AS24" s="99"/>
     </row>
     <row r="25" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A25" s="54">
+      <c r="A25" s="108">
         <v>1</v>
       </c>
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="177"/>
-      <c r="N25" s="177"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="178"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="202"/>
-      <c r="U25" s="203"/>
-      <c r="V25" s="204"/>
-      <c r="W25" s="205"/>
-      <c r="X25" s="205"/>
-      <c r="Y25" s="205"/>
-      <c r="Z25" s="206"/>
-      <c r="AA25" s="174">
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="121">
+        <f>ROUND(V25*O25,-2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="122">
         <f xml:space="preserve"> (O25*T25)</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="178"/>
-      <c r="AC25" s="178"/>
-      <c r="AD25" s="178"/>
-      <c r="AE25" s="180"/>
-      <c r="AF25" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="178"/>
-      <c r="AH25" s="178"/>
-      <c r="AI25" s="180"/>
-      <c r="AJ25" s="174">
-        <f xml:space="preserve"> ROUNDDOWN((1-V25)* (AA25+AF25),-2)</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="175"/>
-      <c r="AM25" s="103"/>
-      <c r="AN25" s="103"/>
-      <c r="AO25" s="103"/>
-      <c r="AP25" s="103"/>
-      <c r="AQ25" s="103"/>
-      <c r="AR25" s="103"/>
-      <c r="AS25" s="105"/>
+      <c r="AD25" s="122"/>
+      <c r="AE25" s="122"/>
+      <c r="AF25" s="122"/>
+      <c r="AG25" s="122">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="122"/>
+      <c r="AI25" s="122"/>
+      <c r="AJ25" s="122">
+        <f>AC25-Y25*T25 + ROUND(AG25*(1-V25),-2)</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="146"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AQ25" s="98"/>
+      <c r="AR25" s="98"/>
+      <c r="AS25" s="100"/>
     </row>
     <row r="26" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A26" s="54">
+      <c r="A26" s="109">
         <v>2</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="178"/>
-      <c r="Q26" s="178"/>
-      <c r="R26" s="178"/>
-      <c r="S26" s="178"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="180"/>
-      <c r="V26" s="204"/>
-      <c r="W26" s="205"/>
-      <c r="X26" s="205"/>
-      <c r="Y26" s="205"/>
-      <c r="Z26" s="206"/>
-      <c r="AA26" s="174">
-        <f t="shared" ref="AA26:AA44" si="0" xml:space="preserve"> (O26*T26)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="178"/>
-      <c r="AC26" s="178"/>
-      <c r="AD26" s="178"/>
-      <c r="AE26" s="180"/>
-      <c r="AF26" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="178"/>
-      <c r="AH26" s="178"/>
-      <c r="AI26" s="180"/>
-      <c r="AJ26" s="174">
-        <f t="shared" ref="AJ26:AJ44" si="1" xml:space="preserve"> ROUNDDOWN((1-V26)* (AA26+AF26),-2)</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="175"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="121">
+        <f t="shared" ref="Y26:Y44" si="0">ROUND(V26*O26,-2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="122">
+        <f t="shared" ref="AC26:AC41" si="1" xml:space="preserve"> (O26*T26)</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="122"/>
+      <c r="AE26" s="122"/>
+      <c r="AF26" s="122"/>
+      <c r="AG26" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="114"/>
+      <c r="AI26" s="115"/>
+      <c r="AJ26" s="122">
+        <f t="shared" ref="AJ26:AJ44" si="2">AC26-Y26*T26 + ROUND(AG26*(1-V26),-2)</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="146"/>
     </row>
     <row r="27" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A27" s="54">
+      <c r="A27" s="109">
         <v>3</v>
       </c>
-      <c r="B27" s="176"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="177"/>
-      <c r="M27" s="177"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="174"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="178"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="174"/>
-      <c r="U27" s="180"/>
-      <c r="V27" s="204"/>
-      <c r="W27" s="205"/>
-      <c r="X27" s="205"/>
-      <c r="Y27" s="205"/>
-      <c r="Z27" s="206"/>
-      <c r="AA27" s="174">
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="119"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="178"/>
-      <c r="AC27" s="178"/>
-      <c r="AD27" s="178"/>
-      <c r="AE27" s="180"/>
-      <c r="AF27" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="178"/>
-      <c r="AH27" s="178"/>
-      <c r="AI27" s="180"/>
-      <c r="AJ27" s="174">
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="175"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="122"/>
+      <c r="AF27" s="122"/>
+      <c r="AG27" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="114"/>
+      <c r="AI27" s="115"/>
+      <c r="AJ27" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="146"/>
     </row>
     <row r="28" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A28" s="54">
+      <c r="A28" s="109">
         <v>4</v>
       </c>
-      <c r="B28" s="176"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="177"/>
-      <c r="M28" s="177"/>
-      <c r="N28" s="177"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="178"/>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="178"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="180"/>
-      <c r="V28" s="204"/>
-      <c r="W28" s="205"/>
-      <c r="X28" s="205"/>
-      <c r="Y28" s="205"/>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="174">
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="178"/>
-      <c r="AC28" s="178"/>
-      <c r="AD28" s="178"/>
-      <c r="AE28" s="180"/>
-      <c r="AF28" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="178"/>
-      <c r="AH28" s="178"/>
-      <c r="AI28" s="180"/>
-      <c r="AJ28" s="174">
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="175"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="122"/>
+      <c r="AF28" s="122"/>
+      <c r="AG28" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="114"/>
+      <c r="AI28" s="115"/>
+      <c r="AJ28" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="146"/>
     </row>
     <row r="29" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A29" s="54">
+      <c r="A29" s="109">
         <v>5</v>
       </c>
-      <c r="B29" s="176"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="174"/>
-      <c r="P29" s="178"/>
-      <c r="Q29" s="178"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="178"/>
-      <c r="T29" s="174"/>
-      <c r="U29" s="180"/>
-      <c r="V29" s="204"/>
-      <c r="W29" s="205"/>
-      <c r="X29" s="205"/>
-      <c r="Y29" s="205"/>
-      <c r="Z29" s="206"/>
-      <c r="AA29" s="174">
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="178"/>
-      <c r="AC29" s="178"/>
-      <c r="AD29" s="178"/>
-      <c r="AE29" s="180"/>
-      <c r="AF29" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="178"/>
-      <c r="AH29" s="178"/>
-      <c r="AI29" s="180"/>
-      <c r="AJ29" s="174">
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="121"/>
+      <c r="AC29" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="175"/>
-      <c r="AL29" s="107"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="122"/>
+      <c r="AF29" s="122"/>
+      <c r="AG29" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="115"/>
+      <c r="AJ29" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="146"/>
+      <c r="AL29" s="102"/>
     </row>
     <row r="30" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A30" s="54">
+      <c r="A30" s="109">
         <v>6</v>
       </c>
-      <c r="B30" s="176" t="str">
-        <f>IF(I30="","",VLOOKUP(I30,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="177"/>
-      <c r="M30" s="177"/>
-      <c r="N30" s="177"/>
-      <c r="O30" s="174"/>
-      <c r="P30" s="178"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="204"/>
-      <c r="W30" s="205"/>
-      <c r="X30" s="205"/>
-      <c r="Y30" s="205"/>
-      <c r="Z30" s="206"/>
-      <c r="AA30" s="174">
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="178"/>
-      <c r="AC30" s="178"/>
-      <c r="AD30" s="178"/>
-      <c r="AE30" s="180"/>
-      <c r="AF30" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="178"/>
-      <c r="AH30" s="178"/>
-      <c r="AI30" s="180"/>
-      <c r="AJ30" s="174">
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="175"/>
-      <c r="AL30" s="107"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="122"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="115"/>
+      <c r="AJ30" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="146"/>
+      <c r="AL30" s="102"/>
     </row>
     <row r="31" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A31" s="54">
+      <c r="A31" s="109">
         <v>7</v>
       </c>
-      <c r="B31" s="176" t="str">
-        <f>IF(I31="","",VLOOKUP(I31,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="177"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="178"/>
-      <c r="Q31" s="178"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="178"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="180"/>
-      <c r="V31" s="204"/>
-      <c r="W31" s="205"/>
-      <c r="X31" s="205"/>
-      <c r="Y31" s="205"/>
-      <c r="Z31" s="206"/>
-      <c r="AA31" s="174">
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="178"/>
-      <c r="AC31" s="178"/>
-      <c r="AD31" s="178"/>
-      <c r="AE31" s="180"/>
-      <c r="AF31" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="178"/>
-      <c r="AH31" s="178"/>
-      <c r="AI31" s="180"/>
-      <c r="AJ31" s="174">
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="121"/>
+      <c r="AB31" s="121"/>
+      <c r="AC31" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="175"/>
-      <c r="AL31" s="107"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="122"/>
+      <c r="AF31" s="122"/>
+      <c r="AG31" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="115"/>
+      <c r="AJ31" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="146"/>
+      <c r="AL31" s="102"/>
     </row>
     <row r="32" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A32" s="54">
+      <c r="A32" s="109">
         <v>8</v>
       </c>
-      <c r="B32" s="176" t="str">
-        <f>IF(I32="","",VLOOKUP(I32,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="174"/>
-      <c r="P32" s="178"/>
-      <c r="Q32" s="178"/>
-      <c r="R32" s="178"/>
-      <c r="S32" s="178"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="180"/>
-      <c r="V32" s="204"/>
-      <c r="W32" s="205"/>
-      <c r="X32" s="205"/>
-      <c r="Y32" s="205"/>
-      <c r="Z32" s="206"/>
-      <c r="AA32" s="174">
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="178"/>
-      <c r="AC32" s="178"/>
-      <c r="AD32" s="178"/>
-      <c r="AE32" s="180"/>
-      <c r="AF32" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="178"/>
-      <c r="AH32" s="178"/>
-      <c r="AI32" s="180"/>
-      <c r="AJ32" s="174">
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="121"/>
+      <c r="AC32" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="175"/>
-      <c r="AL32" s="107"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="122"/>
+      <c r="AF32" s="122"/>
+      <c r="AG32" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="114"/>
+      <c r="AI32" s="115"/>
+      <c r="AJ32" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="146"/>
+      <c r="AL32" s="102"/>
     </row>
     <row r="33" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A33" s="54">
+      <c r="A33" s="109">
         <v>9</v>
       </c>
-      <c r="B33" s="176" t="str">
-        <f>IF(I33="","",VLOOKUP(I33,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="177"/>
-      <c r="M33" s="177"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="174"/>
-      <c r="P33" s="178"/>
-      <c r="Q33" s="178"/>
-      <c r="R33" s="178"/>
-      <c r="S33" s="178"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="180"/>
-      <c r="V33" s="204"/>
-      <c r="W33" s="205"/>
-      <c r="X33" s="205"/>
-      <c r="Y33" s="205"/>
-      <c r="Z33" s="206"/>
-      <c r="AA33" s="174">
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="119"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="120"/>
+      <c r="Y33" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="178"/>
-      <c r="AC33" s="178"/>
-      <c r="AD33" s="178"/>
-      <c r="AE33" s="180"/>
-      <c r="AF33" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="178"/>
-      <c r="AH33" s="178"/>
-      <c r="AI33" s="180"/>
-      <c r="AJ33" s="174">
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="175"/>
-      <c r="AL33" s="107"/>
+      <c r="AD33" s="122"/>
+      <c r="AE33" s="122"/>
+      <c r="AF33" s="122"/>
+      <c r="AG33" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="114"/>
+      <c r="AI33" s="115"/>
+      <c r="AJ33" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="146"/>
+      <c r="AL33" s="102"/>
     </row>
     <row r="34" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A34" s="54">
+      <c r="A34" s="109">
         <v>10</v>
       </c>
-      <c r="B34" s="176" t="str">
-        <f>IF(I34="","",VLOOKUP(I34,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="177"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="177"/>
-      <c r="O34" s="174"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="178"/>
-      <c r="T34" s="174"/>
-      <c r="U34" s="180"/>
-      <c r="V34" s="204"/>
-      <c r="W34" s="205"/>
-      <c r="X34" s="205"/>
-      <c r="Y34" s="205"/>
-      <c r="Z34" s="206"/>
-      <c r="AA34" s="174">
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="119"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="178"/>
-      <c r="AC34" s="178"/>
-      <c r="AD34" s="178"/>
-      <c r="AE34" s="180"/>
-      <c r="AF34" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="178"/>
-      <c r="AH34" s="178"/>
-      <c r="AI34" s="180"/>
-      <c r="AJ34" s="174">
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
+      <c r="AC34" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="175"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="122"/>
+      <c r="AF34" s="122"/>
+      <c r="AG34" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="114"/>
+      <c r="AI34" s="115"/>
+      <c r="AJ34" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="146"/>
     </row>
     <row r="35" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A35" s="54">
+      <c r="A35" s="109">
         <v>11</v>
       </c>
-      <c r="B35" s="176" t="str">
-        <f>IF(I35="","",VLOOKUP(I35,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="177"/>
-      <c r="L35" s="177"/>
-      <c r="M35" s="177"/>
-      <c r="N35" s="177"/>
-      <c r="O35" s="174"/>
-      <c r="P35" s="178"/>
-      <c r="Q35" s="178"/>
-      <c r="R35" s="178"/>
-      <c r="S35" s="178"/>
-      <c r="T35" s="174"/>
-      <c r="U35" s="180"/>
-      <c r="V35" s="204"/>
-      <c r="W35" s="205"/>
-      <c r="X35" s="205"/>
-      <c r="Y35" s="205"/>
-      <c r="Z35" s="206"/>
-      <c r="AA35" s="174">
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="119"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="120"/>
+      <c r="X35" s="120"/>
+      <c r="Y35" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="178"/>
-      <c r="AC35" s="178"/>
-      <c r="AD35" s="178"/>
-      <c r="AE35" s="180"/>
-      <c r="AF35" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="178"/>
-      <c r="AH35" s="178"/>
-      <c r="AI35" s="180"/>
-      <c r="AJ35" s="174">
+      <c r="Z35" s="121"/>
+      <c r="AA35" s="121"/>
+      <c r="AB35" s="121"/>
+      <c r="AC35" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="175"/>
+      <c r="AD35" s="122"/>
+      <c r="AE35" s="122"/>
+      <c r="AF35" s="122"/>
+      <c r="AG35" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="114"/>
+      <c r="AI35" s="115"/>
+      <c r="AJ35" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="146"/>
     </row>
     <row r="36" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A36" s="54">
+      <c r="A36" s="109">
         <v>12</v>
       </c>
-      <c r="B36" s="176" t="str">
-        <f>IF(I36="","",VLOOKUP(I36,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="177"/>
-      <c r="M36" s="177"/>
-      <c r="N36" s="177"/>
-      <c r="O36" s="174"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
-      <c r="S36" s="178"/>
-      <c r="T36" s="174"/>
-      <c r="U36" s="180"/>
-      <c r="V36" s="204"/>
-      <c r="W36" s="205"/>
-      <c r="X36" s="205"/>
-      <c r="Y36" s="205"/>
-      <c r="Z36" s="206"/>
-      <c r="AA36" s="174">
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="119"/>
+      <c r="Q36" s="119"/>
+      <c r="R36" s="119"/>
+      <c r="S36" s="119"/>
+      <c r="T36" s="119"/>
+      <c r="U36" s="119"/>
+      <c r="V36" s="120"/>
+      <c r="W36" s="120"/>
+      <c r="X36" s="120"/>
+      <c r="Y36" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="178"/>
-      <c r="AC36" s="178"/>
-      <c r="AD36" s="178"/>
-      <c r="AE36" s="180"/>
-      <c r="AF36" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="178"/>
-      <c r="AH36" s="178"/>
-      <c r="AI36" s="180"/>
-      <c r="AJ36" s="174">
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="121"/>
+      <c r="AB36" s="121"/>
+      <c r="AC36" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="175"/>
+      <c r="AD36" s="122"/>
+      <c r="AE36" s="122"/>
+      <c r="AF36" s="122"/>
+      <c r="AG36" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="114"/>
+      <c r="AI36" s="115"/>
+      <c r="AJ36" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="146"/>
     </row>
     <row r="37" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A37" s="54">
+      <c r="A37" s="109">
         <v>13</v>
       </c>
-      <c r="B37" s="176" t="str">
-        <f>IF(I37="","",VLOOKUP(I37,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="177"/>
-      <c r="M37" s="177"/>
-      <c r="N37" s="177"/>
-      <c r="O37" s="174"/>
-      <c r="P37" s="178"/>
-      <c r="Q37" s="178"/>
-      <c r="R37" s="178"/>
-      <c r="S37" s="178"/>
-      <c r="T37" s="174"/>
-      <c r="U37" s="180"/>
-      <c r="V37" s="204"/>
-      <c r="W37" s="205"/>
-      <c r="X37" s="205"/>
-      <c r="Y37" s="205"/>
-      <c r="Z37" s="206"/>
-      <c r="AA37" s="174">
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="119"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="120"/>
+      <c r="W37" s="120"/>
+      <c r="X37" s="120"/>
+      <c r="Y37" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB37" s="178"/>
-      <c r="AC37" s="178"/>
-      <c r="AD37" s="178"/>
-      <c r="AE37" s="180"/>
-      <c r="AF37" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="178"/>
-      <c r="AH37" s="178"/>
-      <c r="AI37" s="180"/>
-      <c r="AJ37" s="174">
+      <c r="Z37" s="121"/>
+      <c r="AA37" s="121"/>
+      <c r="AB37" s="121"/>
+      <c r="AC37" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="175"/>
+      <c r="AD37" s="122"/>
+      <c r="AE37" s="122"/>
+      <c r="AF37" s="122"/>
+      <c r="AG37" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="114"/>
+      <c r="AI37" s="115"/>
+      <c r="AJ37" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="146"/>
     </row>
     <row r="38" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A38" s="54">
+      <c r="A38" s="109">
         <v>14</v>
       </c>
-      <c r="B38" s="176" t="str">
-        <f>IF(I38="","",VLOOKUP(I38,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
-      <c r="E38" s="177"/>
-      <c r="F38" s="177"/>
-      <c r="G38" s="177"/>
-      <c r="H38" s="177"/>
-      <c r="I38" s="177"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="177"/>
-      <c r="L38" s="177"/>
-      <c r="M38" s="177"/>
-      <c r="N38" s="177"/>
-      <c r="O38" s="174"/>
-      <c r="P38" s="178"/>
-      <c r="Q38" s="178"/>
-      <c r="R38" s="178"/>
-      <c r="S38" s="178"/>
-      <c r="T38" s="174"/>
-      <c r="U38" s="180"/>
-      <c r="V38" s="204"/>
-      <c r="W38" s="205"/>
-      <c r="X38" s="205"/>
-      <c r="Y38" s="205"/>
-      <c r="Z38" s="206"/>
-      <c r="AA38" s="174">
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="119"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="120"/>
+      <c r="X38" s="120"/>
+      <c r="Y38" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="178"/>
-      <c r="AC38" s="178"/>
-      <c r="AD38" s="178"/>
-      <c r="AE38" s="180"/>
-      <c r="AF38" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="178"/>
-      <c r="AH38" s="178"/>
-      <c r="AI38" s="180"/>
-      <c r="AJ38" s="174">
+      <c r="Z38" s="121"/>
+      <c r="AA38" s="121"/>
+      <c r="AB38" s="121"/>
+      <c r="AC38" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="175"/>
+      <c r="AD38" s="122"/>
+      <c r="AE38" s="122"/>
+      <c r="AF38" s="122"/>
+      <c r="AG38" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="114"/>
+      <c r="AI38" s="115"/>
+      <c r="AJ38" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="146"/>
     </row>
     <row r="39" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A39" s="54">
+      <c r="A39" s="109">
         <v>15</v>
       </c>
-      <c r="B39" s="176" t="str">
-        <f>IF(I39="","",VLOOKUP(I39,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
-      <c r="E39" s="177"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="177"/>
-      <c r="L39" s="177"/>
-      <c r="M39" s="177"/>
-      <c r="N39" s="177"/>
-      <c r="O39" s="174"/>
-      <c r="P39" s="178"/>
-      <c r="Q39" s="178"/>
-      <c r="R39" s="178"/>
-      <c r="S39" s="178"/>
-      <c r="T39" s="174"/>
-      <c r="U39" s="180"/>
-      <c r="V39" s="204"/>
-      <c r="W39" s="205"/>
-      <c r="X39" s="205"/>
-      <c r="Y39" s="205"/>
-      <c r="Z39" s="206"/>
-      <c r="AA39" s="174">
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="120"/>
+      <c r="W39" s="120"/>
+      <c r="X39" s="120"/>
+      <c r="Y39" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="178"/>
-      <c r="AC39" s="178"/>
-      <c r="AD39" s="178"/>
-      <c r="AE39" s="180"/>
-      <c r="AF39" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="178"/>
-      <c r="AH39" s="178"/>
-      <c r="AI39" s="180"/>
-      <c r="AJ39" s="174">
+      <c r="Z39" s="121"/>
+      <c r="AA39" s="121"/>
+      <c r="AB39" s="121"/>
+      <c r="AC39" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="175"/>
+      <c r="AD39" s="122"/>
+      <c r="AE39" s="122"/>
+      <c r="AF39" s="122"/>
+      <c r="AG39" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="114"/>
+      <c r="AI39" s="115"/>
+      <c r="AJ39" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="146"/>
     </row>
     <row r="40" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A40" s="54">
+      <c r="A40" s="109">
         <v>16</v>
       </c>
-      <c r="B40" s="176" t="str">
-        <f>IF(I40="","",VLOOKUP(I40,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="177"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="177"/>
-      <c r="L40" s="177"/>
-      <c r="M40" s="177"/>
-      <c r="N40" s="177"/>
-      <c r="O40" s="174"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="178"/>
-      <c r="S40" s="178"/>
-      <c r="T40" s="174"/>
-      <c r="U40" s="180"/>
-      <c r="V40" s="204"/>
-      <c r="W40" s="205"/>
-      <c r="X40" s="205"/>
-      <c r="Y40" s="205"/>
-      <c r="Z40" s="206"/>
-      <c r="AA40" s="174">
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="119"/>
+      <c r="U40" s="119"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="178"/>
-      <c r="AC40" s="178"/>
-      <c r="AD40" s="178"/>
-      <c r="AE40" s="180"/>
-      <c r="AF40" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="178"/>
-      <c r="AH40" s="178"/>
-      <c r="AI40" s="180"/>
-      <c r="AJ40" s="174">
+      <c r="Z40" s="121"/>
+      <c r="AA40" s="121"/>
+      <c r="AB40" s="121"/>
+      <c r="AC40" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="175"/>
+      <c r="AD40" s="122"/>
+      <c r="AE40" s="122"/>
+      <c r="AF40" s="122"/>
+      <c r="AG40" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="114"/>
+      <c r="AI40" s="115"/>
+      <c r="AJ40" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="146"/>
     </row>
     <row r="41" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A41" s="54">
+      <c r="A41" s="109">
         <v>17</v>
       </c>
-      <c r="B41" s="176" t="str">
-        <f>IF(I41="","",VLOOKUP(I41,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
-      <c r="E41" s="177"/>
-      <c r="F41" s="177"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="177"/>
-      <c r="M41" s="177"/>
-      <c r="N41" s="177"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="178"/>
-      <c r="Q41" s="178"/>
-      <c r="R41" s="178"/>
-      <c r="S41" s="178"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="180"/>
-      <c r="V41" s="204"/>
-      <c r="W41" s="205"/>
-      <c r="X41" s="205"/>
-      <c r="Y41" s="205"/>
-      <c r="Z41" s="206"/>
-      <c r="AA41" s="174">
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="119"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="119"/>
+      <c r="T41" s="119"/>
+      <c r="U41" s="119"/>
+      <c r="V41" s="120"/>
+      <c r="W41" s="120"/>
+      <c r="X41" s="120"/>
+      <c r="Y41" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="178"/>
-      <c r="AC41" s="178"/>
-      <c r="AD41" s="178"/>
-      <c r="AE41" s="180"/>
-      <c r="AF41" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="178"/>
-      <c r="AH41" s="178"/>
-      <c r="AI41" s="180"/>
-      <c r="AJ41" s="174">
+      <c r="Z41" s="121"/>
+      <c r="AA41" s="121"/>
+      <c r="AB41" s="121"/>
+      <c r="AC41" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="175"/>
+      <c r="AD41" s="122"/>
+      <c r="AE41" s="122"/>
+      <c r="AF41" s="122"/>
+      <c r="AG41" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="114"/>
+      <c r="AI41" s="115"/>
+      <c r="AJ41" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="146"/>
     </row>
     <row r="42" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A42" s="54">
+      <c r="A42" s="109">
         <v>18</v>
       </c>
-      <c r="B42" s="176" t="str">
-        <f>IF(I42="","",VLOOKUP(I42,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="177"/>
-      <c r="K42" s="177"/>
-      <c r="L42" s="177"/>
-      <c r="M42" s="177"/>
-      <c r="N42" s="177"/>
-      <c r="O42" s="174"/>
-      <c r="P42" s="178"/>
-      <c r="Q42" s="178"/>
-      <c r="R42" s="178"/>
-      <c r="S42" s="178"/>
-      <c r="T42" s="174"/>
-      <c r="U42" s="180"/>
-      <c r="V42" s="204"/>
-      <c r="W42" s="205"/>
-      <c r="X42" s="205"/>
-      <c r="Y42" s="205"/>
-      <c r="Z42" s="206"/>
-      <c r="AA42" s="174">
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="119"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="119"/>
+      <c r="S42" s="119"/>
+      <c r="T42" s="119"/>
+      <c r="U42" s="119"/>
+      <c r="V42" s="120"/>
+      <c r="W42" s="120"/>
+      <c r="X42" s="120"/>
+      <c r="Y42" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="178"/>
-      <c r="AC42" s="178"/>
-      <c r="AD42" s="178"/>
-      <c r="AE42" s="180"/>
-      <c r="AF42" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="178"/>
-      <c r="AH42" s="178"/>
-      <c r="AI42" s="180"/>
-      <c r="AJ42" s="174">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="175"/>
+      <c r="Z42" s="121"/>
+      <c r="AA42" s="121"/>
+      <c r="AB42" s="121"/>
+      <c r="AC42" s="122">
+        <f xml:space="preserve"> (O42*T42)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="122"/>
+      <c r="AE42" s="122"/>
+      <c r="AF42" s="122"/>
+      <c r="AG42" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="114"/>
+      <c r="AI42" s="115"/>
+      <c r="AJ42" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="146"/>
     </row>
     <row r="43" spans="1:256" s="40" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A43" s="54">
+      <c r="A43" s="109">
         <v>19</v>
       </c>
-      <c r="B43" s="176" t="str">
-        <f>IF(I43="","",VLOOKUP(I43,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="177"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="177"/>
-      <c r="L43" s="177"/>
-      <c r="M43" s="177"/>
-      <c r="N43" s="177"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="178"/>
-      <c r="Q43" s="178"/>
-      <c r="R43" s="178"/>
-      <c r="S43" s="178"/>
-      <c r="T43" s="174"/>
-      <c r="U43" s="180"/>
-      <c r="V43" s="204"/>
-      <c r="W43" s="205"/>
-      <c r="X43" s="205"/>
-      <c r="Y43" s="205"/>
-      <c r="Z43" s="206"/>
-      <c r="AA43" s="174">
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="119"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="119"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="119"/>
+      <c r="T43" s="119"/>
+      <c r="U43" s="119"/>
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="120"/>
+      <c r="Y43" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="178"/>
-      <c r="AC43" s="178"/>
-      <c r="AD43" s="178"/>
-      <c r="AE43" s="180"/>
-      <c r="AF43" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="178"/>
-      <c r="AH43" s="178"/>
-      <c r="AI43" s="180"/>
-      <c r="AJ43" s="174">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="175"/>
+      <c r="Z43" s="121"/>
+      <c r="AA43" s="121"/>
+      <c r="AB43" s="121"/>
+      <c r="AC43" s="122">
+        <f t="shared" ref="AC43:AC44" si="3" xml:space="preserve"> (O43*T43)</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="122"/>
+      <c r="AE43" s="122"/>
+      <c r="AF43" s="122"/>
+      <c r="AG43" s="113">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="114"/>
+      <c r="AI43" s="115"/>
+      <c r="AJ43" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="146"/>
       <c r="AL43" s="9"/>
       <c r="AM43" s="9"/>
       <c r="AN43" s="9"/>
@@ -4702,56 +4801,56 @@
       <c r="IV43" s="9"/>
     </row>
     <row r="44" spans="1:256" s="40" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="110">
         <v>20</v>
       </c>
-      <c r="B44" s="176" t="str">
-        <f>IF(I44="","",VLOOKUP(I44,#REF!,2,0))</f>
-        <v/>
-      </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="177"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="186"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="186"/>
-      <c r="L44" s="186"/>
-      <c r="M44" s="186"/>
-      <c r="N44" s="186"/>
-      <c r="O44" s="174"/>
-      <c r="P44" s="178"/>
-      <c r="Q44" s="178"/>
-      <c r="R44" s="178"/>
-      <c r="S44" s="178"/>
-      <c r="T44" s="174"/>
-      <c r="U44" s="180"/>
-      <c r="V44" s="204"/>
-      <c r="W44" s="205"/>
-      <c r="X44" s="205"/>
-      <c r="Y44" s="205"/>
-      <c r="Z44" s="206"/>
-      <c r="AA44" s="174">
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="118"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="116"/>
+      <c r="S44" s="116"/>
+      <c r="T44" s="116"/>
+      <c r="U44" s="116"/>
+      <c r="V44" s="120"/>
+      <c r="W44" s="120"/>
+      <c r="X44" s="120"/>
+      <c r="Y44" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="178"/>
-      <c r="AC44" s="178"/>
-      <c r="AD44" s="178"/>
-      <c r="AE44" s="180"/>
-      <c r="AF44" s="174">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="178"/>
-      <c r="AH44" s="178"/>
-      <c r="AI44" s="180"/>
-      <c r="AJ44" s="174">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK44" s="175"/>
+      <c r="Z44" s="121"/>
+      <c r="AA44" s="121"/>
+      <c r="AB44" s="121"/>
+      <c r="AC44" s="122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="122"/>
+      <c r="AE44" s="122"/>
+      <c r="AF44" s="122"/>
+      <c r="AG44" s="123">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="124"/>
+      <c r="AI44" s="125"/>
+      <c r="AJ44" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="146"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9"/>
       <c r="AN44" s="9"/>
@@ -4973,54 +5072,54 @@
       <c r="IV44" s="9"/>
     </row>
     <row r="45" spans="1:256" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A45" s="187" t="s">
+      <c r="A45" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="188"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="188"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="188"/>
-      <c r="G45" s="188"/>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
-      <c r="J45" s="188"/>
-      <c r="K45" s="188"/>
-      <c r="L45" s="188"/>
-      <c r="M45" s="188"/>
-      <c r="N45" s="188"/>
-      <c r="O45" s="188"/>
-      <c r="P45" s="188"/>
-      <c r="Q45" s="188"/>
-      <c r="R45" s="188"/>
-      <c r="S45" s="188"/>
-      <c r="T45" s="188"/>
-      <c r="U45" s="189"/>
-      <c r="V45" s="181"/>
-      <c r="W45" s="181"/>
-      <c r="X45" s="181"/>
-      <c r="Y45" s="181"/>
-      <c r="Z45" s="181"/>
-      <c r="AA45" s="181">
-        <f>SUMPRODUCT(ROUNDDOWN( (AA25:AE44) *(1- ( V25:V44)),-2))</f>
-        <v>0</v>
-      </c>
-      <c r="AB45" s="181"/>
-      <c r="AC45" s="181"/>
-      <c r="AD45" s="181"/>
-      <c r="AE45" s="181"/>
-      <c r="AF45" s="181">
-        <f>SUMPRODUCT(  ROUNDDOWN( (AF25:AI44) *(1- ( V25:V44)),-2))</f>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="181"/>
-      <c r="AH45" s="181"/>
-      <c r="AI45" s="181"/>
-      <c r="AJ45" s="181">
-        <f>SUM(AJ25:AK44)</f>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="181"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
+      <c r="S45" s="112"/>
+      <c r="T45" s="112"/>
+      <c r="U45" s="112"/>
+      <c r="V45" s="112"/>
+      <c r="W45" s="112"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="147"/>
+      <c r="Z45" s="147"/>
+      <c r="AA45" s="147"/>
+      <c r="AB45" s="147"/>
+      <c r="AC45" s="111">
+        <f>SUMPRODUCT( (AC25:AF44)  - (Y25:AB44)* (T25:T44))</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="111"/>
+      <c r="AE45" s="111"/>
+      <c r="AF45" s="111"/>
+      <c r="AG45" s="111">
+        <f>SUMPRODUCT( ROUND( (AG25:AI44) * (1- V25:V44),-2))</f>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="111"/>
+      <c r="AI45" s="111"/>
+      <c r="AJ45" s="111">
+        <f>SUMPRODUCT((AJ25:AK44))</f>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="111"/>
       <c r="AL45" s="31"/>
       <c r="AM45" s="31"/>
       <c r="AN45" s="31"/>
@@ -5309,95 +5408,95 @@
       <c r="AK47" s="30"/>
     </row>
     <row r="48" spans="1:256" ht="19.5" customHeight="1">
-      <c r="A48" s="182" t="s">
+      <c r="A48" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="182"/>
-      <c r="J48" s="182"/>
-      <c r="K48" s="182"/>
-      <c r="L48" s="182"/>
-      <c r="M48" s="182"/>
-      <c r="N48" s="182"/>
-      <c r="O48" s="182"/>
-      <c r="P48" s="182"/>
-      <c r="R48" s="183" t="s">
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
+      <c r="R48" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="S48" s="184"/>
-      <c r="T48" s="184"/>
-      <c r="U48" s="184"/>
-      <c r="V48" s="184"/>
-      <c r="W48" s="184"/>
-      <c r="X48" s="184"/>
-      <c r="Y48" s="184"/>
-      <c r="Z48" s="184"/>
-      <c r="AA48" s="184"/>
-      <c r="AB48" s="184"/>
-      <c r="AC48" s="184"/>
-      <c r="AD48" s="184"/>
-      <c r="AE48" s="184"/>
-      <c r="AF48" s="184"/>
-      <c r="AG48" s="184"/>
-      <c r="AH48" s="184"/>
-      <c r="AI48" s="184"/>
-      <c r="AJ48" s="184"/>
-      <c r="AK48" s="185"/>
+      <c r="S48" s="132"/>
+      <c r="T48" s="132"/>
+      <c r="U48" s="132"/>
+      <c r="V48" s="132"/>
+      <c r="W48" s="132"/>
+      <c r="X48" s="132"/>
+      <c r="Y48" s="132"/>
+      <c r="Z48" s="132"/>
+      <c r="AA48" s="132"/>
+      <c r="AB48" s="132"/>
+      <c r="AC48" s="132"/>
+      <c r="AD48" s="132"/>
+      <c r="AE48" s="132"/>
+      <c r="AF48" s="132"/>
+      <c r="AG48" s="132"/>
+      <c r="AH48" s="132"/>
+      <c r="AI48" s="132"/>
+      <c r="AJ48" s="132"/>
+      <c r="AK48" s="133"/>
     </row>
     <row r="49" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A49" s="79"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="81"/>
-      <c r="R49" s="190" t="s">
+      <c r="A49" s="76"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="78"/>
+      <c r="R49" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="191"/>
-      <c r="T49" s="191"/>
-      <c r="U49" s="191"/>
-      <c r="V49" s="191"/>
-      <c r="W49" s="191"/>
-      <c r="X49" s="191"/>
-      <c r="Y49" s="191"/>
-      <c r="Z49" s="191"/>
-      <c r="AA49" s="191"/>
-      <c r="AB49" s="191"/>
-      <c r="AC49" s="191"/>
-      <c r="AD49" s="192"/>
-      <c r="AE49" s="190" t="s">
+      <c r="S49" s="135"/>
+      <c r="T49" s="135"/>
+      <c r="U49" s="135"/>
+      <c r="V49" s="135"/>
+      <c r="W49" s="135"/>
+      <c r="X49" s="135"/>
+      <c r="Y49" s="135"/>
+      <c r="Z49" s="135"/>
+      <c r="AA49" s="135"/>
+      <c r="AB49" s="135"/>
+      <c r="AC49" s="135"/>
+      <c r="AD49" s="136"/>
+      <c r="AE49" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="AF49" s="191"/>
-      <c r="AG49" s="191"/>
-      <c r="AH49" s="191"/>
-      <c r="AI49" s="192"/>
-      <c r="AJ49" s="190" t="s">
+      <c r="AF49" s="135"/>
+      <c r="AG49" s="135"/>
+      <c r="AH49" s="135"/>
+      <c r="AI49" s="136"/>
+      <c r="AJ49" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="AK49" s="192"/>
+      <c r="AK49" s="136"/>
     </row>
     <row r="50" spans="1:37" s="21" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A50" s="70"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="52"/>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="96" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="46"/>
@@ -5412,32 +5511,32 @@
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
-      <c r="P50" s="71"/>
-      <c r="R50" s="193"/>
-      <c r="S50" s="194"/>
-      <c r="T50" s="194"/>
-      <c r="U50" s="194"/>
-      <c r="V50" s="194"/>
-      <c r="W50" s="194"/>
-      <c r="X50" s="194"/>
-      <c r="Y50" s="194"/>
-      <c r="Z50" s="194"/>
-      <c r="AA50" s="194"/>
-      <c r="AB50" s="194"/>
-      <c r="AC50" s="194"/>
-      <c r="AD50" s="195"/>
-      <c r="AE50" s="193"/>
-      <c r="AF50" s="194"/>
-      <c r="AG50" s="194"/>
-      <c r="AH50" s="194"/>
-      <c r="AI50" s="195"/>
-      <c r="AJ50" s="193"/>
-      <c r="AK50" s="195"/>
+      <c r="P50" s="68"/>
+      <c r="R50" s="137"/>
+      <c r="S50" s="138"/>
+      <c r="T50" s="138"/>
+      <c r="U50" s="138"/>
+      <c r="V50" s="138"/>
+      <c r="W50" s="138"/>
+      <c r="X50" s="138"/>
+      <c r="Y50" s="138"/>
+      <c r="Z50" s="138"/>
+      <c r="AA50" s="138"/>
+      <c r="AB50" s="138"/>
+      <c r="AC50" s="138"/>
+      <c r="AD50" s="139"/>
+      <c r="AE50" s="137"/>
+      <c r="AF50" s="138"/>
+      <c r="AG50" s="138"/>
+      <c r="AH50" s="138"/>
+      <c r="AI50" s="139"/>
+      <c r="AJ50" s="137"/>
+      <c r="AK50" s="139"/>
     </row>
     <row r="51" spans="1:37" s="21" customFormat="1" ht="9" customHeight="1">
-      <c r="A51" s="70"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="60"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="46"/>
       <c r="E51" s="46"/>
       <c r="F51" s="46"/>
@@ -5450,32 +5549,32 @@
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
-      <c r="P51" s="71"/>
-      <c r="R51" s="196"/>
-      <c r="S51" s="197"/>
-      <c r="T51" s="197"/>
-      <c r="U51" s="197"/>
-      <c r="V51" s="197"/>
-      <c r="W51" s="197"/>
-      <c r="X51" s="197"/>
-      <c r="Y51" s="197"/>
-      <c r="Z51" s="197"/>
-      <c r="AA51" s="197"/>
-      <c r="AB51" s="197"/>
-      <c r="AC51" s="197"/>
-      <c r="AD51" s="198"/>
-      <c r="AE51" s="196"/>
-      <c r="AF51" s="197"/>
-      <c r="AG51" s="197"/>
-      <c r="AH51" s="197"/>
-      <c r="AI51" s="198"/>
-      <c r="AJ51" s="196"/>
-      <c r="AK51" s="198"/>
+      <c r="P51" s="68"/>
+      <c r="R51" s="140"/>
+      <c r="S51" s="141"/>
+      <c r="T51" s="141"/>
+      <c r="U51" s="141"/>
+      <c r="V51" s="141"/>
+      <c r="W51" s="141"/>
+      <c r="X51" s="141"/>
+      <c r="Y51" s="141"/>
+      <c r="Z51" s="141"/>
+      <c r="AA51" s="141"/>
+      <c r="AB51" s="141"/>
+      <c r="AC51" s="141"/>
+      <c r="AD51" s="142"/>
+      <c r="AE51" s="140"/>
+      <c r="AF51" s="141"/>
+      <c r="AG51" s="141"/>
+      <c r="AH51" s="141"/>
+      <c r="AI51" s="142"/>
+      <c r="AJ51" s="140"/>
+      <c r="AK51" s="142"/>
     </row>
     <row r="52" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A52" s="72"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="102" t="s">
+      <c r="A52" s="69"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="97" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="33"/>
@@ -5490,67 +5589,67 @@
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
-      <c r="P52" s="73"/>
+      <c r="P52" s="70"/>
       <c r="Q52" s="45"/>
-      <c r="R52" s="199"/>
-      <c r="S52" s="200"/>
-      <c r="T52" s="200"/>
-      <c r="U52" s="200"/>
-      <c r="V52" s="200"/>
-      <c r="W52" s="200"/>
-      <c r="X52" s="200"/>
-      <c r="Y52" s="200"/>
-      <c r="Z52" s="200"/>
-      <c r="AA52" s="200"/>
-      <c r="AB52" s="200"/>
-      <c r="AC52" s="200"/>
-      <c r="AD52" s="201"/>
-      <c r="AE52" s="199"/>
-      <c r="AF52" s="200"/>
-      <c r="AG52" s="200"/>
-      <c r="AH52" s="200"/>
-      <c r="AI52" s="201"/>
-      <c r="AJ52" s="199"/>
-      <c r="AK52" s="201"/>
+      <c r="R52" s="143"/>
+      <c r="S52" s="144"/>
+      <c r="T52" s="144"/>
+      <c r="U52" s="144"/>
+      <c r="V52" s="144"/>
+      <c r="W52" s="144"/>
+      <c r="X52" s="144"/>
+      <c r="Y52" s="144"/>
+      <c r="Z52" s="144"/>
+      <c r="AA52" s="144"/>
+      <c r="AB52" s="144"/>
+      <c r="AC52" s="144"/>
+      <c r="AD52" s="145"/>
+      <c r="AE52" s="143"/>
+      <c r="AF52" s="144"/>
+      <c r="AG52" s="144"/>
+      <c r="AH52" s="144"/>
+      <c r="AI52" s="145"/>
+      <c r="AJ52" s="143"/>
+      <c r="AK52" s="145"/>
     </row>
     <row r="53" spans="1:37" ht="6.75" customHeight="1">
-      <c r="A53" s="74"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="78"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="75"/>
       <c r="Q53" s="11"/>
-      <c r="R53" s="66"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="68"/>
-      <c r="AE53" s="66"/>
-      <c r="AF53" s="67"/>
-      <c r="AG53" s="67"/>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="68"/>
-      <c r="AJ53" s="66"/>
-      <c r="AK53" s="68"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="64"/>
+      <c r="Z53" s="64"/>
+      <c r="AA53" s="64"/>
+      <c r="AB53" s="64"/>
+      <c r="AC53" s="64"/>
+      <c r="AD53" s="65"/>
+      <c r="AE53" s="63"/>
+      <c r="AF53" s="64"/>
+      <c r="AG53" s="64"/>
+      <c r="AH53" s="64"/>
+      <c r="AI53" s="65"/>
+      <c r="AJ53" s="63"/>
+      <c r="AK53" s="65"/>
     </row>
     <row r="54" spans="1:37" ht="15.75" customHeight="1">
       <c r="A54" s="50" t="s">
@@ -5598,8 +5697,8 @@
     <row r="55" spans="1:37" ht="15.75" customHeight="1">
       <c r="A55" s="50"/>
       <c r="B55" s="50"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
       <c r="G55" s="36"/>
@@ -5638,245 +5737,19 @@
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
     </row>
+    <row r="60" spans="1:37" ht="19.5">
+      <c r="AH60" s="126"/>
+      <c r="AI60" s="127"/>
+      <c r="AJ60" s="127"/>
+    </row>
   </sheetData>
-  <mergeCells count="247">
-    <mergeCell ref="AA38:AE38"/>
-    <mergeCell ref="AA39:AE39"/>
-    <mergeCell ref="AA40:AE40"/>
-    <mergeCell ref="AA41:AE41"/>
-    <mergeCell ref="AA42:AE42"/>
-    <mergeCell ref="AA43:AE43"/>
-    <mergeCell ref="AA44:AE44"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="R49:AD50"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="AJ49:AK50"/>
-    <mergeCell ref="R51:AD52"/>
-    <mergeCell ref="AE51:AI52"/>
-    <mergeCell ref="AJ51:AK52"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="AJ45:AK45"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="R48:AK48"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="AJ44:AK44"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="O44:S44"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V44:Z44"/>
-    <mergeCell ref="AF45:AI45"/>
-    <mergeCell ref="AA45:AE45"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="V45:Z45"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="AF42:AI42"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="O35:S35"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="AJ38:AK38"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="O38:S38"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="V37:Z37"/>
-    <mergeCell ref="V38:Z38"/>
-    <mergeCell ref="AA35:AE35"/>
-    <mergeCell ref="AA36:AE36"/>
-    <mergeCell ref="AA37:AE37"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="O33:S33"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="AJ35:AK35"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="AA34:AE34"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="V31:Z31"/>
-    <mergeCell ref="V32:Z32"/>
-    <mergeCell ref="V29:Z29"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AA31:AE31"/>
-    <mergeCell ref="AA32:AE32"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="V28:Z28"/>
-    <mergeCell ref="AA27:AE27"/>
-    <mergeCell ref="AA28:AE28"/>
-    <mergeCell ref="A23:AK23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="AJ24:AK24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="AE22:AH22"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="W20:AC20"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AI20:AK20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="W19:AC19"/>
-    <mergeCell ref="AE19:AH19"/>
-    <mergeCell ref="AI19:AK19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:V18"/>
-    <mergeCell ref="W18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="A14:R16"/>
-    <mergeCell ref="S14:AI16"/>
+  <mergeCells count="268">
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="K10:AA10"/>
     <mergeCell ref="AD10:AK10"/>
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="K11:AA11"/>
     <mergeCell ref="AE11:AK11"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="S13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
     <mergeCell ref="J2:AE5"/>
     <mergeCell ref="AH2:AH4"/>
     <mergeCell ref="AI2:AK4"/>
@@ -5887,6 +5760,258 @@
     <mergeCell ref="AH8:AK8"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="S13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="A14:R16"/>
+    <mergeCell ref="S14:AI16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:V18"/>
+    <mergeCell ref="W18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="W19:AC19"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="AI19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:AC20"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="A23:AK23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="AG24:AI24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="Y32:AB32"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="AH60:AJ60"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="R48:AK48"/>
+    <mergeCell ref="R49:AD50"/>
+    <mergeCell ref="AE49:AI50"/>
+    <mergeCell ref="AJ49:AK50"/>
+    <mergeCell ref="R51:AD52"/>
+    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="AJ51:AK52"/>
+    <mergeCell ref="AJ44:AK44"/>
+    <mergeCell ref="AJ45:AK45"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AC45:AF45"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AG26:AI26"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AG28:AI28"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="AG32:AI32"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AG34:AI34"/>
+    <mergeCell ref="AG35:AI35"/>
+    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y43:AB43"/>
+    <mergeCell ref="Y44:AB44"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AG44:AI44"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="AG45:AI45"/>
+    <mergeCell ref="A45:X45"/>
+    <mergeCell ref="AG38:AI38"/>
+    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I44:N44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
+++ b/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\exceltrungtrang\ReadAndWriteFileExcel\TrungTrang\bin\Debug\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7667F29-DFE9-4C56-9669-BCE6130D0041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAEEAD-5DB1-4BD3-9187-0621060D87BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11655" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1221,40 +1221,310 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,277 +1536,7 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="7" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2553,8 +2553,8 @@
   </sheetPr>
   <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE59" sqref="AE59"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ44" sqref="AJ44:AK44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
@@ -2613,38 +2613,38 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-      <c r="J2" s="189" t="s">
+      <c r="J2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
-      <c r="AH2" s="190" t="s">
+      <c r="AH2" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="193"/>
-      <c r="AK2" s="194"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="123"/>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -2656,34 +2656,34 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="189"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="189"/>
-      <c r="AD3" s="189"/>
-      <c r="AE3" s="189"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
       <c r="AF3" s="34"/>
       <c r="AG3" s="34"/>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="195"/>
-      <c r="AJ3" s="195"/>
-      <c r="AK3" s="196"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="125"/>
     </row>
     <row r="4" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3"/>
@@ -2695,34 +2695,34 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="189"/>
-      <c r="S4" s="189"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="189"/>
-      <c r="V4" s="189"/>
-      <c r="W4" s="189"/>
-      <c r="X4" s="189"/>
-      <c r="Y4" s="189"/>
-      <c r="Z4" s="189"/>
-      <c r="AA4" s="189"/>
-      <c r="AB4" s="189"/>
-      <c r="AC4" s="189"/>
-      <c r="AD4" s="189"/>
-      <c r="AE4" s="189"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
       <c r="AF4" s="34"/>
       <c r="AG4" s="34"/>
-      <c r="AH4" s="192"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="197"/>
-      <c r="AK4" s="198"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="126"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="127"/>
     </row>
     <row r="5" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="4"/>
@@ -2734,28 +2734,28 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="189"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="189"/>
-      <c r="Q5" s="189"/>
-      <c r="R5" s="189"/>
-      <c r="S5" s="189"/>
-      <c r="T5" s="189"/>
-      <c r="U5" s="189"/>
-      <c r="V5" s="189"/>
-      <c r="W5" s="189"/>
-      <c r="X5" s="189"/>
-      <c r="Y5" s="189"/>
-      <c r="Z5" s="189"/>
-      <c r="AA5" s="189"/>
-      <c r="AB5" s="189"/>
-      <c r="AC5" s="189"/>
-      <c r="AD5" s="189"/>
-      <c r="AE5" s="189"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="118"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="118"/>
       <c r="AF5" s="34"/>
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
@@ -2777,14 +2777,14 @@
       <c r="K6" s="4"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="199"/>
-      <c r="Q6" s="199"/>
-      <c r="R6" s="199"/>
-      <c r="S6" s="199"/>
-      <c r="T6" s="199"/>
-      <c r="U6" s="199"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
@@ -2847,40 +2847,40 @@
       <c r="AD7" s="91"/>
       <c r="AE7" s="91"/>
       <c r="AF7" s="91"/>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="201"/>
-      <c r="AI7" s="201"/>
-      <c r="AJ7" s="201"/>
-      <c r="AK7" s="202"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="131"/>
     </row>
     <row r="8" spans="1:37" s="20" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="203"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="207"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="207"/>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="207"/>
-      <c r="S8" s="207"/>
-      <c r="T8" s="207"/>
-      <c r="U8" s="207"/>
-      <c r="V8" s="207"/>
-      <c r="W8" s="207"/>
-      <c r="X8" s="207"/>
-      <c r="Y8" s="207"/>
-      <c r="Z8" s="207"/>
-      <c r="AA8" s="208"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136"/>
+      <c r="AA8" s="137"/>
       <c r="AB8" s="90" t="s">
         <v>33</v>
       </c>
@@ -2889,10 +2889,10 @@
       <c r="AE8" s="93"/>
       <c r="AF8" s="93"/>
       <c r="AG8" s="93"/>
-      <c r="AH8" s="212"/>
-      <c r="AI8" s="212"/>
-      <c r="AJ8" s="212"/>
-      <c r="AK8" s="213"/>
+      <c r="AH8" s="141"/>
+      <c r="AI8" s="141"/>
+      <c r="AJ8" s="141"/>
+      <c r="AK8" s="142"/>
     </row>
     <row r="9" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="94" t="s">
@@ -2900,30 +2900,30 @@
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="101"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="210"/>
-      <c r="Q9" s="210"/>
-      <c r="R9" s="210"/>
-      <c r="S9" s="210"/>
-      <c r="T9" s="210"/>
-      <c r="U9" s="210"/>
-      <c r="V9" s="210"/>
-      <c r="W9" s="210"/>
-      <c r="X9" s="210"/>
-      <c r="Y9" s="210"/>
-      <c r="Z9" s="210"/>
-      <c r="AA9" s="211"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="140"/>
       <c r="AB9" s="90" t="s">
         <v>25</v>
       </c>
@@ -2932,102 +2932,102 @@
       <c r="AE9" s="93"/>
       <c r="AF9" s="93"/>
       <c r="AG9" s="93"/>
-      <c r="AH9" s="215"/>
-      <c r="AI9" s="215"/>
-      <c r="AJ9" s="215"/>
-      <c r="AK9" s="216"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="145"/>
     </row>
     <row r="10" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A10" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="91"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184" t="s">
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="184"/>
-      <c r="V10" s="184"/>
-      <c r="W10" s="184"/>
-      <c r="X10" s="184"/>
-      <c r="Y10" s="184"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
       <c r="AB10" s="90" t="s">
         <v>9</v>
       </c>
       <c r="AC10" s="91"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="185"/>
-      <c r="AF10" s="185"/>
-      <c r="AG10" s="185"/>
-      <c r="AH10" s="185"/>
-      <c r="AI10" s="185"/>
-      <c r="AJ10" s="185"/>
-      <c r="AK10" s="186"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="115"/>
     </row>
     <row r="11" spans="1:37" s="20" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="94" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="92"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184" t="s">
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="184" t="s">
+      <c r="L11" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="184"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="184"/>
-      <c r="S11" s="184"/>
-      <c r="T11" s="184"/>
-      <c r="U11" s="184"/>
-      <c r="V11" s="184"/>
-      <c r="W11" s="184"/>
-      <c r="X11" s="184"/>
-      <c r="Y11" s="184"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
       <c r="AB11" s="103" t="s">
         <v>5</v>
       </c>
       <c r="AC11" s="91"/>
       <c r="AD11" s="91"/>
-      <c r="AE11" s="187"/>
-      <c r="AF11" s="187"/>
-      <c r="AG11" s="187"/>
-      <c r="AH11" s="187"/>
-      <c r="AI11" s="187"/>
-      <c r="AJ11" s="187"/>
-      <c r="AK11" s="188"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="116"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="117"/>
     </row>
     <row r="12" spans="1:37" s="20" customFormat="1" ht="9.75" customHeight="1">
       <c r="A12" s="61"/>
@@ -3069,86 +3069,86 @@
       <c r="AK12" s="13"/>
     </row>
     <row r="13" spans="1:37" s="20" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="167"/>
-      <c r="S13" s="166" t="s">
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="166"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="167"/>
-      <c r="AJ13" s="168" t="s">
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="147"/>
+      <c r="AF13" s="147"/>
+      <c r="AG13" s="147"/>
+      <c r="AH13" s="147"/>
+      <c r="AI13" s="148"/>
+      <c r="AJ13" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="AK13" s="168"/>
+      <c r="AK13" s="149"/>
     </row>
     <row r="14" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="169"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="170"/>
-      <c r="V14" s="170"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="170"/>
-      <c r="Y14" s="170"/>
-      <c r="Z14" s="170"/>
-      <c r="AA14" s="170"/>
-      <c r="AB14" s="170"/>
-      <c r="AC14" s="170"/>
-      <c r="AD14" s="170"/>
-      <c r="AE14" s="170"/>
-      <c r="AF14" s="170"/>
-      <c r="AG14" s="170"/>
-      <c r="AH14" s="170"/>
-      <c r="AI14" s="171"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="151"/>
+      <c r="AE14" s="151"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="152"/>
       <c r="AJ14" s="54" t="s">
         <v>10</v>
       </c>
@@ -3157,41 +3157,41 @@
       </c>
     </row>
     <row r="15" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="172"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="174"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="154"/>
+      <c r="AB15" s="154"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
+      <c r="AE15" s="154"/>
+      <c r="AF15" s="154"/>
+      <c r="AG15" s="154"/>
+      <c r="AH15" s="154"/>
+      <c r="AI15" s="155"/>
       <c r="AJ15" s="55" t="s">
         <v>10</v>
       </c>
@@ -3200,41 +3200,41 @@
       </c>
     </row>
     <row r="16" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="175"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="176"/>
-      <c r="U16" s="176"/>
-      <c r="V16" s="176"/>
-      <c r="W16" s="176"/>
-      <c r="X16" s="176"/>
-      <c r="Y16" s="176"/>
-      <c r="Z16" s="176"/>
-      <c r="AA16" s="176"/>
-      <c r="AB16" s="176"/>
-      <c r="AC16" s="176"/>
-      <c r="AD16" s="176"/>
-      <c r="AE16" s="176"/>
-      <c r="AF16" s="176"/>
-      <c r="AG16" s="176"/>
-      <c r="AH16" s="176"/>
-      <c r="AI16" s="177"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="157"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="157"/>
+      <c r="X16" s="157"/>
+      <c r="Y16" s="157"/>
+      <c r="Z16" s="157"/>
+      <c r="AA16" s="157"/>
+      <c r="AB16" s="157"/>
+      <c r="AC16" s="157"/>
+      <c r="AD16" s="157"/>
+      <c r="AE16" s="157"/>
+      <c r="AF16" s="157"/>
+      <c r="AG16" s="157"/>
+      <c r="AH16" s="157"/>
+      <c r="AI16" s="158"/>
       <c r="AJ16" s="56" t="s">
         <v>10</v>
       </c>
@@ -3282,297 +3282,297 @@
       <c r="AK17" s="59"/>
     </row>
     <row r="18" spans="1:45" ht="22.5" customHeight="1">
-      <c r="A18" s="179"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="180"/>
-      <c r="R18" s="180"/>
-      <c r="S18" s="180"/>
-      <c r="T18" s="180"/>
-      <c r="U18" s="180"/>
-      <c r="V18" s="180"/>
-      <c r="W18" s="180"/>
-      <c r="X18" s="180"/>
-      <c r="Y18" s="180"/>
-      <c r="Z18" s="180"/>
-      <c r="AA18" s="180"/>
-      <c r="AB18" s="180"/>
-      <c r="AC18" s="180"/>
-      <c r="AD18" s="180"/>
-      <c r="AE18" s="180"/>
-      <c r="AF18" s="180"/>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="180"/>
-      <c r="AI18" s="180"/>
-      <c r="AJ18" s="180"/>
-      <c r="AK18" s="181"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="161"/>
+      <c r="AB18" s="161"/>
+      <c r="AC18" s="161"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="161"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="161"/>
+      <c r="AI18" s="161"/>
+      <c r="AJ18" s="161"/>
+      <c r="AK18" s="162"/>
     </row>
     <row r="19" spans="1:45" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="60"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
       <c r="I19" s="104"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="150"/>
-      <c r="X19" s="150"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="150"/>
-      <c r="AA19" s="150"/>
-      <c r="AB19" s="150"/>
-      <c r="AC19" s="150"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="165"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="164"/>
+      <c r="X19" s="164"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="164"/>
+      <c r="AB19" s="164"/>
+      <c r="AC19" s="164"/>
       <c r="AD19" s="104"/>
-      <c r="AE19" s="151"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="150"/>
-      <c r="AJ19" s="150"/>
-      <c r="AK19" s="152"/>
+      <c r="AE19" s="163"/>
+      <c r="AF19" s="163"/>
+      <c r="AG19" s="163"/>
+      <c r="AH19" s="163"/>
+      <c r="AI19" s="164"/>
+      <c r="AJ19" s="164"/>
+      <c r="AK19" s="166"/>
     </row>
     <row r="20" spans="1:45" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="60"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
       <c r="I20" s="104"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="150"/>
-      <c r="X20" s="150"/>
-      <c r="Y20" s="150"/>
-      <c r="Z20" s="150"/>
-      <c r="AA20" s="150"/>
-      <c r="AB20" s="150"/>
-      <c r="AC20" s="150"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="163"/>
+      <c r="S20" s="163"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="163"/>
+      <c r="V20" s="163"/>
+      <c r="W20" s="164"/>
+      <c r="X20" s="164"/>
+      <c r="Y20" s="164"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="164"/>
+      <c r="AB20" s="164"/>
+      <c r="AC20" s="164"/>
       <c r="AD20" s="104"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="150"/>
-      <c r="AJ20" s="150"/>
-      <c r="AK20" s="152"/>
+      <c r="AE20" s="163"/>
+      <c r="AF20" s="163"/>
+      <c r="AG20" s="163"/>
+      <c r="AH20" s="163"/>
+      <c r="AI20" s="164"/>
+      <c r="AJ20" s="164"/>
+      <c r="AK20" s="166"/>
     </row>
     <row r="21" spans="1:45" ht="21" customHeight="1">
       <c r="A21" s="60"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
       <c r="I21" s="104"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="150"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
-      <c r="W21" s="150"/>
-      <c r="X21" s="150"/>
-      <c r="Y21" s="150"/>
-      <c r="Z21" s="150"/>
-      <c r="AA21" s="150"/>
-      <c r="AB21" s="150"/>
-      <c r="AC21" s="150"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="163"/>
+      <c r="T21" s="163"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="164"/>
+      <c r="X21" s="164"/>
+      <c r="Y21" s="164"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="164"/>
+      <c r="AB21" s="164"/>
+      <c r="AC21" s="164"/>
       <c r="AD21" s="104"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="150"/>
-      <c r="AJ21" s="150"/>
-      <c r="AK21" s="152"/>
+      <c r="AE21" s="163"/>
+      <c r="AF21" s="163"/>
+      <c r="AG21" s="163"/>
+      <c r="AH21" s="163"/>
+      <c r="AI21" s="164"/>
+      <c r="AJ21" s="164"/>
+      <c r="AK21" s="166"/>
     </row>
     <row r="22" spans="1:45" ht="79.5" customHeight="1">
       <c r="A22" s="60"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
       <c r="I22" s="104"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="150"/>
-      <c r="X22" s="150"/>
-      <c r="Y22" s="150"/>
-      <c r="Z22" s="150"/>
-      <c r="AA22" s="150"/>
-      <c r="AB22" s="150"/>
-      <c r="AC22" s="150"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="163"/>
+      <c r="S22" s="163"/>
+      <c r="T22" s="163"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="163"/>
+      <c r="W22" s="164"/>
+      <c r="X22" s="164"/>
+      <c r="Y22" s="164"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="164"/>
+      <c r="AB22" s="164"/>
+      <c r="AC22" s="164"/>
       <c r="AD22" s="104"/>
-      <c r="AE22" s="151"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="150"/>
-      <c r="AJ22" s="150"/>
-      <c r="AK22" s="152"/>
+      <c r="AE22" s="163"/>
+      <c r="AF22" s="163"/>
+      <c r="AG22" s="163"/>
+      <c r="AH22" s="163"/>
+      <c r="AI22" s="164"/>
+      <c r="AJ22" s="164"/>
+      <c r="AK22" s="166"/>
     </row>
     <row r="23" spans="1:45" ht="21.75" customHeight="1">
-      <c r="A23" s="153"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="154"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="154"/>
-      <c r="AB23" s="154"/>
-      <c r="AC23" s="154"/>
-      <c r="AD23" s="154"/>
-      <c r="AE23" s="154"/>
-      <c r="AF23" s="154"/>
-      <c r="AG23" s="154"/>
-      <c r="AH23" s="154"/>
-      <c r="AI23" s="154"/>
-      <c r="AJ23" s="154"/>
-      <c r="AK23" s="155"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="174"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="174"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="174"/>
+      <c r="S23" s="174"/>
+      <c r="T23" s="174"/>
+      <c r="U23" s="174"/>
+      <c r="V23" s="174"/>
+      <c r="W23" s="174"/>
+      <c r="X23" s="174"/>
+      <c r="Y23" s="174"/>
+      <c r="Z23" s="174"/>
+      <c r="AA23" s="174"/>
+      <c r="AB23" s="174"/>
+      <c r="AC23" s="174"/>
+      <c r="AD23" s="174"/>
+      <c r="AE23" s="174"/>
+      <c r="AF23" s="174"/>
+      <c r="AG23" s="174"/>
+      <c r="AH23" s="174"/>
+      <c r="AI23" s="174"/>
+      <c r="AJ23" s="174"/>
+      <c r="AK23" s="175"/>
     </row>
     <row r="24" spans="1:45" ht="40.5" customHeight="1">
       <c r="A24" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="156" t="s">
+      <c r="B24" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="157" t="s">
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="160" t="s">
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="179"/>
+      <c r="O24" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="162"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="182"/>
       <c r="T24" s="106" t="s">
         <v>3</v>
       </c>
       <c r="U24" s="107"/>
-      <c r="V24" s="128" t="s">
+      <c r="V24" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="128" t="s">
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="128" t="s">
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="169"/>
+      <c r="AC24" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="148"/>
-      <c r="AG24" s="128" t="s">
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="183"/>
+      <c r="AF24" s="169"/>
+      <c r="AG24" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="148"/>
-      <c r="AJ24" s="128" t="s">
+      <c r="AH24" s="183"/>
+      <c r="AI24" s="169"/>
+      <c r="AJ24" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="AK24" s="148"/>
+      <c r="AK24" s="169"/>
       <c r="AM24" s="98"/>
       <c r="AN24" s="98"/>
       <c r="AO24" s="98"/>
@@ -3585,53 +3585,53 @@
       <c r="A25" s="108">
         <v>1</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
-      <c r="N25" s="149"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="121">
-        <f>ROUND(V25*O25,-2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="122">
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="171"/>
+      <c r="Q25" s="171"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="171"/>
+      <c r="T25" s="171"/>
+      <c r="U25" s="171"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="X25" s="187"/>
+      <c r="Y25" s="184">
+        <f>ROUND(V25*O25,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="184"/>
+      <c r="AA25" s="184"/>
+      <c r="AB25" s="184"/>
+      <c r="AC25" s="171">
         <f xml:space="preserve"> (O25*T25)</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="122"/>
-      <c r="AJ25" s="122">
-        <f>AC25-Y25*T25 + ROUND(AG25*(1-V25),-2)</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="146"/>
+      <c r="AD25" s="171"/>
+      <c r="AE25" s="171"/>
+      <c r="AF25" s="171"/>
+      <c r="AG25" s="171">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="171"/>
+      <c r="AI25" s="171"/>
+      <c r="AJ25" s="171">
+        <f>AC25-Y25*T25 + ROUND(AG25*(1-V25),-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="172"/>
       <c r="AM25" s="98"/>
       <c r="AN25" s="98"/>
       <c r="AO25" s="98"/>
@@ -3644,942 +3644,942 @@
       <c r="A26" s="109">
         <v>2</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="121">
-        <f t="shared" ref="Y26:Y44" si="0">ROUND(V26*O26,-2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="122">
+      <c r="B26" s="185"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="185"/>
+      <c r="M26" s="185"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="186"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="186"/>
+      <c r="U26" s="186"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="187"/>
+      <c r="X26" s="187"/>
+      <c r="Y26" s="184">
+        <f t="shared" ref="Y26:Y44" si="0">ROUND(V26*O26,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="184"/>
+      <c r="AA26" s="184"/>
+      <c r="AB26" s="184"/>
+      <c r="AC26" s="171">
         <f t="shared" ref="AC26:AC41" si="1" xml:space="preserve"> (O26*T26)</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="122"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="114"/>
-      <c r="AI26" s="115"/>
-      <c r="AJ26" s="122">
-        <f t="shared" ref="AJ26:AJ44" si="2">AC26-Y26*T26 + ROUND(AG26*(1-V26),-2)</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="146"/>
+      <c r="AD26" s="171"/>
+      <c r="AE26" s="171"/>
+      <c r="AF26" s="171"/>
+      <c r="AG26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="210"/>
+      <c r="AI26" s="211"/>
+      <c r="AJ26" s="171">
+        <f t="shared" ref="AJ26:AJ44" si="2">AC26-Y26*T26 + ROUND(AG26*(1-V26),-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="172"/>
     </row>
     <row r="27" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A27" s="109">
         <v>3</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="121">
+      <c r="B27" s="185"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="185"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="187"/>
+      <c r="X27" s="187"/>
+      <c r="Y27" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="122">
+      <c r="Z27" s="184"/>
+      <c r="AA27" s="184"/>
+      <c r="AB27" s="184"/>
+      <c r="AC27" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="122"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="114"/>
-      <c r="AI27" s="115"/>
-      <c r="AJ27" s="122">
+      <c r="AD27" s="171"/>
+      <c r="AE27" s="171"/>
+      <c r="AF27" s="171"/>
+      <c r="AG27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="210"/>
+      <c r="AI27" s="211"/>
+      <c r="AJ27" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="146"/>
+      <c r="AK27" s="172"/>
     </row>
     <row r="28" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A28" s="109">
         <v>4</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="121">
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="186"/>
+      <c r="S28" s="186"/>
+      <c r="T28" s="186"/>
+      <c r="U28" s="186"/>
+      <c r="V28" s="187"/>
+      <c r="W28" s="187"/>
+      <c r="X28" s="187"/>
+      <c r="Y28" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="122">
+      <c r="Z28" s="184"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="114"/>
-      <c r="AI28" s="115"/>
-      <c r="AJ28" s="122">
+      <c r="AD28" s="171"/>
+      <c r="AE28" s="171"/>
+      <c r="AF28" s="171"/>
+      <c r="AG28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="210"/>
+      <c r="AI28" s="211"/>
+      <c r="AJ28" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="146"/>
+      <c r="AK28" s="172"/>
     </row>
     <row r="29" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A29" s="109">
         <v>5</v>
       </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="121">
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="186"/>
+      <c r="S29" s="186"/>
+      <c r="T29" s="186"/>
+      <c r="U29" s="186"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="122">
+      <c r="Z29" s="184"/>
+      <c r="AA29" s="184"/>
+      <c r="AB29" s="184"/>
+      <c r="AC29" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="115"/>
-      <c r="AJ29" s="122">
+      <c r="AD29" s="171"/>
+      <c r="AE29" s="171"/>
+      <c r="AF29" s="171"/>
+      <c r="AG29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="210"/>
+      <c r="AI29" s="211"/>
+      <c r="AJ29" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="146"/>
+      <c r="AK29" s="172"/>
       <c r="AL29" s="102"/>
     </row>
     <row r="30" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A30" s="109">
         <v>6</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="121">
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="185"/>
+      <c r="M30" s="185"/>
+      <c r="N30" s="185"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="186"/>
+      <c r="U30" s="186"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="187"/>
+      <c r="X30" s="187"/>
+      <c r="Y30" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="122">
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="184"/>
+      <c r="AC30" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="114"/>
-      <c r="AI30" s="115"/>
-      <c r="AJ30" s="122">
+      <c r="AD30" s="171"/>
+      <c r="AE30" s="171"/>
+      <c r="AF30" s="171"/>
+      <c r="AG30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="210"/>
+      <c r="AI30" s="211"/>
+      <c r="AJ30" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="146"/>
+      <c r="AK30" s="172"/>
       <c r="AL30" s="102"/>
     </row>
     <row r="31" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A31" s="109">
         <v>7</v>
       </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
-      <c r="T31" s="119"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="121">
+      <c r="B31" s="185"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="185"/>
+      <c r="M31" s="185"/>
+      <c r="N31" s="185"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="186"/>
+      <c r="V31" s="187"/>
+      <c r="W31" s="187"/>
+      <c r="X31" s="187"/>
+      <c r="Y31" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="122">
+      <c r="Z31" s="184"/>
+      <c r="AA31" s="184"/>
+      <c r="AB31" s="184"/>
+      <c r="AC31" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="115"/>
-      <c r="AJ31" s="122">
+      <c r="AD31" s="171"/>
+      <c r="AE31" s="171"/>
+      <c r="AF31" s="171"/>
+      <c r="AG31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="210"/>
+      <c r="AI31" s="211"/>
+      <c r="AJ31" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="146"/>
+      <c r="AK31" s="172"/>
       <c r="AL31" s="102"/>
     </row>
     <row r="32" spans="1:45" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A32" s="109">
         <v>8</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="121">
+      <c r="B32" s="185"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="185"/>
+      <c r="N32" s="185"/>
+      <c r="O32" s="186"/>
+      <c r="P32" s="186"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="186"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="186"/>
+      <c r="U32" s="186"/>
+      <c r="V32" s="187"/>
+      <c r="W32" s="187"/>
+      <c r="X32" s="187"/>
+      <c r="Y32" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="122">
+      <c r="Z32" s="184"/>
+      <c r="AA32" s="184"/>
+      <c r="AB32" s="184"/>
+      <c r="AC32" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="114"/>
-      <c r="AI32" s="115"/>
-      <c r="AJ32" s="122">
+      <c r="AD32" s="171"/>
+      <c r="AE32" s="171"/>
+      <c r="AF32" s="171"/>
+      <c r="AG32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="210"/>
+      <c r="AI32" s="211"/>
+      <c r="AJ32" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="146"/>
+      <c r="AK32" s="172"/>
       <c r="AL32" s="102"/>
     </row>
     <row r="33" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A33" s="109">
         <v>9</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="121">
+      <c r="B33" s="185"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="185"/>
+      <c r="N33" s="185"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="186"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="186"/>
+      <c r="U33" s="186"/>
+      <c r="V33" s="187"/>
+      <c r="W33" s="187"/>
+      <c r="X33" s="187"/>
+      <c r="Y33" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="122">
+      <c r="Z33" s="184"/>
+      <c r="AA33" s="184"/>
+      <c r="AB33" s="184"/>
+      <c r="AC33" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD33" s="122"/>
-      <c r="AE33" s="122"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="114"/>
-      <c r="AI33" s="115"/>
-      <c r="AJ33" s="122">
+      <c r="AD33" s="171"/>
+      <c r="AE33" s="171"/>
+      <c r="AF33" s="171"/>
+      <c r="AG33" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="210"/>
+      <c r="AI33" s="211"/>
+      <c r="AJ33" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="146"/>
+      <c r="AK33" s="172"/>
       <c r="AL33" s="102"/>
     </row>
     <row r="34" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A34" s="109">
         <v>10</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="119"/>
-      <c r="T34" s="119"/>
-      <c r="U34" s="119"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="121">
+      <c r="B34" s="185"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="185"/>
+      <c r="L34" s="185"/>
+      <c r="M34" s="185"/>
+      <c r="N34" s="185"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="186"/>
+      <c r="S34" s="186"/>
+      <c r="T34" s="186"/>
+      <c r="U34" s="186"/>
+      <c r="V34" s="187"/>
+      <c r="W34" s="187"/>
+      <c r="X34" s="187"/>
+      <c r="Y34" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
-      <c r="AC34" s="122">
+      <c r="Z34" s="184"/>
+      <c r="AA34" s="184"/>
+      <c r="AB34" s="184"/>
+      <c r="AC34" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD34" s="122"/>
-      <c r="AE34" s="122"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="114"/>
-      <c r="AI34" s="115"/>
-      <c r="AJ34" s="122">
+      <c r="AD34" s="171"/>
+      <c r="AE34" s="171"/>
+      <c r="AF34" s="171"/>
+      <c r="AG34" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="210"/>
+      <c r="AI34" s="211"/>
+      <c r="AJ34" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="146"/>
+      <c r="AK34" s="172"/>
     </row>
     <row r="35" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A35" s="109">
         <v>11</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="119"/>
-      <c r="T35" s="119"/>
-      <c r="U35" s="119"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
-      <c r="Y35" s="121">
+      <c r="B35" s="185"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="185"/>
+      <c r="N35" s="185"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="186"/>
+      <c r="S35" s="186"/>
+      <c r="T35" s="186"/>
+      <c r="U35" s="186"/>
+      <c r="V35" s="187"/>
+      <c r="W35" s="187"/>
+      <c r="X35" s="187"/>
+      <c r="Y35" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="121"/>
-      <c r="AB35" s="121"/>
-      <c r="AC35" s="122">
+      <c r="Z35" s="184"/>
+      <c r="AA35" s="184"/>
+      <c r="AB35" s="184"/>
+      <c r="AC35" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="122"/>
-      <c r="AF35" s="122"/>
-      <c r="AG35" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="114"/>
-      <c r="AI35" s="115"/>
-      <c r="AJ35" s="122">
+      <c r="AD35" s="171"/>
+      <c r="AE35" s="171"/>
+      <c r="AF35" s="171"/>
+      <c r="AG35" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="210"/>
+      <c r="AI35" s="211"/>
+      <c r="AJ35" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="146"/>
+      <c r="AK35" s="172"/>
     </row>
     <row r="36" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A36" s="109">
         <v>12</v>
       </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="119"/>
-      <c r="S36" s="119"/>
-      <c r="T36" s="119"/>
-      <c r="U36" s="119"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="121">
+      <c r="B36" s="185"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="185"/>
+      <c r="K36" s="185"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="185"/>
+      <c r="N36" s="185"/>
+      <c r="O36" s="186"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="186"/>
+      <c r="S36" s="186"/>
+      <c r="T36" s="186"/>
+      <c r="U36" s="186"/>
+      <c r="V36" s="187"/>
+      <c r="W36" s="187"/>
+      <c r="X36" s="187"/>
+      <c r="Y36" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="121"/>
-      <c r="AA36" s="121"/>
-      <c r="AB36" s="121"/>
-      <c r="AC36" s="122">
+      <c r="Z36" s="184"/>
+      <c r="AA36" s="184"/>
+      <c r="AB36" s="184"/>
+      <c r="AC36" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD36" s="122"/>
-      <c r="AE36" s="122"/>
-      <c r="AF36" s="122"/>
-      <c r="AG36" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="114"/>
-      <c r="AI36" s="115"/>
-      <c r="AJ36" s="122">
+      <c r="AD36" s="171"/>
+      <c r="AE36" s="171"/>
+      <c r="AF36" s="171"/>
+      <c r="AG36" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="210"/>
+      <c r="AI36" s="211"/>
+      <c r="AJ36" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="146"/>
+      <c r="AK36" s="172"/>
     </row>
     <row r="37" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A37" s="109">
         <v>13</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="119"/>
-      <c r="S37" s="119"/>
-      <c r="T37" s="119"/>
-      <c r="U37" s="119"/>
-      <c r="V37" s="120"/>
-      <c r="W37" s="120"/>
-      <c r="X37" s="120"/>
-      <c r="Y37" s="121">
+      <c r="B37" s="185"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="185"/>
+      <c r="K37" s="185"/>
+      <c r="L37" s="185"/>
+      <c r="M37" s="185"/>
+      <c r="N37" s="185"/>
+      <c r="O37" s="186"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
+      <c r="S37" s="186"/>
+      <c r="T37" s="186"/>
+      <c r="U37" s="186"/>
+      <c r="V37" s="187"/>
+      <c r="W37" s="187"/>
+      <c r="X37" s="187"/>
+      <c r="Y37" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="121"/>
-      <c r="AA37" s="121"/>
-      <c r="AB37" s="121"/>
-      <c r="AC37" s="122">
+      <c r="Z37" s="184"/>
+      <c r="AA37" s="184"/>
+      <c r="AB37" s="184"/>
+      <c r="AC37" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD37" s="122"/>
-      <c r="AE37" s="122"/>
-      <c r="AF37" s="122"/>
-      <c r="AG37" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="114"/>
-      <c r="AI37" s="115"/>
-      <c r="AJ37" s="122">
+      <c r="AD37" s="171"/>
+      <c r="AE37" s="171"/>
+      <c r="AF37" s="171"/>
+      <c r="AG37" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="210"/>
+      <c r="AI37" s="211"/>
+      <c r="AJ37" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="146"/>
+      <c r="AK37" s="172"/>
     </row>
     <row r="38" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A38" s="109">
         <v>14</v>
       </c>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="119"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="119"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="120"/>
-      <c r="X38" s="120"/>
-      <c r="Y38" s="121">
+      <c r="B38" s="185"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="185"/>
+      <c r="L38" s="185"/>
+      <c r="M38" s="185"/>
+      <c r="N38" s="185"/>
+      <c r="O38" s="186"/>
+      <c r="P38" s="186"/>
+      <c r="Q38" s="186"/>
+      <c r="R38" s="186"/>
+      <c r="S38" s="186"/>
+      <c r="T38" s="186"/>
+      <c r="U38" s="186"/>
+      <c r="V38" s="187"/>
+      <c r="W38" s="187"/>
+      <c r="X38" s="187"/>
+      <c r="Y38" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="121"/>
-      <c r="AA38" s="121"/>
-      <c r="AB38" s="121"/>
-      <c r="AC38" s="122">
+      <c r="Z38" s="184"/>
+      <c r="AA38" s="184"/>
+      <c r="AB38" s="184"/>
+      <c r="AC38" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="122"/>
-      <c r="AE38" s="122"/>
-      <c r="AF38" s="122"/>
-      <c r="AG38" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="114"/>
-      <c r="AI38" s="115"/>
-      <c r="AJ38" s="122">
+      <c r="AD38" s="171"/>
+      <c r="AE38" s="171"/>
+      <c r="AF38" s="171"/>
+      <c r="AG38" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="210"/>
+      <c r="AI38" s="211"/>
+      <c r="AJ38" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="146"/>
+      <c r="AK38" s="172"/>
     </row>
     <row r="39" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A39" s="109">
         <v>15</v>
       </c>
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="119"/>
-      <c r="S39" s="119"/>
-      <c r="T39" s="119"/>
-      <c r="U39" s="119"/>
-      <c r="V39" s="120"/>
-      <c r="W39" s="120"/>
-      <c r="X39" s="120"/>
-      <c r="Y39" s="121">
+      <c r="B39" s="185"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="185"/>
+      <c r="K39" s="185"/>
+      <c r="L39" s="185"/>
+      <c r="M39" s="185"/>
+      <c r="N39" s="185"/>
+      <c r="O39" s="186"/>
+      <c r="P39" s="186"/>
+      <c r="Q39" s="186"/>
+      <c r="R39" s="186"/>
+      <c r="S39" s="186"/>
+      <c r="T39" s="186"/>
+      <c r="U39" s="186"/>
+      <c r="V39" s="187"/>
+      <c r="W39" s="187"/>
+      <c r="X39" s="187"/>
+      <c r="Y39" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="121"/>
-      <c r="AA39" s="121"/>
-      <c r="AB39" s="121"/>
-      <c r="AC39" s="122">
+      <c r="Z39" s="184"/>
+      <c r="AA39" s="184"/>
+      <c r="AB39" s="184"/>
+      <c r="AC39" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="122"/>
-      <c r="AE39" s="122"/>
-      <c r="AF39" s="122"/>
-      <c r="AG39" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="114"/>
-      <c r="AI39" s="115"/>
-      <c r="AJ39" s="122">
+      <c r="AD39" s="171"/>
+      <c r="AE39" s="171"/>
+      <c r="AF39" s="171"/>
+      <c r="AG39" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="210"/>
+      <c r="AI39" s="211"/>
+      <c r="AJ39" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="146"/>
+      <c r="AK39" s="172"/>
     </row>
     <row r="40" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A40" s="109">
         <v>16</v>
       </c>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119"/>
-      <c r="S40" s="119"/>
-      <c r="T40" s="119"/>
-      <c r="U40" s="119"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="121">
+      <c r="B40" s="185"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="185"/>
+      <c r="K40" s="185"/>
+      <c r="L40" s="185"/>
+      <c r="M40" s="185"/>
+      <c r="N40" s="185"/>
+      <c r="O40" s="186"/>
+      <c r="P40" s="186"/>
+      <c r="Q40" s="186"/>
+      <c r="R40" s="186"/>
+      <c r="S40" s="186"/>
+      <c r="T40" s="186"/>
+      <c r="U40" s="186"/>
+      <c r="V40" s="187"/>
+      <c r="W40" s="187"/>
+      <c r="X40" s="187"/>
+      <c r="Y40" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="121"/>
-      <c r="AA40" s="121"/>
-      <c r="AB40" s="121"/>
-      <c r="AC40" s="122">
+      <c r="Z40" s="184"/>
+      <c r="AA40" s="184"/>
+      <c r="AB40" s="184"/>
+      <c r="AC40" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="122"/>
-      <c r="AE40" s="122"/>
-      <c r="AF40" s="122"/>
-      <c r="AG40" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="114"/>
-      <c r="AI40" s="115"/>
-      <c r="AJ40" s="122">
+      <c r="AD40" s="171"/>
+      <c r="AE40" s="171"/>
+      <c r="AF40" s="171"/>
+      <c r="AG40" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="210"/>
+      <c r="AI40" s="211"/>
+      <c r="AJ40" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="146"/>
+      <c r="AK40" s="172"/>
     </row>
     <row r="41" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A41" s="109">
         <v>17</v>
       </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="119"/>
-      <c r="S41" s="119"/>
-      <c r="T41" s="119"/>
-      <c r="U41" s="119"/>
-      <c r="V41" s="120"/>
-      <c r="W41" s="120"/>
-      <c r="X41" s="120"/>
-      <c r="Y41" s="121">
+      <c r="B41" s="185"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="185"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="185"/>
+      <c r="K41" s="185"/>
+      <c r="L41" s="185"/>
+      <c r="M41" s="185"/>
+      <c r="N41" s="185"/>
+      <c r="O41" s="186"/>
+      <c r="P41" s="186"/>
+      <c r="Q41" s="186"/>
+      <c r="R41" s="186"/>
+      <c r="S41" s="186"/>
+      <c r="T41" s="186"/>
+      <c r="U41" s="186"/>
+      <c r="V41" s="187"/>
+      <c r="W41" s="187"/>
+      <c r="X41" s="187"/>
+      <c r="Y41" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="121"/>
-      <c r="AA41" s="121"/>
-      <c r="AB41" s="121"/>
-      <c r="AC41" s="122">
+      <c r="Z41" s="184"/>
+      <c r="AA41" s="184"/>
+      <c r="AB41" s="184"/>
+      <c r="AC41" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="122"/>
-      <c r="AE41" s="122"/>
-      <c r="AF41" s="122"/>
-      <c r="AG41" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="114"/>
-      <c r="AI41" s="115"/>
-      <c r="AJ41" s="122">
+      <c r="AD41" s="171"/>
+      <c r="AE41" s="171"/>
+      <c r="AF41" s="171"/>
+      <c r="AG41" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="210"/>
+      <c r="AI41" s="211"/>
+      <c r="AJ41" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="146"/>
+      <c r="AK41" s="172"/>
     </row>
     <row r="42" spans="1:256" s="36" customFormat="1" ht="27.75" customHeight="1">
       <c r="A42" s="109">
         <v>18</v>
       </c>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="119"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="119"/>
-      <c r="S42" s="119"/>
-      <c r="T42" s="119"/>
-      <c r="U42" s="119"/>
-      <c r="V42" s="120"/>
-      <c r="W42" s="120"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="121">
+      <c r="B42" s="185"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="185"/>
+      <c r="L42" s="185"/>
+      <c r="M42" s="185"/>
+      <c r="N42" s="185"/>
+      <c r="O42" s="186"/>
+      <c r="P42" s="186"/>
+      <c r="Q42" s="186"/>
+      <c r="R42" s="186"/>
+      <c r="S42" s="186"/>
+      <c r="T42" s="186"/>
+      <c r="U42" s="186"/>
+      <c r="V42" s="187"/>
+      <c r="W42" s="187"/>
+      <c r="X42" s="187"/>
+      <c r="Y42" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="121"/>
-      <c r="AA42" s="121"/>
-      <c r="AB42" s="121"/>
-      <c r="AC42" s="122">
+      <c r="Z42" s="184"/>
+      <c r="AA42" s="184"/>
+      <c r="AB42" s="184"/>
+      <c r="AC42" s="171">
         <f xml:space="preserve"> (O42*T42)</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="122"/>
-      <c r="AE42" s="122"/>
-      <c r="AF42" s="122"/>
-      <c r="AG42" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="114"/>
-      <c r="AI42" s="115"/>
-      <c r="AJ42" s="122">
+      <c r="AD42" s="171"/>
+      <c r="AE42" s="171"/>
+      <c r="AF42" s="171"/>
+      <c r="AG42" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="210"/>
+      <c r="AI42" s="211"/>
+      <c r="AJ42" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="146"/>
+      <c r="AK42" s="172"/>
     </row>
     <row r="43" spans="1:256" s="40" customFormat="1" ht="27.75" customHeight="1">
       <c r="A43" s="109">
         <v>19</v>
       </c>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="119"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="119"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="120"/>
-      <c r="Y43" s="121">
+      <c r="B43" s="185"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="185"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="185"/>
+      <c r="K43" s="185"/>
+      <c r="L43" s="185"/>
+      <c r="M43" s="185"/>
+      <c r="N43" s="185"/>
+      <c r="O43" s="186"/>
+      <c r="P43" s="186"/>
+      <c r="Q43" s="186"/>
+      <c r="R43" s="186"/>
+      <c r="S43" s="186"/>
+      <c r="T43" s="186"/>
+      <c r="U43" s="186"/>
+      <c r="V43" s="187"/>
+      <c r="W43" s="187"/>
+      <c r="X43" s="187"/>
+      <c r="Y43" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="121"/>
-      <c r="AB43" s="121"/>
-      <c r="AC43" s="122">
+      <c r="Z43" s="184"/>
+      <c r="AA43" s="184"/>
+      <c r="AB43" s="184"/>
+      <c r="AC43" s="171">
         <f t="shared" ref="AC43:AC44" si="3" xml:space="preserve"> (O43*T43)</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="122"/>
-      <c r="AF43" s="122"/>
-      <c r="AG43" s="113">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="114"/>
-      <c r="AI43" s="115"/>
-      <c r="AJ43" s="122">
+      <c r="AD43" s="171"/>
+      <c r="AE43" s="171"/>
+      <c r="AF43" s="171"/>
+      <c r="AG43" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="210"/>
+      <c r="AI43" s="211"/>
+      <c r="AJ43" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK43" s="146"/>
+      <c r="AK43" s="172"/>
       <c r="AL43" s="9"/>
       <c r="AM43" s="9"/>
       <c r="AN43" s="9"/>
@@ -4804,53 +4804,53 @@
       <c r="A44" s="110">
         <v>20</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="116"/>
-      <c r="V44" s="120"/>
-      <c r="W44" s="120"/>
-      <c r="X44" s="120"/>
-      <c r="Y44" s="121">
+      <c r="B44" s="208"/>
+      <c r="C44" s="208"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="208"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="208"/>
+      <c r="K44" s="208"/>
+      <c r="L44" s="208"/>
+      <c r="M44" s="208"/>
+      <c r="N44" s="208"/>
+      <c r="O44" s="212"/>
+      <c r="P44" s="212"/>
+      <c r="Q44" s="212"/>
+      <c r="R44" s="212"/>
+      <c r="S44" s="212"/>
+      <c r="T44" s="212"/>
+      <c r="U44" s="212"/>
+      <c r="V44" s="187"/>
+      <c r="W44" s="187"/>
+      <c r="X44" s="187"/>
+      <c r="Y44" s="184">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z44" s="121"/>
-      <c r="AA44" s="121"/>
-      <c r="AB44" s="121"/>
-      <c r="AC44" s="122">
+      <c r="Z44" s="184"/>
+      <c r="AA44" s="184"/>
+      <c r="AB44" s="184"/>
+      <c r="AC44" s="171">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD44" s="122"/>
-      <c r="AE44" s="122"/>
-      <c r="AF44" s="122"/>
-      <c r="AG44" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="124"/>
-      <c r="AI44" s="125"/>
-      <c r="AJ44" s="122">
+      <c r="AD44" s="171"/>
+      <c r="AE44" s="171"/>
+      <c r="AF44" s="171"/>
+      <c r="AG44" s="213">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="214"/>
+      <c r="AI44" s="215"/>
+      <c r="AJ44" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK44" s="146"/>
+      <c r="AK44" s="172"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9"/>
       <c r="AN44" s="9"/>
@@ -5072,54 +5072,54 @@
       <c r="IV44" s="9"/>
     </row>
     <row r="45" spans="1:256" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="112"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="112"/>
-      <c r="S45" s="112"/>
-      <c r="T45" s="112"/>
-      <c r="U45" s="112"/>
-      <c r="V45" s="112"/>
-      <c r="W45" s="112"/>
-      <c r="X45" s="112"/>
-      <c r="Y45" s="147"/>
-      <c r="Z45" s="147"/>
-      <c r="AA45" s="147"/>
-      <c r="AB45" s="147"/>
-      <c r="AC45" s="111">
+      <c r="B45" s="216"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="216"/>
+      <c r="L45" s="216"/>
+      <c r="M45" s="216"/>
+      <c r="N45" s="216"/>
+      <c r="O45" s="216"/>
+      <c r="P45" s="216"/>
+      <c r="Q45" s="216"/>
+      <c r="R45" s="216"/>
+      <c r="S45" s="216"/>
+      <c r="T45" s="216"/>
+      <c r="U45" s="216"/>
+      <c r="V45" s="216"/>
+      <c r="W45" s="216"/>
+      <c r="X45" s="216"/>
+      <c r="Y45" s="207"/>
+      <c r="Z45" s="207"/>
+      <c r="AA45" s="207"/>
+      <c r="AB45" s="207"/>
+      <c r="AC45" s="206">
         <f>SUMPRODUCT( (AC25:AF44)  - (Y25:AB44)* (T25:T44))</f>
         <v>0</v>
       </c>
-      <c r="AD45" s="111"/>
-      <c r="AE45" s="111"/>
-      <c r="AF45" s="111"/>
-      <c r="AG45" s="111">
-        <f>SUMPRODUCT( ROUND( (AG25:AI44) * (1- V25:V44),-2))</f>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="111"/>
-      <c r="AI45" s="111"/>
-      <c r="AJ45" s="111">
+      <c r="AD45" s="206"/>
+      <c r="AE45" s="206"/>
+      <c r="AF45" s="206"/>
+      <c r="AG45" s="206">
+        <f>SUMPRODUCT( ROUND( (AG25:AI44) * (1- V25:V44),-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="206"/>
+      <c r="AI45" s="206"/>
+      <c r="AJ45" s="206">
         <f>SUMPRODUCT((AJ25:AK44))</f>
         <v>0</v>
       </c>
-      <c r="AK45" s="111"/>
+      <c r="AK45" s="206"/>
       <c r="AL45" s="31"/>
       <c r="AM45" s="31"/>
       <c r="AN45" s="31"/>
@@ -5408,46 +5408,46 @@
       <c r="AK47" s="30"/>
     </row>
     <row r="48" spans="1:256" ht="19.5" customHeight="1">
-      <c r="A48" s="130" t="s">
+      <c r="A48" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
-      <c r="R48" s="131" t="s">
+      <c r="B48" s="190"/>
+      <c r="C48" s="190"/>
+      <c r="D48" s="190"/>
+      <c r="E48" s="190"/>
+      <c r="F48" s="190"/>
+      <c r="G48" s="190"/>
+      <c r="H48" s="190"/>
+      <c r="I48" s="190"/>
+      <c r="J48" s="190"/>
+      <c r="K48" s="190"/>
+      <c r="L48" s="190"/>
+      <c r="M48" s="190"/>
+      <c r="N48" s="190"/>
+      <c r="O48" s="190"/>
+      <c r="P48" s="190"/>
+      <c r="R48" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="S48" s="132"/>
-      <c r="T48" s="132"/>
-      <c r="U48" s="132"/>
-      <c r="V48" s="132"/>
-      <c r="W48" s="132"/>
-      <c r="X48" s="132"/>
-      <c r="Y48" s="132"/>
-      <c r="Z48" s="132"/>
-      <c r="AA48" s="132"/>
-      <c r="AB48" s="132"/>
-      <c r="AC48" s="132"/>
-      <c r="AD48" s="132"/>
-      <c r="AE48" s="132"/>
-      <c r="AF48" s="132"/>
-      <c r="AG48" s="132"/>
-      <c r="AH48" s="132"/>
-      <c r="AI48" s="132"/>
-      <c r="AJ48" s="132"/>
-      <c r="AK48" s="133"/>
+      <c r="S48" s="192"/>
+      <c r="T48" s="192"/>
+      <c r="U48" s="192"/>
+      <c r="V48" s="192"/>
+      <c r="W48" s="192"/>
+      <c r="X48" s="192"/>
+      <c r="Y48" s="192"/>
+      <c r="Z48" s="192"/>
+      <c r="AA48" s="192"/>
+      <c r="AB48" s="192"/>
+      <c r="AC48" s="192"/>
+      <c r="AD48" s="192"/>
+      <c r="AE48" s="192"/>
+      <c r="AF48" s="192"/>
+      <c r="AG48" s="192"/>
+      <c r="AH48" s="192"/>
+      <c r="AI48" s="192"/>
+      <c r="AJ48" s="192"/>
+      <c r="AK48" s="193"/>
     </row>
     <row r="49" spans="1:37" ht="11.25" customHeight="1">
       <c r="A49" s="76"/>
@@ -5466,32 +5466,32 @@
       <c r="N49" s="77"/>
       <c r="O49" s="77"/>
       <c r="P49" s="78"/>
-      <c r="R49" s="134" t="s">
+      <c r="R49" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="135"/>
-      <c r="T49" s="135"/>
-      <c r="U49" s="135"/>
-      <c r="V49" s="135"/>
-      <c r="W49" s="135"/>
-      <c r="X49" s="135"/>
-      <c r="Y49" s="135"/>
-      <c r="Z49" s="135"/>
-      <c r="AA49" s="135"/>
-      <c r="AB49" s="135"/>
-      <c r="AC49" s="135"/>
-      <c r="AD49" s="136"/>
-      <c r="AE49" s="134" t="s">
+      <c r="S49" s="195"/>
+      <c r="T49" s="195"/>
+      <c r="U49" s="195"/>
+      <c r="V49" s="195"/>
+      <c r="W49" s="195"/>
+      <c r="X49" s="195"/>
+      <c r="Y49" s="195"/>
+      <c r="Z49" s="195"/>
+      <c r="AA49" s="195"/>
+      <c r="AB49" s="195"/>
+      <c r="AC49" s="195"/>
+      <c r="AD49" s="196"/>
+      <c r="AE49" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="AF49" s="135"/>
-      <c r="AG49" s="135"/>
-      <c r="AH49" s="135"/>
-      <c r="AI49" s="136"/>
-      <c r="AJ49" s="134" t="s">
+      <c r="AF49" s="195"/>
+      <c r="AG49" s="195"/>
+      <c r="AH49" s="195"/>
+      <c r="AI49" s="196"/>
+      <c r="AJ49" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="AK49" s="136"/>
+      <c r="AK49" s="196"/>
     </row>
     <row r="50" spans="1:37" s="21" customFormat="1" ht="19.5" customHeight="1">
       <c r="A50" s="67"/>
@@ -5512,26 +5512,26 @@
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
       <c r="P50" s="68"/>
-      <c r="R50" s="137"/>
-      <c r="S50" s="138"/>
-      <c r="T50" s="138"/>
-      <c r="U50" s="138"/>
-      <c r="V50" s="138"/>
-      <c r="W50" s="138"/>
-      <c r="X50" s="138"/>
-      <c r="Y50" s="138"/>
-      <c r="Z50" s="138"/>
-      <c r="AA50" s="138"/>
-      <c r="AB50" s="138"/>
-      <c r="AC50" s="138"/>
-      <c r="AD50" s="139"/>
-      <c r="AE50" s="137"/>
-      <c r="AF50" s="138"/>
-      <c r="AG50" s="138"/>
-      <c r="AH50" s="138"/>
-      <c r="AI50" s="139"/>
-      <c r="AJ50" s="137"/>
-      <c r="AK50" s="139"/>
+      <c r="R50" s="197"/>
+      <c r="S50" s="198"/>
+      <c r="T50" s="198"/>
+      <c r="U50" s="198"/>
+      <c r="V50" s="198"/>
+      <c r="W50" s="198"/>
+      <c r="X50" s="198"/>
+      <c r="Y50" s="198"/>
+      <c r="Z50" s="198"/>
+      <c r="AA50" s="198"/>
+      <c r="AB50" s="198"/>
+      <c r="AC50" s="198"/>
+      <c r="AD50" s="199"/>
+      <c r="AE50" s="197"/>
+      <c r="AF50" s="198"/>
+      <c r="AG50" s="198"/>
+      <c r="AH50" s="198"/>
+      <c r="AI50" s="199"/>
+      <c r="AJ50" s="197"/>
+      <c r="AK50" s="199"/>
     </row>
     <row r="51" spans="1:37" s="21" customFormat="1" ht="9" customHeight="1">
       <c r="A51" s="67"/>
@@ -5550,26 +5550,26 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
       <c r="P51" s="68"/>
-      <c r="R51" s="140"/>
-      <c r="S51" s="141"/>
-      <c r="T51" s="141"/>
-      <c r="U51" s="141"/>
-      <c r="V51" s="141"/>
-      <c r="W51" s="141"/>
-      <c r="X51" s="141"/>
-      <c r="Y51" s="141"/>
-      <c r="Z51" s="141"/>
-      <c r="AA51" s="141"/>
-      <c r="AB51" s="141"/>
-      <c r="AC51" s="141"/>
-      <c r="AD51" s="142"/>
-      <c r="AE51" s="140"/>
-      <c r="AF51" s="141"/>
-      <c r="AG51" s="141"/>
-      <c r="AH51" s="141"/>
-      <c r="AI51" s="142"/>
-      <c r="AJ51" s="140"/>
-      <c r="AK51" s="142"/>
+      <c r="R51" s="200"/>
+      <c r="S51" s="201"/>
+      <c r="T51" s="201"/>
+      <c r="U51" s="201"/>
+      <c r="V51" s="201"/>
+      <c r="W51" s="201"/>
+      <c r="X51" s="201"/>
+      <c r="Y51" s="201"/>
+      <c r="Z51" s="201"/>
+      <c r="AA51" s="201"/>
+      <c r="AB51" s="201"/>
+      <c r="AC51" s="201"/>
+      <c r="AD51" s="202"/>
+      <c r="AE51" s="200"/>
+      <c r="AF51" s="201"/>
+      <c r="AG51" s="201"/>
+      <c r="AH51" s="201"/>
+      <c r="AI51" s="202"/>
+      <c r="AJ51" s="200"/>
+      <c r="AK51" s="202"/>
     </row>
     <row r="52" spans="1:37" ht="19.5" customHeight="1">
       <c r="A52" s="69"/>
@@ -5591,26 +5591,26 @@
       <c r="O52" s="23"/>
       <c r="P52" s="70"/>
       <c r="Q52" s="45"/>
-      <c r="R52" s="143"/>
-      <c r="S52" s="144"/>
-      <c r="T52" s="144"/>
-      <c r="U52" s="144"/>
-      <c r="V52" s="144"/>
-      <c r="W52" s="144"/>
-      <c r="X52" s="144"/>
-      <c r="Y52" s="144"/>
-      <c r="Z52" s="144"/>
-      <c r="AA52" s="144"/>
-      <c r="AB52" s="144"/>
-      <c r="AC52" s="144"/>
-      <c r="AD52" s="145"/>
-      <c r="AE52" s="143"/>
-      <c r="AF52" s="144"/>
-      <c r="AG52" s="144"/>
-      <c r="AH52" s="144"/>
-      <c r="AI52" s="145"/>
-      <c r="AJ52" s="143"/>
-      <c r="AK52" s="145"/>
+      <c r="R52" s="203"/>
+      <c r="S52" s="204"/>
+      <c r="T52" s="204"/>
+      <c r="U52" s="204"/>
+      <c r="V52" s="204"/>
+      <c r="W52" s="204"/>
+      <c r="X52" s="204"/>
+      <c r="Y52" s="204"/>
+      <c r="Z52" s="204"/>
+      <c r="AA52" s="204"/>
+      <c r="AB52" s="204"/>
+      <c r="AC52" s="204"/>
+      <c r="AD52" s="205"/>
+      <c r="AE52" s="203"/>
+      <c r="AF52" s="204"/>
+      <c r="AG52" s="204"/>
+      <c r="AH52" s="204"/>
+      <c r="AI52" s="205"/>
+      <c r="AJ52" s="203"/>
+      <c r="AK52" s="205"/>
     </row>
     <row r="53" spans="1:37" ht="6.75" customHeight="1">
       <c r="A53" s="71"/>
@@ -5738,68 +5738,200 @@
       <c r="F57" s="44"/>
     </row>
     <row r="60" spans="1:37" ht="19.5">
-      <c r="AH60" s="126"/>
-      <c r="AI60" s="127"/>
-      <c r="AJ60" s="127"/>
+      <c r="AH60" s="188"/>
+      <c r="AI60" s="189"/>
+      <c r="AJ60" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="268">
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:AA10"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:AA11"/>
-    <mergeCell ref="AE11:AK11"/>
-    <mergeCell ref="J2:AE5"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AI2:AK4"/>
-    <mergeCell ref="N6:U6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:AA9"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="S13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="A14:R16"/>
-    <mergeCell ref="S14:AI16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:V18"/>
-    <mergeCell ref="W18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="W19:AC19"/>
-    <mergeCell ref="AE19:AH19"/>
-    <mergeCell ref="AI19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="W20:AC20"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AI20:AK20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="AG45:AI45"/>
+    <mergeCell ref="A45:X45"/>
+    <mergeCell ref="AG38:AI38"/>
+    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="AG32:AI32"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AG34:AI34"/>
+    <mergeCell ref="AG35:AI35"/>
+    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y43:AB43"/>
+    <mergeCell ref="Y44:AB44"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AG44:AI44"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AG26:AI26"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AG28:AI28"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="AH60:AJ60"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="R48:AK48"/>
+    <mergeCell ref="R49:AD50"/>
+    <mergeCell ref="AE49:AI50"/>
+    <mergeCell ref="AJ49:AK50"/>
+    <mergeCell ref="R51:AD52"/>
+    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="AJ51:AK52"/>
+    <mergeCell ref="AJ44:AK44"/>
+    <mergeCell ref="AJ45:AK45"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AC45:AF45"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="Y32:AB32"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I28:N28"/>
     <mergeCell ref="AJ24:AK24"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="I25:N25"/>
@@ -5824,194 +5956,62 @@
     <mergeCell ref="AC25:AF25"/>
     <mergeCell ref="Y25:AB25"/>
     <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="O33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="Y32:AB32"/>
-    <mergeCell ref="Y33:AB33"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="O35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="AJ35:AK35"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="AJ38:AK38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="AH60:AJ60"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="R48:AK48"/>
-    <mergeCell ref="R49:AD50"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="AJ49:AK50"/>
-    <mergeCell ref="R51:AD52"/>
-    <mergeCell ref="AE51:AI52"/>
-    <mergeCell ref="AJ51:AK52"/>
-    <mergeCell ref="AJ44:AK44"/>
-    <mergeCell ref="AJ45:AK45"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AC45:AF45"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="AG26:AI26"/>
-    <mergeCell ref="AG27:AI27"/>
-    <mergeCell ref="AG28:AI28"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="AG29:AI29"/>
-    <mergeCell ref="AG30:AI30"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="O38:S38"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="AG32:AI32"/>
-    <mergeCell ref="AG33:AI33"/>
-    <mergeCell ref="AG34:AI34"/>
-    <mergeCell ref="AG35:AI35"/>
-    <mergeCell ref="AG36:AI36"/>
-    <mergeCell ref="AG37:AI37"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y43:AB43"/>
-    <mergeCell ref="Y44:AB44"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC43:AF43"/>
-    <mergeCell ref="AG44:AI44"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="AG45:AI45"/>
-    <mergeCell ref="A45:X45"/>
-    <mergeCell ref="AG38:AI38"/>
-    <mergeCell ref="AG39:AI39"/>
-    <mergeCell ref="AG40:AI40"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="AG42:AI42"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="O44:S44"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:AC20"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="W19:AC19"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="AI19:AK19"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="S13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="A14:R16"/>
+    <mergeCell ref="S14:AI16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:V18"/>
+    <mergeCell ref="W18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:AA10"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:AA11"/>
+    <mergeCell ref="AE11:AK11"/>
+    <mergeCell ref="J2:AE5"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AK4"/>
+    <mergeCell ref="N6:U6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:AA9"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="AH9:AK9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
+++ b/ReadAndWriteFileExcel/TrungTrang/excel/phieusuachua.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\exceltrungtrang\ReadAndWriteFileExcel\TrungTrang\bin\Debug\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAEEAD-5DB1-4BD3-9187-0621060D87BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A0FD94-527B-4EDF-902A-3E3DEFE4AC31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11655" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2553,8 +2553,8 @@
   </sheetPr>
   <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ44" sqref="AJ44:AK44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG45" sqref="AG45:AI45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
@@ -3609,7 +3609,7 @@
       <c r="W25" s="187"/>
       <c r="X25" s="187"/>
       <c r="Y25" s="184">
-        <f>ROUND(V25*O25,-1)</f>
+        <f>ROUND(V25*AC25,-1)</f>
         <v>0</v>
       </c>
       <c r="Z25" s="184"/>
@@ -3628,7 +3628,7 @@
       <c r="AH25" s="171"/>
       <c r="AI25" s="171"/>
       <c r="AJ25" s="171">
-        <f>AC25-Y25*T25 + ROUND(AG25*(1-V25),-1)</f>
+        <f>AC25-Y25 + ROUND(AG25*(1-V25),-1)</f>
         <v>0</v>
       </c>
       <c r="AK25" s="172"/>
@@ -3668,7 +3668,7 @@
       <c r="W26" s="187"/>
       <c r="X26" s="187"/>
       <c r="Y26" s="184">
-        <f t="shared" ref="Y26:Y44" si="0">ROUND(V26*O26,-1)</f>
+        <f t="shared" ref="Y26:Y44" si="0">ROUND(V26*AC26,-1)</f>
         <v>0</v>
       </c>
       <c r="Z26" s="184"/>
@@ -3687,7 +3687,7 @@
       <c r="AH26" s="210"/>
       <c r="AI26" s="211"/>
       <c r="AJ26" s="171">
-        <f t="shared" ref="AJ26:AJ44" si="2">AC26-Y26*T26 + ROUND(AG26*(1-V26),-1)</f>
+        <f t="shared" ref="AJ26:AJ44" si="2">AC26-Y26 + ROUND(AG26*(1-V26),-1)</f>
         <v>0</v>
       </c>
       <c r="AK26" s="172"/>
@@ -5103,7 +5103,7 @@
       <c r="AA45" s="207"/>
       <c r="AB45" s="207"/>
       <c r="AC45" s="206">
-        <f>SUMPRODUCT( (AC25:AF44)  - (Y25:AB44)* (T25:T44))</f>
+        <f>SUMPRODUCT( (AC25:AF44)  - (Y25:AB44))</f>
         <v>0</v>
       </c>
       <c r="AD45" s="206"/>
